--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2152E918-0EAF-43E0-A128-89C290B5AB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184C7C02-12C7-4843-A04E-7C3E8ABC5133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -124,22 +124,10 @@
 A status bar shaded for the dates entered appears in blocks starting from cell I9 through BL9. </t>
   </si>
   <si>
-    <t>Task 1</t>
-  </si>
-  <si>
     <t>Rows 10 through 13 repeat the pattern from row 9. 
 Repeat the instructions from cell A9 for all task rows in this worksheet. Overwrite any sample data.
 A sample of another phase starts in cell A14. 
 Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more.</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
   </si>
   <si>
     <t>The cell at right contains the Phase 2 sample title. 
@@ -206,30 +194,10 @@
     <t>Businesses will find invoices, time sheets, inventory trackers, financial statements, and project planning templates. Teachers and students will find resources such as class schedules, grade books, and attendance sheets. Organize your family life with meal planners, checklists, and exercise logs. Each template is thoroughly researched, refined, and improved over time through feedback from thousands of users.</t>
   </si>
   <si>
-    <t>산나비 프로젝트</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>김경식</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>로고 레벨</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀 레벨</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 에디터 레벨</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입맵 기능</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>김경식</t>
   </si>
   <si>
@@ -237,107 +205,155 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>시네머신 기능</t>
+    <t>데이터 베이스</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>NPC 베이스</t>
+    <t>스컬 프로젝트</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 시스템</t>
+    <t>기초 스컬 시스템</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>오브젝트</t>
+    <t>기초 타일맵 구조</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 기본 동작</t>
+    <t>기초 몬스터 시스템</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>애니메이션 시스템</t>
+    <t>카메라 시스템</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 로프 액션 시스템</t>
+    <t>Static 오브젝트</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>라인 랜더러 시스템</t>
+    <t>Rigdbody 오브젝트</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>기본 맵 배치</t>
+    <t>배경 시스템</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>보스 패턴 구현</t>
+    <t>맵 툴</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>QTE 액션 구현</t>
+    <t>아이템 시스템</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>보스 연출</t>
+    <t>기본 전투 시스템 [1 ~ 2주차]</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>킹핀</t>
+    <t>맵 시스템, 아이템 [3 ~ 4주차]</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>철이</t>
+    <t>중간보스 견습 용사</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>콜보이</t>
+    <t>메인보스 각성 용사</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>고양이 및 티렉스</t>
+    <t>NPC 대화</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>강선</t>
+    <t>오프닝 연출</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>캡틴</t>
+    <t>엔딩 연출</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>솔져</t>
+    <t>스토리 UI</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>Boss 구현 (4주차)</t>
+    <t>엔딩  UI</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 작동 기능 (3주차)</t>
+    <t>Boss 구현 [5주차]</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>컨텐츠 기본 시스템 (1, 2주차)</t>
+    <t>UI 및 연출 구현 [6 ~ 7주차]</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어와 딸 연출 (UI 시스템 포함)</t>
+    <t>Boss 구현 [8 ~ 9주차]</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>퀄리티 작업 및 추가 컨텐츠 (11 ~ 12주차)</t>
+    <t>마법사</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>쉐이더 연출(11, 10주차)</t>
+    <t>사제</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>NPC 연출 구현(5 ~ 7주차)</t>
+    <t>레이아나 자매 페이즈 1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이아나 자매 페이즈 2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀄리티 작업 및 추가 컨텐츠 (10 ~ 12주차)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수 시스템</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 및 필드 UI</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이더 작업</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 용사 1페이즈</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 용사 2페이즈</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 용사 3페이즈</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 용사 엔딩 연출</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 UI</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 UI</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사운드 작업 </t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +367,7 @@
     <numFmt numFmtId="178" formatCode="ddd\,\ m/d/yyyy"/>
     <numFmt numFmtId="179" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="180" formatCode="d"/>
-    <numFmt numFmtId="182" formatCode="yy/mm/dd;@"/>
+    <numFmt numFmtId="181" formatCode="yy/mm/dd;@"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -994,110 +1010,110 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="15" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="17" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="11" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="15" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="17" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1429,10 +1445,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1702,11 +1714,11 @@
   <dimension ref="A1:BM45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" style="54" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -1720,7 +1732,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1737,126 +1749,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J2" s="74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="110">
-        <v>45033</v>
-      </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="110"/>
+      <c r="E3" s="108">
+        <v>45040</v>
+      </c>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="81"/>
-      <c r="J4" s="78">
+        <v>1</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="J4" s="105">
         <f>J5</f>
-        <v>45026</v>
-      </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="78">
+        <v>45040</v>
+      </c>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
-        <v>45033</v>
-      </c>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="78">
+        <v>45047</v>
+      </c>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
-        <v>45040</v>
-      </c>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="78">
+        <v>45054</v>
+      </c>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
-        <v>45047</v>
-      </c>
-      <c r="AF4" s="79"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="79"/>
-      <c r="AI4" s="79"/>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="80"/>
-      <c r="AL4" s="78">
+        <v>45061</v>
+      </c>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
-        <v>45054</v>
-      </c>
-      <c r="AM4" s="79"/>
-      <c r="AN4" s="79"/>
-      <c r="AO4" s="79"/>
-      <c r="AP4" s="79"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="78">
+        <v>45068</v>
+      </c>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
-        <v>45061</v>
-      </c>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="79"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="79"/>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="78">
+        <v>45075</v>
+      </c>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
-        <v>45068</v>
-      </c>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="79"/>
-      <c r="BC4" s="79"/>
-      <c r="BD4" s="79"/>
-      <c r="BE4" s="79"/>
-      <c r="BF4" s="80"/>
-      <c r="BG4" s="78">
+        <v>45082</v>
+      </c>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
-        <v>45075</v>
-      </c>
-      <c r="BH4" s="79"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="79"/>
-      <c r="BK4" s="79"/>
-      <c r="BL4" s="79"/>
-      <c r="BM4" s="80"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45089</v>
+      </c>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
@@ -1869,230 +1881,230 @@
       <c r="H5" s="72"/>
       <c r="J5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="K5" s="9">
         <f>J5+1</f>
-        <v>45027</v>
+        <v>45041</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" ref="L5:AY5" si="0">K5+1</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="0"/>
-        <v>45029</v>
+        <v>45043</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="0"/>
-        <v>45030</v>
+        <v>45044</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="0"/>
-        <v>45031</v>
+        <v>45045</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>45046</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>45033</v>
+        <v>45047</v>
       </c>
       <c r="R5" s="9">
         <f>Q5+1</f>
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="0"/>
-        <v>45035</v>
+        <v>45049</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="0"/>
-        <v>45036</v>
+        <v>45050</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="0"/>
-        <v>45037</v>
+        <v>45051</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="0"/>
-        <v>45038</v>
+        <v>45052</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="0"/>
-        <v>45039</v>
+        <v>45053</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>45040</v>
+        <v>45054</v>
       </c>
       <c r="Y5" s="9">
         <f>X5+1</f>
-        <v>45041</v>
+        <v>45055</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="0"/>
-        <v>45042</v>
+        <v>45056</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="0"/>
-        <v>45043</v>
+        <v>45057</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="0"/>
-        <v>45044</v>
+        <v>45058</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" si="0"/>
-        <v>45045</v>
+        <v>45059</v>
       </c>
       <c r="AD5" s="11">
         <f t="shared" si="0"/>
-        <v>45046</v>
+        <v>45060</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>45047</v>
+        <v>45061</v>
       </c>
       <c r="AF5" s="9">
         <f>AE5+1</f>
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="0"/>
-        <v>45049</v>
+        <v>45063</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="0"/>
-        <v>45050</v>
+        <v>45064</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" si="0"/>
-        <v>45051</v>
+        <v>45065</v>
       </c>
       <c r="AJ5" s="9">
         <f t="shared" si="0"/>
-        <v>45052</v>
+        <v>45066</v>
       </c>
       <c r="AK5" s="11">
         <f t="shared" si="0"/>
-        <v>45053</v>
+        <v>45067</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>45054</v>
+        <v>45068</v>
       </c>
       <c r="AM5" s="9">
         <f>AL5+1</f>
-        <v>45055</v>
+        <v>45069</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="0"/>
-        <v>45056</v>
+        <v>45070</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="0"/>
-        <v>45057</v>
+        <v>45071</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" si="0"/>
-        <v>45058</v>
+        <v>45072</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" si="0"/>
-        <v>45059</v>
+        <v>45073</v>
       </c>
       <c r="AR5" s="11">
         <f t="shared" si="0"/>
-        <v>45060</v>
+        <v>45074</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>45061</v>
+        <v>45075</v>
       </c>
       <c r="AT5" s="9">
         <f>AS5+1</f>
-        <v>45062</v>
+        <v>45076</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" si="0"/>
-        <v>45063</v>
+        <v>45077</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" si="0"/>
-        <v>45064</v>
+        <v>45078</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" si="0"/>
-        <v>45065</v>
+        <v>45079</v>
       </c>
       <c r="AX5" s="9">
         <f t="shared" si="0"/>
-        <v>45066</v>
+        <v>45080</v>
       </c>
       <c r="AY5" s="11">
         <f t="shared" si="0"/>
-        <v>45067</v>
+        <v>45081</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>45068</v>
+        <v>45082</v>
       </c>
       <c r="BA5" s="9">
         <f>AZ5+1</f>
-        <v>45069</v>
+        <v>45083</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" ref="BB5:BF5" si="1">BA5+1</f>
-        <v>45070</v>
+        <v>45084</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" si="1"/>
-        <v>45071</v>
+        <v>45085</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" si="1"/>
-        <v>45072</v>
+        <v>45086</v>
       </c>
       <c r="BE5" s="9">
         <f t="shared" si="1"/>
-        <v>45073</v>
+        <v>45087</v>
       </c>
       <c r="BF5" s="11">
         <f t="shared" si="1"/>
-        <v>45074</v>
+        <v>45088</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>45075</v>
+        <v>45089</v>
       </c>
       <c r="BH5" s="9">
         <f>BG5+1</f>
-        <v>45076</v>
+        <v>45090</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" ref="BI5:BM5" si="2">BH5+1</f>
-        <v>45077</v>
+        <v>45091</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" si="2"/>
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" si="2"/>
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="BL5" s="9">
         <f t="shared" si="2"/>
-        <v>45080</v>
+        <v>45094</v>
       </c>
       <c r="BM5" s="11">
         <f t="shared" si="2"/>
-        <v>45081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="55" t="s">
         <v>9</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>14</v>
@@ -2343,7 +2355,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="54" t="s">
         <v>16</v>
       </c>
@@ -2411,12 +2423,12 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="15"/>
@@ -2485,29 +2497,29 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="55" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="81">
+        <f>Project_Start</f>
+        <v>45040</v>
+      </c>
+      <c r="F9" s="77">
         <v>0</v>
       </c>
-      <c r="E9" s="86">
-        <f>Project_Start</f>
-        <v>45033</v>
-      </c>
-      <c r="F9" s="82">
-        <v>0</v>
-      </c>
-      <c r="G9" s="86">
-        <f>SUM(E9,F9)</f>
-        <v>45033</v>
+      <c r="G9" s="81">
+        <f t="shared" ref="G9:G13" si="7">SUM(E9,F9)</f>
+        <v>45040</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13">
@@ -2571,29 +2583,29 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" s="18">
         <v>0</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="81">
         <f>G9</f>
-        <v>45033</v>
-      </c>
-      <c r="F10" s="82">
+        <v>45040</v>
+      </c>
+      <c r="F10" s="77">
         <v>0</v>
       </c>
-      <c r="G10" s="86">
-        <f>SUM(E10,F10)</f>
-        <v>45033</v>
+      <c r="G10" s="81">
+        <f t="shared" si="7"/>
+        <v>45040</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13">
@@ -2657,32 +2669,32 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="54"/>
       <c r="B11" s="68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="86">
-        <f>G10</f>
-        <v>45033</v>
-      </c>
-      <c r="F11" s="82">
-        <v>0</v>
-      </c>
-      <c r="G11" s="86">
-        <f>SUM(E11,F11)</f>
-        <v>45033</v>
+      <c r="E11" s="81">
+        <f>G10 + 1</f>
+        <v>45041</v>
+      </c>
+      <c r="F11" s="77">
+        <v>5</v>
+      </c>
+      <c r="G11" s="81">
+        <f t="shared" si="7"/>
+        <v>45046</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -2741,32 +2753,32 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" s="18">
         <v>0</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="81">
         <f>G11 + 1</f>
-        <v>45034</v>
-      </c>
-      <c r="F12" s="82">
-        <v>1</v>
-      </c>
-      <c r="G12" s="86">
-        <f>SUM(E12,F12)</f>
-        <v>45035</v>
+        <v>45047</v>
+      </c>
+      <c r="F12" s="77">
+        <v>2</v>
+      </c>
+      <c r="G12" s="81">
+        <f t="shared" si="7"/>
+        <v>45049</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -2825,32 +2837,32 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="54"/>
       <c r="B13" s="68" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" s="18">
         <v>0</v>
       </c>
-      <c r="E13" s="86">
-        <f>G12 +1</f>
-        <v>45036</v>
-      </c>
-      <c r="F13" s="82">
-        <v>1</v>
-      </c>
-      <c r="G13" s="86">
-        <f>SUM(E13,F13)</f>
-        <v>45037</v>
+      <c r="E13" s="81">
+        <f>G12 + 1</f>
+        <v>45050</v>
+      </c>
+      <c r="F13" s="77">
+        <v>3</v>
+      </c>
+      <c r="G13" s="81">
+        <f t="shared" si="7"/>
+        <v>45053</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -2909,32 +2921,22 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="86">
-        <f>G13 + 3</f>
-        <v>45040</v>
-      </c>
-      <c r="F14" s="82">
-        <v>0</v>
-      </c>
-      <c r="G14" s="86">
-        <f>SUM(E14,F14)</f>
-        <v>45040</v>
-      </c>
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A14" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="13">
+      <c r="I14" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -2993,32 +2995,32 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="18">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A15" s="55"/>
+      <c r="B15" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="23">
         <v>0</v>
       </c>
-      <c r="E15" s="86">
-        <f>G14 + 1</f>
-        <v>45041</v>
-      </c>
-      <c r="F15" s="82">
-        <v>1</v>
-      </c>
-      <c r="G15" s="86">
+      <c r="E15" s="82">
+        <f xml:space="preserve"> G13 + 1</f>
+        <v>45054</v>
+      </c>
+      <c r="F15" s="78">
+        <v>0</v>
+      </c>
+      <c r="G15" s="82">
         <f>SUM(E15,F15)</f>
-        <v>45042</v>
+        <v>45054</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -3077,32 +3079,32 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="54"/>
-      <c r="B16" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="B16" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="23">
         <v>0</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="82">
         <f>G15 + 1</f>
-        <v>45043</v>
-      </c>
-      <c r="F16" s="82">
-        <v>1</v>
-      </c>
-      <c r="G16" s="86">
+        <v>45055</v>
+      </c>
+      <c r="F16" s="78">
+        <v>0</v>
+      </c>
+      <c r="G16" s="82">
         <f>SUM(E16,F16)</f>
-        <v>45044</v>
+        <v>45055</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
@@ -3116,8 +3118,8 @@
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
       <c r="Z16" s="40"/>
@@ -3161,22 +3163,32 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A17" s="54"/>
+      <c r="B17" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0</v>
+      </c>
+      <c r="E17" s="82">
+        <f>G16 + 1</f>
+        <v>45056</v>
+      </c>
+      <c r="F17" s="78">
+        <v>2</v>
+      </c>
+      <c r="G17" s="82">
+        <f t="shared" ref="G17:G20" si="8">SUM(E17,F17)</f>
+        <v>45058</v>
+      </c>
       <c r="H17" s="13"/>
-      <c r="I17" s="13" t="str">
+      <c r="I17" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
@@ -3235,32 +3247,32 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A18" s="54"/>
       <c r="B18" s="69" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D18" s="23">
         <v>0</v>
       </c>
-      <c r="E18" s="87">
-        <f>G16 + 3</f>
-        <v>45047</v>
-      </c>
-      <c r="F18" s="83">
-        <v>0</v>
-      </c>
-      <c r="G18" s="87">
+      <c r="E18" s="82">
+        <f>G17 + 1</f>
+        <v>45059</v>
+      </c>
+      <c r="F18" s="78">
+        <v>3</v>
+      </c>
+      <c r="G18" s="82">
         <f>SUM(E18,F18)</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
@@ -3278,7 +3290,7 @@
       <c r="W18" s="40"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="Z18" s="41"/>
       <c r="AA18" s="40"/>
       <c r="AB18" s="40"/>
       <c r="AC18" s="40"/>
@@ -3319,33 +3331,30 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="54"/>
       <c r="B19" s="69" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" s="23">
         <v>0</v>
       </c>
-      <c r="E19" s="87">
-        <f>G18 + 0</f>
-        <v>45047</v>
-      </c>
-      <c r="F19" s="83">
-        <v>1</v>
-      </c>
-      <c r="G19" s="87">
+      <c r="E19" s="82">
+        <f>G18 + 1</f>
+        <v>45063</v>
+      </c>
+      <c r="F19" s="78">
+        <v>2</v>
+      </c>
+      <c r="G19" s="82">
         <f>SUM(E19,F19)</f>
-        <v>45048</v>
+        <v>45065</v>
       </c>
       <c r="H19" s="13"/>
-      <c r="I19" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="I19" s="13"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
@@ -3358,11 +3367,11 @@
       <c r="S19" s="40"/>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
+      <c r="Z19" s="41"/>
       <c r="AA19" s="40"/>
       <c r="AB19" s="40"/>
       <c r="AC19" s="40"/>
@@ -3403,32 +3412,32 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="54"/>
       <c r="B20" s="69" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D20" s="23">
         <v>0</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="82">
         <f>G19 + 1</f>
-        <v>45049</v>
-      </c>
-      <c r="F20" s="83">
-        <v>0</v>
-      </c>
-      <c r="G20" s="87">
-        <f t="shared" ref="G20:G22" si="7">SUM(E20,F20)</f>
-        <v>45049</v>
+        <v>45066</v>
+      </c>
+      <c r="F20" s="78">
+        <v>1</v>
+      </c>
+      <c r="G20" s="82">
+        <f t="shared" si="8"/>
+        <v>45067</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
@@ -3487,32 +3496,22 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="87">
-        <f>G20 + 1</f>
-        <v>45050</v>
-      </c>
-      <c r="F21" s="83">
-        <v>0</v>
-      </c>
-      <c r="G21" s="87">
-        <f t="shared" si="7"/>
-        <v>45050</v>
-      </c>
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A21" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="13">
+      <c r="I21" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
@@ -3530,7 +3529,7 @@
       <c r="W21" s="40"/>
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
-      <c r="Z21" s="41"/>
+      <c r="Z21" s="40"/>
       <c r="AA21" s="40"/>
       <c r="AB21" s="40"/>
       <c r="AC21" s="40"/>
@@ -3571,32 +3570,32 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="54"/>
-      <c r="B22" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="B22" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="28">
         <v>0</v>
       </c>
-      <c r="E22" s="87">
-        <f>G21 + 1</f>
-        <v>45051</v>
-      </c>
-      <c r="F22" s="83">
-        <v>0</v>
-      </c>
-      <c r="G22" s="87">
-        <f t="shared" si="7"/>
-        <v>45051</v>
+      <c r="E22" s="83">
+        <f>G20 + 1</f>
+        <v>45068</v>
+      </c>
+      <c r="F22" s="79">
+        <v>3</v>
+      </c>
+      <c r="G22" s="83">
+        <f>SUM(E22,F22)</f>
+        <v>45071</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
@@ -3655,22 +3654,32 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A23" s="54"/>
+      <c r="B23" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0</v>
+      </c>
+      <c r="E23" s="83">
+        <f>G22 + 1</f>
+        <v>45072</v>
+      </c>
+      <c r="F23" s="79">
+        <v>2</v>
+      </c>
+      <c r="G23" s="83">
+        <f>SUM(E23,F23)</f>
+        <v>45074</v>
+      </c>
       <c r="H23" s="13"/>
-      <c r="I23" s="13" t="str">
+      <c r="I23" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
@@ -3729,32 +3738,22 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="54"/>
-      <c r="B24" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="28">
-        <v>0</v>
-      </c>
-      <c r="E24" s="88">
-        <f>G22 + 3</f>
-        <v>45054</v>
-      </c>
-      <c r="F24" s="84">
-        <v>1</v>
-      </c>
-      <c r="G24" s="88">
-        <f>SUM(E24,F24)</f>
-        <v>45055</v>
-      </c>
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A24" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="13">
+      <c r="I24" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
@@ -3813,32 +3812,32 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="54"/>
-      <c r="B25" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="28">
+      <c r="B25" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="33">
         <v>0</v>
       </c>
-      <c r="E25" s="88">
-        <f>G24</f>
-        <v>45055</v>
-      </c>
-      <c r="F25" s="84">
-        <v>1</v>
-      </c>
-      <c r="G25" s="88">
+      <c r="E25" s="84">
+        <f>G23 + 1</f>
+        <v>45075</v>
+      </c>
+      <c r="F25" s="80">
+        <v>2</v>
+      </c>
+      <c r="G25" s="84">
         <f>SUM(E25,F25)</f>
-        <v>45056</v>
+        <v>45077</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
@@ -3897,27 +3896,27 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="54"/>
-      <c r="B26" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="28">
+      <c r="B26" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="33">
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="84">
         <f>G25 + 1</f>
-        <v>45057</v>
-      </c>
-      <c r="F26" s="84">
+        <v>45078</v>
+      </c>
+      <c r="F26" s="80">
         <v>1</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="84">
         <f>SUM(E26,F26)</f>
-        <v>45058</v>
+        <v>45079</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13">
@@ -3981,22 +3980,32 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A27" s="54"/>
+      <c r="B27" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="33">
+        <v>0</v>
+      </c>
+      <c r="E27" s="84">
+        <f>G26 + 1</f>
+        <v>45080</v>
+      </c>
+      <c r="F27" s="80">
+        <v>0</v>
+      </c>
+      <c r="G27" s="84">
+        <f>SUM(E27,F27)</f>
+        <v>45080</v>
+      </c>
       <c r="H27" s="13"/>
-      <c r="I27" s="13" t="str">
+      <c r="I27" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
@@ -4055,32 +4064,32 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="54"/>
       <c r="B28" s="71" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D28" s="33">
         <v>0</v>
       </c>
-      <c r="E28" s="89">
-        <f>G26 + 3</f>
-        <v>45061</v>
-      </c>
-      <c r="F28" s="85">
-        <v>2</v>
-      </c>
-      <c r="G28" s="89">
-        <f>SUM(E28,F28)</f>
-        <v>45063</v>
+      <c r="E28" s="84">
+        <f>G27 + 1</f>
+        <v>45081</v>
+      </c>
+      <c r="F28" s="80">
+        <v>1</v>
+      </c>
+      <c r="G28" s="84">
+        <f t="shared" ref="G28:G29" si="9">SUM(E28,F28)</f>
+        <v>45082</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" s="40"/>
       <c r="K28" s="40"/>
@@ -4139,27 +4148,27 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="54"/>
       <c r="B29" s="71" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D29" s="33">
         <v>0</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="84">
         <f>G28 + 1</f>
-        <v>45064</v>
-      </c>
-      <c r="F29" s="85">
+        <v>45083</v>
+      </c>
+      <c r="F29" s="80">
         <v>0</v>
       </c>
-      <c r="G29" s="89">
-        <f>SUM(E29,F29)</f>
-        <v>45064</v>
+      <c r="G29" s="84">
+        <f t="shared" si="9"/>
+        <v>45083</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
@@ -4223,27 +4232,27 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="54"/>
       <c r="B30" s="71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D30" s="33">
         <v>0</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30" s="84">
         <f>G29 + 1</f>
-        <v>45065</v>
-      </c>
-      <c r="F30" s="85">
+        <v>45084</v>
+      </c>
+      <c r="F30" s="80">
         <v>0</v>
       </c>
-      <c r="G30" s="89">
-        <f>SUM(E30,F30)</f>
-        <v>45065</v>
+      <c r="G30" s="84">
+        <f t="shared" ref="G30:G32" si="10">SUM(E30,F30)</f>
+        <v>45084</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13">
@@ -4307,27 +4316,27 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="54"/>
       <c r="B31" s="71" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D31" s="33">
         <v>0</v>
       </c>
-      <c r="E31" s="89">
-        <f t="shared" ref="E31" si="8">G30</f>
-        <v>45065</v>
-      </c>
-      <c r="F31" s="85">
+      <c r="E31" s="84">
+        <f>G30 + 1</f>
+        <v>45085</v>
+      </c>
+      <c r="F31" s="80">
         <v>0</v>
       </c>
-      <c r="G31" s="89">
-        <f t="shared" ref="G31:G32" si="9">SUM(E31,F31)</f>
-        <v>45065</v>
+      <c r="G31" s="84">
+        <f t="shared" si="10"/>
+        <v>45085</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13">
@@ -4391,32 +4400,32 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="54"/>
       <c r="B32" s="71" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D32" s="33">
         <v>0</v>
       </c>
-      <c r="E32" s="89">
-        <f>G31 + 3</f>
-        <v>45068</v>
-      </c>
-      <c r="F32" s="85">
-        <v>0</v>
-      </c>
-      <c r="G32" s="89">
-        <f t="shared" si="9"/>
-        <v>45068</v>
+      <c r="E32" s="84">
+        <f>G31 + 1</f>
+        <v>45086</v>
+      </c>
+      <c r="F32" s="80">
+        <v>2</v>
+      </c>
+      <c r="G32" s="84">
+        <f t="shared" si="10"/>
+        <v>45088</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
@@ -4475,32 +4484,22 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="54"/>
-      <c r="B33" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="89">
-        <f>G32 + 1</f>
-        <v>45069</v>
-      </c>
-      <c r="F33" s="85">
-        <v>2</v>
-      </c>
-      <c r="G33" s="89">
-        <f t="shared" ref="G33:G35" si="10">SUM(E33,F33)</f>
-        <v>45071</v>
-      </c>
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A33" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="13">
+      <c r="I33" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
@@ -4559,32 +4558,32 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="54"/>
-      <c r="B34" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="33">
+      <c r="B34" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="92">
         <v>0</v>
       </c>
-      <c r="E34" s="89">
-        <f t="shared" ref="E33:E35" si="11">G33</f>
-        <v>45071</v>
-      </c>
-      <c r="F34" s="85">
-        <v>0</v>
-      </c>
-      <c r="G34" s="89">
-        <f t="shared" si="10"/>
-        <v>45071</v>
+      <c r="E34" s="93">
+        <f>G32 + 1</f>
+        <v>45089</v>
+      </c>
+      <c r="F34" s="94">
+        <v>1</v>
+      </c>
+      <c r="G34" s="93">
+        <f>SUM(E34,F34)</f>
+        <v>45090</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
@@ -4643,27 +4642,27 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="54"/>
-      <c r="B35" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="33">
+      <c r="B35" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="92">
         <v>0</v>
       </c>
-      <c r="E35" s="89">
-        <f>G34</f>
-        <v>45071</v>
-      </c>
-      <c r="F35" s="85">
+      <c r="E35" s="93">
+        <f>G34 + 1</f>
+        <v>45091</v>
+      </c>
+      <c r="F35" s="94">
         <v>1</v>
       </c>
-      <c r="G35" s="89">
-        <f t="shared" si="10"/>
-        <v>45072</v>
+      <c r="G35" s="93">
+        <f>SUM(E35,F35)</f>
+        <v>45092</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13">
@@ -4727,22 +4726,32 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="54" t="s">
-        <v>25</v>
-      </c>
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A36" s="54"/>
       <c r="B36" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
+        <v>65</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="92">
+        <v>0</v>
+      </c>
+      <c r="E36" s="93">
+        <f>G35 + 1</f>
+        <v>45093</v>
+      </c>
+      <c r="F36" s="94">
+        <v>4</v>
+      </c>
+      <c r="G36" s="93">
+        <f>SUM(E36,F36)</f>
+        <v>45097</v>
+      </c>
       <c r="H36" s="13"/>
-      <c r="I36" s="13" t="str">
+      <c r="I36" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
@@ -4801,32 +4810,32 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="54"/>
-      <c r="B37" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="97">
+      <c r="B37" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="92">
         <v>0</v>
       </c>
-      <c r="E37" s="98">
-        <f>G35 + 3</f>
-        <v>45075</v>
-      </c>
-      <c r="F37" s="99">
-        <v>0</v>
-      </c>
-      <c r="G37" s="98">
+      <c r="E37" s="93">
+        <f>G36 + 1</f>
+        <v>45098</v>
+      </c>
+      <c r="F37" s="94">
+        <v>4</v>
+      </c>
+      <c r="G37" s="93">
         <f>SUM(E37,F37)</f>
-        <v>45075</v>
+        <v>45102</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
@@ -4885,32 +4894,22 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="54"/>
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A38" s="54" t="s">
+        <v>21</v>
+      </c>
       <c r="B38" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="97">
-        <v>0</v>
-      </c>
-      <c r="E38" s="98">
-        <f>G37</f>
-        <v>45075</v>
-      </c>
-      <c r="F38" s="99">
-        <v>0</v>
-      </c>
-      <c r="G38" s="98">
-        <f>SUM(E38,F38)</f>
-        <v>45075</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="99"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="13">
+      <c r="I38" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
@@ -4969,27 +4968,27 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="54"/>
-      <c r="B39" s="95" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="97">
+      <c r="B39" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="102">
         <v>0</v>
       </c>
-      <c r="E39" s="98">
-        <f>G38</f>
-        <v>45075</v>
-      </c>
-      <c r="F39" s="99">
+      <c r="E39" s="103">
+        <f>G37 + 1</f>
+        <v>45103</v>
+      </c>
+      <c r="F39" s="104">
         <v>0</v>
       </c>
-      <c r="G39" s="98">
-        <f>E39</f>
-        <v>45075</v>
+      <c r="G39" s="103">
+        <f>SUM(E39,F39)</f>
+        <v>45103</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13">
@@ -5053,27 +5052,27 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="54"/>
-      <c r="B40" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="97">
+      <c r="B40" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="102">
         <v>0</v>
       </c>
-      <c r="E40" s="98">
+      <c r="E40" s="103">
         <f>G39</f>
-        <v>45075</v>
-      </c>
-      <c r="F40" s="99">
+        <v>45103</v>
+      </c>
+      <c r="F40" s="104">
         <v>0</v>
       </c>
-      <c r="G40" s="98">
-        <f>E40</f>
-        <v>45075</v>
+      <c r="G40" s="103">
+        <f>SUM(E40,F40)</f>
+        <v>45103</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13">
@@ -5137,27 +5136,27 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="54"/>
-      <c r="B41" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="97">
+      <c r="B41" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="102">
         <v>0</v>
       </c>
-      <c r="E41" s="98">
+      <c r="E41" s="103">
         <f>G40</f>
-        <v>45075</v>
-      </c>
-      <c r="F41" s="99">
+        <v>45103</v>
+      </c>
+      <c r="F41" s="104">
         <v>0</v>
       </c>
-      <c r="G41" s="98">
-        <f>E41</f>
-        <v>45075</v>
+      <c r="G41" s="103">
+        <f>SUM(E41,F41)</f>
+        <v>45103</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13">
@@ -5221,22 +5220,32 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="54" t="s">
-        <v>25</v>
-      </c>
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A42" s="54"/>
       <c r="B42" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="104"/>
+      <c r="C42" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="102">
+        <v>0</v>
+      </c>
+      <c r="E42" s="103">
+        <f>G41</f>
+        <v>45103</v>
+      </c>
+      <c r="F42" s="104">
+        <v>0</v>
+      </c>
+      <c r="G42" s="103">
+        <f>SUM(E42,F42)</f>
+        <v>45103</v>
+      </c>
       <c r="H42" s="13"/>
-      <c r="I42" s="13" t="str">
+      <c r="I42" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J42" s="40"/>
       <c r="K42" s="40"/>
@@ -5295,27 +5304,27 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="54"/>
-      <c r="B43" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="107">
+      <c r="B43" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="102">
         <v>0</v>
       </c>
-      <c r="E43" s="108">
-        <f>G41</f>
-        <v>45075</v>
-      </c>
-      <c r="F43" s="109">
+      <c r="E43" s="103">
+        <f>G42</f>
+        <v>45103</v>
+      </c>
+      <c r="F43" s="104">
         <v>0</v>
       </c>
-      <c r="G43" s="108">
+      <c r="G43" s="103">
         <f>SUM(E43,F43)</f>
-        <v>45075</v>
+        <v>45103</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13">
@@ -5379,27 +5388,27 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="54"/>
-      <c r="B44" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="107">
+      <c r="B44" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="102">
         <v>0</v>
       </c>
-      <c r="E44" s="108">
+      <c r="E44" s="103">
         <f>G43</f>
-        <v>45075</v>
-      </c>
-      <c r="F44" s="109">
+        <v>45103</v>
+      </c>
+      <c r="F44" s="104">
         <v>0</v>
       </c>
-      <c r="G44" s="108">
+      <c r="G44" s="103">
         <f>SUM(E44,F44)</f>
-        <v>45075</v>
+        <v>45103</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13">
@@ -5463,12 +5472,12 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="55" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C45" s="35"/>
       <c r="D45" s="36"/>
@@ -5539,17 +5548,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D45">
@@ -5566,29 +5575,29 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45:BM45 J5:BM41">
-    <cfRule type="expression" dxfId="2" priority="42">
+  <conditionalFormatting sqref="J45:BM45 J5:BM37">
+    <cfRule type="expression" dxfId="5" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45:BM45 J7:BM41">
-    <cfRule type="expression" dxfId="1" priority="36">
+  <conditionalFormatting sqref="J45:BM45 J7:BM37">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:BM44">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="J38:BM44">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:BM44">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="J38:BM44">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5608,7 +5617,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E12:E13 E15" formula="1"/>
+    <ignoredError sqref="E12" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5640,88 +5649,88 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="87.125" style="44" customWidth="1"/>
     <col min="2" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="1:2" s="46" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.6">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="45"/>
     </row>
-    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="75" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="51"/>
     </row>
-    <row r="4" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
       <c r="A4" s="48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+      <c r="A8" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+    <row r="9" spans="1:2" ht="67.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+    <row r="11" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+      <c r="A11" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="48" t="s">
+    <row r="12" spans="1:2" ht="33.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+    <row r="14" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+      <c r="A14" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="48" t="s">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+    <row r="16" spans="1:2" ht="84.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="49" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184C7C02-12C7-4843-A04E-7C3E8ABC5133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDABFAC-CDC4-4CF5-9A74-ED631C80422F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,6 +1097,12 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1108,12 +1114,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1715,7 +1715,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1765,108 +1765,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="108">
+      <c r="D3" s="106"/>
+      <c r="E3" s="110">
         <v>45040</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="105">
+      <c r="J4" s="107">
         <f>J5</f>
         <v>45040</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="107">
         <f>Q5</f>
         <v>45047</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="107">
         <f>X5</f>
         <v>45054</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="107">
         <f>AE5</f>
         <v>45061</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="107">
         <f>AL5</f>
         <v>45068</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="107">
         <f>AS5</f>
         <v>45075</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="107">
         <f>AZ5</f>
         <v>45082</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="107">
         <f>BG5</f>
         <v>45089</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="109"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -2594,7 +2594,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="81">
         <f>G9</f>
@@ -2672,7 +2672,7 @@
     <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="54"/>
       <c r="B11" s="68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" s="61" t="s">
         <v>37</v>
@@ -2685,16 +2685,16 @@
         <v>45041</v>
       </c>
       <c r="F11" s="77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="81">
         <f t="shared" si="7"/>
-        <v>45046</v>
+        <v>45042</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -2756,7 +2756,7 @@
     <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>37</v>
@@ -2766,19 +2766,19 @@
       </c>
       <c r="E12" s="81">
         <f>G11 + 1</f>
-        <v>45047</v>
+        <v>45043</v>
       </c>
       <c r="F12" s="77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="81">
         <f t="shared" si="7"/>
-        <v>45049</v>
+        <v>45047</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -2840,7 +2840,7 @@
     <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="54"/>
       <c r="B13" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>37</v>
@@ -2850,10 +2850,10 @@
       </c>
       <c r="E13" s="81">
         <f>G12 + 1</f>
-        <v>45050</v>
+        <v>45048</v>
       </c>
       <c r="F13" s="77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="81">
         <f t="shared" si="7"/>
@@ -2862,7 +2862,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="84">
-        <f>G25 + 1</f>
+        <f t="shared" ref="E26:E32" si="9">G25 + 1</f>
         <v>45078</v>
       </c>
       <c r="F26" s="80">
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="84">
-        <f>G26 + 1</f>
+        <f t="shared" si="9"/>
         <v>45080</v>
       </c>
       <c r="F27" s="80">
@@ -4076,14 +4076,14 @@
         <v>0</v>
       </c>
       <c r="E28" s="84">
-        <f>G27 + 1</f>
+        <f t="shared" si="9"/>
         <v>45081</v>
       </c>
       <c r="F28" s="80">
         <v>1</v>
       </c>
       <c r="G28" s="84">
-        <f t="shared" ref="G28:G29" si="9">SUM(E28,F28)</f>
+        <f t="shared" ref="G28:G29" si="10">SUM(E28,F28)</f>
         <v>45082</v>
       </c>
       <c r="H28" s="13"/>
@@ -4160,14 +4160,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="84">
-        <f>G28 + 1</f>
+        <f t="shared" si="9"/>
         <v>45083</v>
       </c>
       <c r="F29" s="80">
         <v>0</v>
       </c>
       <c r="G29" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45083</v>
       </c>
       <c r="H29" s="13"/>
@@ -4244,14 +4244,14 @@
         <v>0</v>
       </c>
       <c r="E30" s="84">
-        <f>G29 + 1</f>
+        <f t="shared" si="9"/>
         <v>45084</v>
       </c>
       <c r="F30" s="80">
         <v>0</v>
       </c>
       <c r="G30" s="84">
-        <f t="shared" ref="G30:G32" si="10">SUM(E30,F30)</f>
+        <f t="shared" ref="G30:G32" si="11">SUM(E30,F30)</f>
         <v>45084</v>
       </c>
       <c r="H30" s="13"/>
@@ -4328,14 +4328,14 @@
         <v>0</v>
       </c>
       <c r="E31" s="84">
-        <f>G30 + 1</f>
+        <f t="shared" si="9"/>
         <v>45085</v>
       </c>
       <c r="F31" s="80">
         <v>0</v>
       </c>
       <c r="G31" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45085</v>
       </c>
       <c r="H31" s="13"/>
@@ -4412,14 +4412,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="84">
-        <f>G31 + 1</f>
+        <f t="shared" si="9"/>
         <v>45086</v>
       </c>
       <c r="F32" s="80">
         <v>2</v>
       </c>
       <c r="G32" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45088</v>
       </c>
       <c r="H32" s="13"/>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="103">
-        <f>SUM(E39,F39)</f>
+        <f t="shared" ref="G39:G44" si="12">SUM(E39,F39)</f>
         <v>45103</v>
       </c>
       <c r="H39" s="13"/>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="103">
-        <f>SUM(E40,F40)</f>
+        <f t="shared" si="12"/>
         <v>45103</v>
       </c>
       <c r="H40" s="13"/>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="103">
-        <f>SUM(E41,F41)</f>
+        <f t="shared" si="12"/>
         <v>45103</v>
       </c>
       <c r="H41" s="13"/>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="103">
-        <f>SUM(E42,F42)</f>
+        <f t="shared" si="12"/>
         <v>45103</v>
       </c>
       <c r="H42" s="13"/>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="103">
-        <f>SUM(E43,F43)</f>
+        <f t="shared" si="12"/>
         <v>45103</v>
       </c>
       <c r="H43" s="13"/>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="103">
-        <f>SUM(E44,F44)</f>
+        <f t="shared" si="12"/>
         <v>45103</v>
       </c>
       <c r="H44" s="13"/>
@@ -5548,17 +5548,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D45">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDABFAC-CDC4-4CF5-9A74-ED631C80422F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18997469-CD78-459D-981B-DE5440054430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1097,23 +1097,23 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1715,7 +1715,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1765,108 +1765,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="110">
+      <c r="D3" s="110"/>
+      <c r="E3" s="108">
         <v>45040</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="107">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45040</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45047</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="107">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45054</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="107">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45061</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="107">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45068</v>
       </c>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="107">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45075</v>
       </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="107">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45082</v>
       </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="107">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45089</v>
       </c>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="109"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -2678,23 +2678,23 @@
         <v>37</v>
       </c>
       <c r="D11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="81">
         <f>G10 + 1</f>
         <v>45041</v>
       </c>
       <c r="F11" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="81">
         <f t="shared" si="7"/>
-        <v>45042</v>
+        <v>45041</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -2766,10 +2766,10 @@
       </c>
       <c r="E12" s="81">
         <f>G11 + 1</f>
-        <v>45043</v>
+        <v>45042</v>
       </c>
       <c r="F12" s="77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="81">
         <f t="shared" si="7"/>
@@ -2778,7 +2778,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -5548,17 +5548,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D45">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18997469-CD78-459D-981B-DE5440054430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680A62E5-3614-4249-B312-2DE43CC6C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>배경 시스템</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>맵 툴</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -355,6 +351,9 @@
   <si>
     <t xml:space="preserve">사운드 작업 </t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 시스템</t>
   </si>
 </sst>
 </file>
@@ -1097,6 +1096,12 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1108,12 +1113,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1714,8 +1713,8 @@
   <dimension ref="A1:BM45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1765,108 +1764,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="108">
+      <c r="D3" s="106"/>
+      <c r="E3" s="110">
         <v>45040</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="105">
+      <c r="J4" s="107">
         <f>J5</f>
         <v>45040</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="107">
         <f>Q5</f>
         <v>45047</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="107">
         <f>X5</f>
         <v>45054</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="107">
         <f>AE5</f>
         <v>45061</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="107">
         <f>AL5</f>
         <v>45068</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="107">
         <f>AS5</f>
         <v>45075</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="107">
         <f>AZ5</f>
         <v>45082</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="107">
         <f>BG5</f>
         <v>45089</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="109"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -2428,7 +2427,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="15"/>
@@ -2518,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="81">
-        <f t="shared" ref="G9:G13" si="7">SUM(E9,F9)</f>
+        <f t="shared" ref="G9:G14" si="7">SUM(E9,F9)</f>
         <v>45040</v>
       </c>
       <c r="H9" s="13"/>
@@ -2756,30 +2755,27 @@
     <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="81">
         <f>G11 + 1</f>
         <v>45042</v>
       </c>
       <c r="F12" s="77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="81">
-        <f t="shared" si="7"/>
-        <v>45047</v>
+        <f t="shared" ref="G12" si="8">SUM(E12,F12)</f>
+        <v>45042</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="13">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
@@ -2796,7 +2792,7 @@
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
       <c r="Y12" s="40"/>
-      <c r="Z12" s="41"/>
+      <c r="Z12" s="40"/>
       <c r="AA12" s="40"/>
       <c r="AB12" s="40"/>
       <c r="AC12" s="40"/>
@@ -2840,7 +2836,7 @@
     <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="54"/>
       <c r="B13" s="68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>37</v>
@@ -2850,14 +2846,14 @@
       </c>
       <c r="E13" s="81">
         <f>G12 + 1</f>
-        <v>45048</v>
+        <v>45043</v>
       </c>
       <c r="F13" s="77">
         <v>5</v>
       </c>
       <c r="G13" s="81">
         <f t="shared" si="7"/>
-        <v>45053</v>
+        <v>45048</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13">
@@ -2880,7 +2876,7 @@
       <c r="W13" s="40"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="Z13" s="41"/>
       <c r="AA13" s="40"/>
       <c r="AB13" s="40"/>
       <c r="AC13" s="40"/>
@@ -2921,22 +2917,32 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A14" s="54"/>
+      <c r="B14" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="81">
+        <f>G13 + 1</f>
+        <v>45049</v>
+      </c>
+      <c r="F14" s="77">
+        <v>5</v>
+      </c>
+      <c r="G14" s="81">
+        <f t="shared" si="7"/>
+        <v>45054</v>
+      </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="13" t="str">
+      <c r="I14" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -2995,32 +3001,22 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="55"/>
-      <c r="B15" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="82">
-        <f xml:space="preserve"> G13 + 1</f>
-        <v>45054</v>
-      </c>
-      <c r="F15" s="78">
-        <v>0</v>
-      </c>
-      <c r="G15" s="82">
-        <f>SUM(E15,F15)</f>
-        <v>45054</v>
-      </c>
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A15" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13">
+      <c r="I15" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -3080,7 +3076,7 @@
       <c r="BM15" s="40"/>
     </row>
     <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="69" t="s">
         <v>46</v>
       </c>
@@ -3091,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="82">
-        <f>G15 + 1</f>
+        <f xml:space="preserve"> G14 + 1</f>
         <v>45055</v>
       </c>
       <c r="F16" s="78">
@@ -3118,8 +3114,8 @@
       <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
       <c r="X16" s="40"/>
       <c r="Y16" s="40"/>
       <c r="Z16" s="40"/>
@@ -3182,7 +3178,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="82">
-        <f t="shared" ref="G17:G20" si="8">SUM(E17,F17)</f>
+        <f>SUM(E17,F17)</f>
         <v>45058</v>
       </c>
       <c r="H17" s="13"/>
@@ -3250,7 +3246,7 @@
     <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="54"/>
       <c r="B18" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>37</v>
@@ -3334,7 +3330,7 @@
     <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="54"/>
       <c r="B19" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>37</v>
@@ -3415,7 +3411,7 @@
     <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="54"/>
       <c r="B20" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="63" t="s">
         <v>37</v>
@@ -3431,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G17:G20" si="9">SUM(E20,F20)</f>
         <v>45067</v>
       </c>
       <c r="H20" s="13"/>
@@ -3501,7 +3497,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="25"/>
@@ -3573,7 +3569,7 @@
     <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="54"/>
       <c r="B22" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="65" t="s">
         <v>37</v>
@@ -3657,7 +3653,7 @@
     <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="54"/>
       <c r="B23" s="70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="65" t="s">
         <v>37</v>
@@ -3743,7 +3739,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="66"/>
       <c r="D24" s="30"/>
@@ -3815,7 +3811,7 @@
     <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="54"/>
       <c r="B25" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="67" t="s">
         <v>38</v>
@@ -3899,7 +3895,7 @@
     <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="54"/>
       <c r="B26" s="71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="67" t="s">
         <v>38</v>
@@ -3908,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="84">
-        <f t="shared" ref="E26:E32" si="9">G25 + 1</f>
+        <f t="shared" ref="E26:E32" si="10">G25 + 1</f>
         <v>45078</v>
       </c>
       <c r="F26" s="80">
@@ -3983,7 +3979,7 @@
     <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="54"/>
       <c r="B27" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="67" t="s">
         <v>38</v>
@@ -3992,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45080</v>
       </c>
       <c r="F27" s="80">
@@ -4067,7 +4063,7 @@
     <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="54"/>
       <c r="B28" s="71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="67" t="s">
         <v>38</v>
@@ -4076,14 +4072,14 @@
         <v>0</v>
       </c>
       <c r="E28" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45081</v>
       </c>
       <c r="F28" s="80">
         <v>1</v>
       </c>
       <c r="G28" s="84">
-        <f t="shared" ref="G28:G29" si="10">SUM(E28,F28)</f>
+        <f t="shared" ref="G28:G29" si="11">SUM(E28,F28)</f>
         <v>45082</v>
       </c>
       <c r="H28" s="13"/>
@@ -4151,7 +4147,7 @@
     <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="54"/>
       <c r="B29" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="67" t="s">
         <v>38</v>
@@ -4160,14 +4156,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45083</v>
       </c>
       <c r="F29" s="80">
         <v>0</v>
       </c>
       <c r="G29" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45083</v>
       </c>
       <c r="H29" s="13"/>
@@ -4235,7 +4231,7 @@
     <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="54"/>
       <c r="B30" s="71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="67" t="s">
         <v>38</v>
@@ -4244,14 +4240,14 @@
         <v>0</v>
       </c>
       <c r="E30" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45084</v>
       </c>
       <c r="F30" s="80">
         <v>0</v>
       </c>
       <c r="G30" s="84">
-        <f t="shared" ref="G30:G32" si="11">SUM(E30,F30)</f>
+        <f t="shared" ref="G30:G32" si="12">SUM(E30,F30)</f>
         <v>45084</v>
       </c>
       <c r="H30" s="13"/>
@@ -4319,7 +4315,7 @@
     <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="54"/>
       <c r="B31" s="71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="67" t="s">
         <v>38</v>
@@ -4328,14 +4324,14 @@
         <v>0</v>
       </c>
       <c r="E31" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45085</v>
       </c>
       <c r="F31" s="80">
         <v>0</v>
       </c>
       <c r="G31" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45085</v>
       </c>
       <c r="H31" s="13"/>
@@ -4403,7 +4399,7 @@
     <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="54"/>
       <c r="B32" s="71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="67" t="s">
         <v>38</v>
@@ -4412,14 +4408,14 @@
         <v>0</v>
       </c>
       <c r="E32" s="84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45086</v>
       </c>
       <c r="F32" s="80">
         <v>2</v>
       </c>
       <c r="G32" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45088</v>
       </c>
       <c r="H32" s="13"/>
@@ -4489,7 +4485,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="86"/>
       <c r="D33" s="87"/>
@@ -4561,7 +4557,7 @@
     <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="54"/>
       <c r="B34" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="91" t="s">
         <v>38</v>
@@ -4645,7 +4641,7 @@
     <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="54"/>
       <c r="B35" s="90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="91" t="s">
         <v>38</v>
@@ -4729,7 +4725,7 @@
     <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="54"/>
       <c r="B36" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>37</v>
@@ -4813,7 +4809,7 @@
     <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="54"/>
       <c r="B37" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="91" t="s">
         <v>37</v>
@@ -4899,7 +4895,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="96"/>
       <c r="D38" s="97"/>
@@ -4971,7 +4967,7 @@
     <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="54"/>
       <c r="B39" s="100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="101" t="s">
         <v>38</v>
@@ -4987,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="103">
-        <f t="shared" ref="G39:G44" si="12">SUM(E39,F39)</f>
+        <f t="shared" ref="G39:G44" si="13">SUM(E39,F39)</f>
         <v>45103</v>
       </c>
       <c r="H39" s="13"/>
@@ -5055,7 +5051,7 @@
     <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="54"/>
       <c r="B40" s="100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="101" t="s">
         <v>38</v>
@@ -5071,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45103</v>
       </c>
       <c r="H40" s="13"/>
@@ -5139,7 +5135,7 @@
     <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="54"/>
       <c r="B41" s="100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="101" t="s">
         <v>38</v>
@@ -5155,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45103</v>
       </c>
       <c r="H41" s="13"/>
@@ -5223,7 +5219,7 @@
     <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="54"/>
       <c r="B42" s="100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="101" t="s">
         <v>38</v>
@@ -5239,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45103</v>
       </c>
       <c r="H42" s="13"/>
@@ -5307,7 +5303,7 @@
     <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="54"/>
       <c r="B43" s="100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="101" t="s">
         <v>38</v>
@@ -5323,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45103</v>
       </c>
       <c r="H43" s="13"/>
@@ -5391,7 +5387,7 @@
     <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="54"/>
       <c r="B44" s="100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="101" t="s">
         <v>38</v>
@@ -5407,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45103</v>
       </c>
       <c r="H44" s="13"/>
@@ -5548,17 +5544,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D45">
@@ -5616,9 +5612,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="E12" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680A62E5-3614-4249-B312-2DE43CC6C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEDD767-BCF2-431A-982C-B8EEBC30F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,23 +1096,23 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1713,8 +1713,8 @@
   <dimension ref="A1:BM45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1764,108 +1764,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="110">
+      <c r="D3" s="110"/>
+      <c r="E3" s="108">
         <v>45040</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="107">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45040</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45047</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="107">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45054</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="107">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45061</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="107">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45068</v>
       </c>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="107">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45075</v>
       </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="107">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45082</v>
       </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="107">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45089</v>
       </c>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="109"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -3084,7 +3084,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="82">
         <f xml:space="preserve"> G14 + 1</f>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="82">
-        <f t="shared" ref="G17:G20" si="9">SUM(E20,F20)</f>
+        <f t="shared" ref="G20" si="9">SUM(E20,F20)</f>
         <v>45067</v>
       </c>
       <c r="H20" s="13"/>
@@ -5544,17 +5544,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D45">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEDD767-BCF2-431A-982C-B8EEBC30F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C1C654-7884-45D1-A51F-8798BECCCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -354,6 +354,10 @@
   </si>
   <si>
     <t>배경 시스템</t>
+  </si>
+  <si>
+    <t>타이틀 레벨</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1710,11 +1714,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM45"/>
+  <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -2436,7 +2440,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="str">
-        <f t="shared" ref="I8:I45" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="I8:I46" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="J8" s="40"/>
@@ -3252,7 +3256,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="82">
         <f>G17 + 1</f>
@@ -3904,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="84">
-        <f t="shared" ref="E26:E32" si="10">G25 + 1</f>
+        <f t="shared" ref="E26:E33" si="10">G25 + 1</f>
         <v>45078</v>
       </c>
       <c r="F26" s="80">
@@ -4063,7 +4067,7 @@
     <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="54"/>
       <c r="B28" s="71" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C28" s="67" t="s">
         <v>38</v>
@@ -4072,21 +4076,18 @@
         <v>0</v>
       </c>
       <c r="E28" s="84">
-        <f t="shared" si="10"/>
+        <f>G27 + 1</f>
         <v>45081</v>
       </c>
       <c r="F28" s="80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="84">
-        <f t="shared" ref="G28:G29" si="11">SUM(E28,F28)</f>
-        <v>45082</v>
+        <f>SUM(E28,F28)</f>
+        <v>45081</v>
       </c>
       <c r="H28" s="13"/>
-      <c r="I28" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="I28" s="13"/>
       <c r="J28" s="40"/>
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
@@ -4147,7 +4148,7 @@
     <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="54"/>
       <c r="B29" s="71" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C29" s="67" t="s">
         <v>38</v>
@@ -4156,20 +4157,20 @@
         <v>0</v>
       </c>
       <c r="E29" s="84">
-        <f t="shared" si="10"/>
-        <v>45083</v>
+        <f>G28 + 1</f>
+        <v>45082</v>
       </c>
       <c r="F29" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G29:G30" si="11">SUM(E29,F29)</f>
         <v>45083</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="40"/>
       <c r="K29" s="40"/>
@@ -4231,13 +4232,13 @@
     <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="54"/>
       <c r="B30" s="71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="67" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="84">
         <f t="shared" si="10"/>
@@ -4247,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="84">
-        <f t="shared" ref="G30:G32" si="12">SUM(E30,F30)</f>
+        <f t="shared" si="11"/>
         <v>45084</v>
       </c>
       <c r="H30" s="13"/>
@@ -4315,13 +4316,13 @@
     <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="54"/>
       <c r="B31" s="71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" s="67" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="84">
         <f t="shared" si="10"/>
@@ -4331,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="84">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G31:G33" si="12">SUM(E31,F31)</f>
         <v>45085</v>
       </c>
       <c r="H31" s="13"/>
@@ -4399,7 +4400,7 @@
     <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="54"/>
       <c r="B32" s="71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="67" t="s">
         <v>38</v>
@@ -4412,16 +4413,16 @@
         <v>45086</v>
       </c>
       <c r="F32" s="80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="84">
         <f t="shared" si="12"/>
-        <v>45088</v>
+        <v>45086</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
@@ -4481,21 +4482,31 @@
       <c r="BM32" s="40"/>
     </row>
     <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A33" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="89"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="84">
+        <f t="shared" si="10"/>
+        <v>45087</v>
+      </c>
+      <c r="F33" s="80">
+        <v>2</v>
+      </c>
+      <c r="G33" s="84">
+        <f t="shared" si="12"/>
+        <v>45089</v>
+      </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="13" t="str">
+      <c r="I33" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
@@ -4555,31 +4566,21 @@
       <c r="BM33" s="40"/>
     </row>
     <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A34" s="54"/>
-      <c r="B34" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="92">
-        <v>0</v>
-      </c>
-      <c r="E34" s="93">
-        <f>G32 + 1</f>
-        <v>45089</v>
-      </c>
-      <c r="F34" s="94">
-        <v>1</v>
-      </c>
-      <c r="G34" s="93">
-        <f>SUM(E34,F34)</f>
-        <v>45090</v>
-      </c>
+      <c r="A34" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13">
+      <c r="I34" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
@@ -4641,7 +4642,7 @@
     <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="54"/>
       <c r="B35" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="91" t="s">
         <v>38</v>
@@ -4650,15 +4651,15 @@
         <v>0</v>
       </c>
       <c r="E35" s="93">
-        <f>G34 + 1</f>
-        <v>45091</v>
+        <f>G33 + 1</f>
+        <v>45090</v>
       </c>
       <c r="F35" s="94">
         <v>1</v>
       </c>
       <c r="G35" s="93">
         <f>SUM(E35,F35)</f>
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13">
@@ -4725,29 +4726,29 @@
     <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="54"/>
       <c r="B36" s="90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" s="92">
         <v>0</v>
       </c>
       <c r="E36" s="93">
         <f>G35 + 1</f>
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="F36" s="94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G36" s="93">
         <f>SUM(E36,F36)</f>
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
@@ -4809,7 +4810,7 @@
     <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="54"/>
       <c r="B37" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="91" t="s">
         <v>37</v>
@@ -4819,14 +4820,14 @@
       </c>
       <c r="E37" s="93">
         <f>G36 + 1</f>
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="F37" s="94">
         <v>4</v>
       </c>
       <c r="G37" s="93">
         <f>SUM(E37,F37)</f>
-        <v>45102</v>
+        <v>45098</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13">
@@ -4891,21 +4892,31 @@
       <c r="BM37" s="40"/>
     </row>
     <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="99"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="92">
+        <v>0</v>
+      </c>
+      <c r="E38" s="93">
+        <f>G37 + 1</f>
+        <v>45099</v>
+      </c>
+      <c r="F38" s="94">
+        <v>4</v>
+      </c>
+      <c r="G38" s="93">
+        <f>SUM(E38,F38)</f>
+        <v>45103</v>
+      </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="13" t="str">
+      <c r="I38" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
@@ -4965,31 +4976,21 @@
       <c r="BM38" s="40"/>
     </row>
     <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A39" s="54"/>
-      <c r="B39" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="102">
-        <v>0</v>
-      </c>
-      <c r="E39" s="103">
-        <f>G37 + 1</f>
-        <v>45103</v>
-      </c>
-      <c r="F39" s="104">
-        <v>0</v>
-      </c>
-      <c r="G39" s="103">
-        <f t="shared" ref="G39:G44" si="13">SUM(E39,F39)</f>
-        <v>45103</v>
-      </c>
+      <c r="A39" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="96"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="99"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="13">
+      <c r="I39" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J39" s="40"/>
       <c r="K39" s="40"/>
@@ -5051,7 +5052,7 @@
     <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="54"/>
       <c r="B40" s="100" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C40" s="101" t="s">
         <v>38</v>
@@ -5060,15 +5061,15 @@
         <v>0</v>
       </c>
       <c r="E40" s="103">
-        <f>G39</f>
-        <v>45103</v>
+        <f>G38 + 1</f>
+        <v>45104</v>
       </c>
       <c r="F40" s="104">
         <v>0</v>
       </c>
       <c r="G40" s="103">
-        <f t="shared" si="13"/>
-        <v>45103</v>
+        <f t="shared" ref="G40:G45" si="13">SUM(E40,F40)</f>
+        <v>45104</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13">
@@ -5135,7 +5136,7 @@
     <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="54"/>
       <c r="B41" s="100" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C41" s="101" t="s">
         <v>38</v>
@@ -5145,14 +5146,14 @@
       </c>
       <c r="E41" s="103">
         <f>G40</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F41" s="104">
         <v>0</v>
       </c>
       <c r="G41" s="103">
         <f t="shared" si="13"/>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13">
@@ -5219,7 +5220,7 @@
     <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="54"/>
       <c r="B42" s="100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="101" t="s">
         <v>38</v>
@@ -5229,14 +5230,14 @@
       </c>
       <c r="E42" s="103">
         <f>G41</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F42" s="104">
         <v>0</v>
       </c>
       <c r="G42" s="103">
         <f t="shared" si="13"/>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13">
@@ -5303,7 +5304,7 @@
     <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="54"/>
       <c r="B43" s="100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="101" t="s">
         <v>38</v>
@@ -5313,14 +5314,14 @@
       </c>
       <c r="E43" s="103">
         <f>G42</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F43" s="104">
         <v>0</v>
       </c>
       <c r="G43" s="103">
         <f t="shared" si="13"/>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13">
@@ -5387,7 +5388,7 @@
     <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="54"/>
       <c r="B44" s="100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="101" t="s">
         <v>38</v>
@@ -5397,14 +5398,14 @@
       </c>
       <c r="E44" s="103">
         <f>G43</f>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="F44" s="104">
         <v>0</v>
       </c>
       <c r="G44" s="103">
         <f t="shared" si="13"/>
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13">
@@ -5469,78 +5470,162 @@
       <c r="BM44" s="40"/>
     </row>
     <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="54"/>
+      <c r="B45" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="102">
+        <v>0</v>
+      </c>
+      <c r="E45" s="103">
+        <f>G44</f>
+        <v>45104</v>
+      </c>
+      <c r="F45" s="104">
+        <v>0</v>
+      </c>
+      <c r="G45" s="103">
+        <f t="shared" si="13"/>
+        <v>45104</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
+      <c r="AK45" s="40"/>
+      <c r="AL45" s="40"/>
+      <c r="AM45" s="40"/>
+      <c r="AN45" s="40"/>
+      <c r="AO45" s="40"/>
+      <c r="AP45" s="40"/>
+      <c r="AQ45" s="40"/>
+      <c r="AR45" s="40"/>
+      <c r="AS45" s="40"/>
+      <c r="AT45" s="40"/>
+      <c r="AU45" s="40"/>
+      <c r="AV45" s="40"/>
+      <c r="AW45" s="40"/>
+      <c r="AX45" s="40"/>
+      <c r="AY45" s="40"/>
+      <c r="AZ45" s="40"/>
+      <c r="BA45" s="40"/>
+      <c r="BB45" s="40"/>
+      <c r="BC45" s="40"/>
+      <c r="BD45" s="40"/>
+      <c r="BE45" s="40"/>
+      <c r="BF45" s="40"/>
+      <c r="BG45" s="40"/>
+      <c r="BH45" s="40"/>
+      <c r="BI45" s="40"/>
+      <c r="BJ45" s="40"/>
+      <c r="BK45" s="40"/>
+      <c r="BL45" s="40"/>
+      <c r="BM45" s="40"/>
+    </row>
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A46" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B46" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39" t="str">
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-      <c r="AB45" s="42"/>
-      <c r="AC45" s="42"/>
-      <c r="AD45" s="42"/>
-      <c r="AE45" s="42"/>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="42"/>
-      <c r="AJ45" s="42"/>
-      <c r="AK45" s="42"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="42"/>
-      <c r="AO45" s="42"/>
-      <c r="AP45" s="42"/>
-      <c r="AQ45" s="42"/>
-      <c r="AR45" s="42"/>
-      <c r="AS45" s="42"/>
-      <c r="AT45" s="42"/>
-      <c r="AU45" s="42"/>
-      <c r="AV45" s="42"/>
-      <c r="AW45" s="42"/>
-      <c r="AX45" s="42"/>
-      <c r="AY45" s="42"/>
-      <c r="AZ45" s="42"/>
-      <c r="BA45" s="42"/>
-      <c r="BB45" s="42"/>
-      <c r="BC45" s="42"/>
-      <c r="BD45" s="42"/>
-      <c r="BE45" s="42"/>
-      <c r="BF45" s="42"/>
-      <c r="BG45" s="42"/>
-      <c r="BH45" s="42"/>
-      <c r="BI45" s="42"/>
-      <c r="BJ45" s="42"/>
-      <c r="BK45" s="42"/>
-      <c r="BL45" s="42"/>
-      <c r="BM45" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="42"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="42"/>
+      <c r="AH46" s="42"/>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="42"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="42"/>
+      <c r="AO46" s="42"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
+      <c r="AT46" s="42"/>
+      <c r="AU46" s="42"/>
+      <c r="AV46" s="42"/>
+      <c r="AW46" s="42"/>
+      <c r="AX46" s="42"/>
+      <c r="AY46" s="42"/>
+      <c r="AZ46" s="42"/>
+      <c r="BA46" s="42"/>
+      <c r="BB46" s="42"/>
+      <c r="BC46" s="42"/>
+      <c r="BD46" s="42"/>
+      <c r="BE46" s="42"/>
+      <c r="BF46" s="42"/>
+      <c r="BG46" s="42"/>
+      <c r="BH46" s="42"/>
+      <c r="BI46" s="42"/>
+      <c r="BJ46" s="42"/>
+      <c r="BK46" s="42"/>
+      <c r="BL46" s="42"/>
+      <c r="BM46" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5557,7 +5642,7 @@
     <mergeCell ref="AE4:AK4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D45">
+  <conditionalFormatting sqref="D7:D46">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5571,12 +5656,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45:BM45 J5:BM37">
+  <conditionalFormatting sqref="J46:BM46 J5:BM38">
     <cfRule type="expression" dxfId="5" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45:BM45 J7:BM37">
+  <conditionalFormatting sqref="J46:BM46 J7:BM38">
     <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
@@ -5584,12 +5669,12 @@
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:BM44">
+  <conditionalFormatting sqref="J39:BM45">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:BM44">
+  <conditionalFormatting sqref="J39:BM45">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
@@ -5628,7 +5713,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D45</xm:sqref>
+          <xm:sqref>D7:D46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C1C654-7884-45D1-A51F-8798BECCCAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2DD141-2A84-43E4-B8A2-078309B752FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,6 +1100,12 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1111,12 +1117,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1717,8 +1717,8 @@
   <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1768,108 +1768,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="108">
+      <c r="D3" s="106"/>
+      <c r="E3" s="110">
         <v>45040</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="105">
+      <c r="J4" s="107">
         <f>J5</f>
         <v>45040</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="107">
         <f>Q5</f>
         <v>45047</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="107">
         <f>X5</f>
         <v>45054</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="107">
         <f>AE5</f>
         <v>45061</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="107">
         <f>AL5</f>
         <v>45068</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="107">
         <f>AS5</f>
         <v>45075</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="107">
         <f>AZ5</f>
         <v>45082</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="107">
         <f>BG5</f>
         <v>45089</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="109"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -3821,7 +3821,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E25" s="84">
         <f>G23 + 1</f>
@@ -4073,7 +4073,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="84">
         <f>G27 + 1</f>
@@ -4157,15 +4157,15 @@
         <v>0</v>
       </c>
       <c r="E29" s="84">
-        <f>G28 + 1</f>
-        <v>45082</v>
+        <f>G28</f>
+        <v>45081</v>
       </c>
       <c r="F29" s="80">
         <v>1</v>
       </c>
       <c r="G29" s="84">
         <f t="shared" ref="G29:G30" si="11">SUM(E29,F29)</f>
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
@@ -4242,14 +4242,14 @@
       </c>
       <c r="E30" s="84">
         <f t="shared" si="10"/>
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="F30" s="80">
         <v>0</v>
       </c>
       <c r="G30" s="84">
         <f t="shared" si="11"/>
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13">
@@ -4326,14 +4326,14 @@
       </c>
       <c r="E31" s="84">
         <f t="shared" si="10"/>
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="F31" s="80">
         <v>0</v>
       </c>
       <c r="G31" s="84">
         <f t="shared" ref="G31:G33" si="12">SUM(E31,F31)</f>
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13">
@@ -4410,14 +4410,14 @@
       </c>
       <c r="E32" s="84">
         <f t="shared" si="10"/>
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="F32" s="80">
         <v>0</v>
       </c>
       <c r="G32" s="84">
         <f t="shared" si="12"/>
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13">
@@ -4494,14 +4494,14 @@
       </c>
       <c r="E33" s="84">
         <f t="shared" si="10"/>
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="F33" s="80">
         <v>2</v>
       </c>
       <c r="G33" s="84">
         <f t="shared" si="12"/>
-        <v>45089</v>
+        <v>45088</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13">
@@ -4652,14 +4652,14 @@
       </c>
       <c r="E35" s="93">
         <f>G33 + 1</f>
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="F35" s="94">
         <v>1</v>
       </c>
       <c r="G35" s="93">
         <f>SUM(E35,F35)</f>
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13">
@@ -4736,14 +4736,14 @@
       </c>
       <c r="E36" s="93">
         <f>G35 + 1</f>
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="F36" s="94">
         <v>1</v>
       </c>
       <c r="G36" s="93">
         <f>SUM(E36,F36)</f>
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13">
@@ -4820,14 +4820,14 @@
       </c>
       <c r="E37" s="93">
         <f>G36 + 1</f>
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="F37" s="94">
         <v>4</v>
       </c>
       <c r="G37" s="93">
         <f>SUM(E37,F37)</f>
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13">
@@ -4904,14 +4904,14 @@
       </c>
       <c r="E38" s="93">
         <f>G37 + 1</f>
-        <v>45099</v>
+        <v>45098</v>
       </c>
       <c r="F38" s="94">
         <v>4</v>
       </c>
       <c r="G38" s="93">
         <f>SUM(E38,F38)</f>
-        <v>45103</v>
+        <v>45102</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13">
@@ -5062,14 +5062,14 @@
       </c>
       <c r="E40" s="103">
         <f>G38 + 1</f>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="F40" s="104">
         <v>0</v>
       </c>
       <c r="G40" s="103">
         <f t="shared" ref="G40:G45" si="13">SUM(E40,F40)</f>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13">
@@ -5146,14 +5146,14 @@
       </c>
       <c r="E41" s="103">
         <f>G40</f>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="F41" s="104">
         <v>0</v>
       </c>
       <c r="G41" s="103">
         <f t="shared" si="13"/>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13">
@@ -5230,14 +5230,14 @@
       </c>
       <c r="E42" s="103">
         <f>G41</f>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="F42" s="104">
         <v>0</v>
       </c>
       <c r="G42" s="103">
         <f t="shared" si="13"/>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13">
@@ -5314,14 +5314,14 @@
       </c>
       <c r="E43" s="103">
         <f>G42</f>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="F43" s="104">
         <v>0</v>
       </c>
       <c r="G43" s="103">
         <f t="shared" si="13"/>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13">
@@ -5398,14 +5398,14 @@
       </c>
       <c r="E44" s="103">
         <f>G43</f>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="F44" s="104">
         <v>0</v>
       </c>
       <c r="G44" s="103">
         <f t="shared" si="13"/>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13">
@@ -5482,14 +5482,14 @@
       </c>
       <c r="E45" s="103">
         <f>G44</f>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="F45" s="104">
         <v>0</v>
       </c>
       <c r="G45" s="103">
         <f t="shared" si="13"/>
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13">
@@ -5629,17 +5629,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2DD141-2A84-43E4-B8A2-078309B752FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E83663-CB75-49A7-9F1A-2F6F0B747D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,23 +1100,23 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1717,8 +1717,8 @@
   <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1768,108 +1768,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="110">
+      <c r="D3" s="110"/>
+      <c r="E3" s="108">
         <v>45040</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="107">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45040</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45047</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="107">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45054</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="107">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45061</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="107">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45068</v>
       </c>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="107">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45075</v>
       </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="107">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45082</v>
       </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="107">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45089</v>
       </c>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="109"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -5058,7 +5058,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="103">
         <f>G38 + 1</f>
@@ -5629,17 +5629,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E83663-CB75-49A7-9F1A-2F6F0B747D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB8997-E8E8-4C72-8F27-DBDD34EACB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,6 +1100,12 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1111,12 +1117,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1717,8 +1717,8 @@
   <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1768,108 +1768,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="108">
+      <c r="D3" s="106"/>
+      <c r="E3" s="110">
         <v>45040</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="105">
+      <c r="J4" s="107">
         <f>J5</f>
         <v>45040</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="107">
         <f>Q5</f>
         <v>45047</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="107">
         <f>X5</f>
         <v>45054</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="107">
         <f>AE5</f>
         <v>45061</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="107">
         <f>AL5</f>
         <v>45068</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="107">
         <f>AS5</f>
         <v>45075</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="107">
         <f>AZ5</f>
         <v>45082</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="107">
         <f>BG5</f>
         <v>45089</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="109"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -5629,17 +5629,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEB8997-E8E8-4C72-8F27-DBDD34EACB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE0986-38CD-4803-85CC-89BD8BF62449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,23 +1100,23 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1717,8 +1717,8 @@
   <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1768,108 +1768,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="110">
-        <v>45040</v>
-      </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="108">
+        <v>45047</v>
+      </c>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="107">
+      <c r="J4" s="105">
         <f>J5</f>
-        <v>45040</v>
-      </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107">
+        <v>45047</v>
+      </c>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
-        <v>45047</v>
-      </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="107">
+        <v>45054</v>
+      </c>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
-        <v>45054</v>
-      </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="107">
+        <v>45061</v>
+      </c>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
-        <v>45061</v>
-      </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="107">
+        <v>45068</v>
+      </c>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
-        <v>45068</v>
-      </c>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="107">
+        <v>45075</v>
+      </c>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
-        <v>45075</v>
-      </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="107">
+        <v>45082</v>
+      </c>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
-        <v>45082</v>
-      </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="107">
+        <v>45089</v>
+      </c>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
-        <v>45089</v>
-      </c>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="109"/>
+        <v>45096</v>
+      </c>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -1884,227 +1884,227 @@
       <c r="H5" s="72"/>
       <c r="J5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="K5" s="9">
         <f>J5+1</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" ref="L5:AY5" si="0">K5+1</f>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="0"/>
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="0"/>
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="0"/>
-        <v>45045</v>
+        <v>45052</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>45046</v>
+        <v>45053</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="R5" s="9">
         <f>Q5+1</f>
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="0"/>
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="0"/>
-        <v>45050</v>
+        <v>45057</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="0"/>
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="0"/>
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="0"/>
-        <v>45053</v>
+        <v>45060</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="Y5" s="9">
         <f>X5+1</f>
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="0"/>
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="0"/>
-        <v>45057</v>
+        <v>45064</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="0"/>
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" si="0"/>
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="AD5" s="11">
         <f t="shared" si="0"/>
-        <v>45060</v>
+        <v>45067</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>45061</v>
+        <v>45068</v>
       </c>
       <c r="AF5" s="9">
         <f>AE5+1</f>
-        <v>45062</v>
+        <v>45069</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="0"/>
-        <v>45063</v>
+        <v>45070</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="0"/>
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="AI5" s="9">
         <f t="shared" si="0"/>
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="AJ5" s="9">
         <f t="shared" si="0"/>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="AK5" s="11">
         <f t="shared" si="0"/>
-        <v>45067</v>
+        <v>45074</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>45068</v>
+        <v>45075</v>
       </c>
       <c r="AM5" s="9">
         <f>AL5+1</f>
-        <v>45069</v>
+        <v>45076</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="0"/>
-        <v>45070</v>
+        <v>45077</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="0"/>
-        <v>45071</v>
+        <v>45078</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" si="0"/>
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" si="0"/>
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="AR5" s="11">
         <f t="shared" si="0"/>
-        <v>45074</v>
+        <v>45081</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>45075</v>
+        <v>45082</v>
       </c>
       <c r="AT5" s="9">
         <f>AS5+1</f>
-        <v>45076</v>
+        <v>45083</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" si="0"/>
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="AV5" s="9">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>45085</v>
       </c>
       <c r="AW5" s="9">
         <f t="shared" si="0"/>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="AX5" s="9">
         <f t="shared" si="0"/>
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="AY5" s="11">
         <f t="shared" si="0"/>
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="BA5" s="9">
         <f>AZ5+1</f>
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="BB5" s="9">
         <f t="shared" ref="BB5:BF5" si="1">BA5+1</f>
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" si="1"/>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="BD5" s="9">
         <f t="shared" si="1"/>
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="BE5" s="9">
         <f t="shared" si="1"/>
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="BF5" s="11">
         <f t="shared" si="1"/>
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="BH5" s="9">
         <f>BG5+1</f>
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="BI5" s="9">
         <f t="shared" ref="BI5:BM5" si="2">BH5+1</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" si="2"/>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="BK5" s="9">
         <f t="shared" si="2"/>
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="BL5" s="9">
         <f t="shared" si="2"/>
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="BM5" s="11">
         <f t="shared" si="2"/>
-        <v>45095</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -2515,14 +2515,14 @@
       </c>
       <c r="E9" s="81">
         <f>Project_Start</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="F9" s="77">
         <v>0</v>
       </c>
       <c r="G9" s="81">
         <f t="shared" ref="G9:G14" si="7">SUM(E9,F9)</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13">
@@ -2601,14 +2601,14 @@
       </c>
       <c r="E10" s="81">
         <f>G9</f>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="F10" s="77">
         <v>0</v>
       </c>
       <c r="G10" s="81">
         <f t="shared" si="7"/>
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13">
@@ -2685,14 +2685,14 @@
       </c>
       <c r="E11" s="81">
         <f>G10 + 1</f>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="F11" s="77">
         <v>0</v>
       </c>
       <c r="G11" s="81">
         <f t="shared" si="7"/>
-        <v>45041</v>
+        <v>45048</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13">
@@ -2769,14 +2769,14 @@
       </c>
       <c r="E12" s="81">
         <f>G11 + 1</f>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="F12" s="77">
         <v>0</v>
       </c>
       <c r="G12" s="81">
         <f t="shared" ref="G12" si="8">SUM(E12,F12)</f>
-        <v>45042</v>
+        <v>45049</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -2850,14 +2850,14 @@
       </c>
       <c r="E13" s="81">
         <f>G12 + 1</f>
-        <v>45043</v>
+        <v>45050</v>
       </c>
       <c r="F13" s="77">
         <v>5</v>
       </c>
       <c r="G13" s="81">
         <f t="shared" si="7"/>
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13">
@@ -2934,14 +2934,14 @@
       </c>
       <c r="E14" s="81">
         <f>G13 + 1</f>
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="F14" s="77">
         <v>5</v>
       </c>
       <c r="G14" s="81">
         <f t="shared" si="7"/>
-        <v>45054</v>
+        <v>45061</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13">
@@ -3092,14 +3092,14 @@
       </c>
       <c r="E16" s="82">
         <f xml:space="preserve"> G14 + 1</f>
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="F16" s="78">
         <v>0</v>
       </c>
       <c r="G16" s="82">
         <f>SUM(E16,F16)</f>
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13">
@@ -3176,14 +3176,14 @@
       </c>
       <c r="E17" s="82">
         <f>G16 + 1</f>
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="F17" s="78">
         <v>2</v>
       </c>
       <c r="G17" s="82">
         <f>SUM(E17,F17)</f>
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13">
@@ -3256,18 +3256,18 @@
         <v>37</v>
       </c>
       <c r="D18" s="23">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E18" s="82">
         <f>G17 + 1</f>
-        <v>45059</v>
+        <v>45066</v>
       </c>
       <c r="F18" s="78">
         <v>3</v>
       </c>
       <c r="G18" s="82">
         <f>SUM(E18,F18)</f>
-        <v>45062</v>
+        <v>45069</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13">
@@ -3344,14 +3344,14 @@
       </c>
       <c r="E19" s="82">
         <f>G18 + 1</f>
-        <v>45063</v>
+        <v>45070</v>
       </c>
       <c r="F19" s="78">
         <v>2</v>
       </c>
       <c r="G19" s="82">
         <f>SUM(E19,F19)</f>
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -3425,14 +3425,14 @@
       </c>
       <c r="E20" s="82">
         <f>G19 + 1</f>
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="F20" s="78">
         <v>1</v>
       </c>
       <c r="G20" s="82">
         <f t="shared" ref="G20" si="9">SUM(E20,F20)</f>
-        <v>45067</v>
+        <v>45074</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13">
@@ -3583,14 +3583,14 @@
       </c>
       <c r="E22" s="83">
         <f>G20 + 1</f>
-        <v>45068</v>
+        <v>45075</v>
       </c>
       <c r="F22" s="79">
         <v>3</v>
       </c>
       <c r="G22" s="83">
         <f>SUM(E22,F22)</f>
-        <v>45071</v>
+        <v>45078</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13">
@@ -3667,14 +3667,14 @@
       </c>
       <c r="E23" s="83">
         <f>G22 + 1</f>
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="F23" s="79">
         <v>2</v>
       </c>
       <c r="G23" s="83">
         <f>SUM(E23,F23)</f>
-        <v>45074</v>
+        <v>45081</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13">
@@ -3825,14 +3825,14 @@
       </c>
       <c r="E25" s="84">
         <f>G23 + 1</f>
-        <v>45075</v>
+        <v>45082</v>
       </c>
       <c r="F25" s="80">
         <v>2</v>
       </c>
       <c r="G25" s="84">
         <f>SUM(E25,F25)</f>
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13">
@@ -3909,14 +3909,14 @@
       </c>
       <c r="E26" s="84">
         <f t="shared" ref="E26:E33" si="10">G25 + 1</f>
-        <v>45078</v>
+        <v>45085</v>
       </c>
       <c r="F26" s="80">
         <v>1</v>
       </c>
       <c r="G26" s="84">
         <f>SUM(E26,F26)</f>
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13">
@@ -3993,14 +3993,14 @@
       </c>
       <c r="E27" s="84">
         <f t="shared" si="10"/>
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="F27" s="80">
         <v>0</v>
       </c>
       <c r="G27" s="84">
         <f>SUM(E27,F27)</f>
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="E28" s="84">
         <f>G27 + 1</f>
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="F28" s="80">
         <v>0</v>
       </c>
       <c r="G28" s="84">
         <f>SUM(E28,F28)</f>
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -4158,14 +4158,14 @@
       </c>
       <c r="E29" s="84">
         <f>G28</f>
-        <v>45081</v>
+        <v>45088</v>
       </c>
       <c r="F29" s="80">
         <v>1</v>
       </c>
       <c r="G29" s="84">
         <f t="shared" ref="G29:G30" si="11">SUM(E29,F29)</f>
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
@@ -4242,14 +4242,14 @@
       </c>
       <c r="E30" s="84">
         <f t="shared" si="10"/>
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="F30" s="80">
         <v>0</v>
       </c>
       <c r="G30" s="84">
         <f t="shared" si="11"/>
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13">
@@ -4326,14 +4326,14 @@
       </c>
       <c r="E31" s="84">
         <f t="shared" si="10"/>
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="F31" s="80">
         <v>0</v>
       </c>
       <c r="G31" s="84">
         <f t="shared" ref="G31:G33" si="12">SUM(E31,F31)</f>
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13">
@@ -4410,14 +4410,14 @@
       </c>
       <c r="E32" s="84">
         <f t="shared" si="10"/>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="F32" s="80">
         <v>0</v>
       </c>
       <c r="G32" s="84">
         <f t="shared" si="12"/>
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13">
@@ -4494,14 +4494,14 @@
       </c>
       <c r="E33" s="84">
         <f t="shared" si="10"/>
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="F33" s="80">
         <v>2</v>
       </c>
       <c r="G33" s="84">
         <f t="shared" si="12"/>
-        <v>45088</v>
+        <v>45095</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13">
@@ -4652,14 +4652,14 @@
       </c>
       <c r="E35" s="93">
         <f>G33 + 1</f>
-        <v>45089</v>
+        <v>45096</v>
       </c>
       <c r="F35" s="94">
         <v>1</v>
       </c>
       <c r="G35" s="93">
         <f>SUM(E35,F35)</f>
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13">
@@ -4736,14 +4736,14 @@
       </c>
       <c r="E36" s="93">
         <f>G35 + 1</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="F36" s="94">
         <v>1</v>
       </c>
       <c r="G36" s="93">
         <f>SUM(E36,F36)</f>
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13">
@@ -4820,14 +4820,14 @@
       </c>
       <c r="E37" s="93">
         <f>G36 + 1</f>
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="F37" s="94">
         <v>4</v>
       </c>
       <c r="G37" s="93">
         <f>SUM(E37,F37)</f>
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13">
@@ -4904,14 +4904,14 @@
       </c>
       <c r="E38" s="93">
         <f>G37 + 1</f>
-        <v>45098</v>
+        <v>45105</v>
       </c>
       <c r="F38" s="94">
         <v>4</v>
       </c>
       <c r="G38" s="93">
         <f>SUM(E38,F38)</f>
-        <v>45102</v>
+        <v>45109</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13">
@@ -5062,14 +5062,14 @@
       </c>
       <c r="E40" s="103">
         <f>G38 + 1</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="F40" s="104">
         <v>0</v>
       </c>
       <c r="G40" s="103">
         <f t="shared" ref="G40:G45" si="13">SUM(E40,F40)</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13">
@@ -5146,14 +5146,14 @@
       </c>
       <c r="E41" s="103">
         <f>G40</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="F41" s="104">
         <v>0</v>
       </c>
       <c r="G41" s="103">
         <f t="shared" si="13"/>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13">
@@ -5230,14 +5230,14 @@
       </c>
       <c r="E42" s="103">
         <f>G41</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="F42" s="104">
         <v>0</v>
       </c>
       <c r="G42" s="103">
         <f t="shared" si="13"/>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13">
@@ -5314,14 +5314,14 @@
       </c>
       <c r="E43" s="103">
         <f>G42</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="F43" s="104">
         <v>0</v>
       </c>
       <c r="G43" s="103">
         <f t="shared" si="13"/>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13">
@@ -5398,14 +5398,14 @@
       </c>
       <c r="E44" s="103">
         <f>G43</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="F44" s="104">
         <v>0</v>
       </c>
       <c r="G44" s="103">
         <f t="shared" si="13"/>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13">
@@ -5482,14 +5482,14 @@
       </c>
       <c r="E45" s="103">
         <f>G44</f>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="F45" s="104">
         <v>0</v>
       </c>
       <c r="G45" s="103">
         <f t="shared" si="13"/>
-        <v>45103</v>
+        <v>45110</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13">
@@ -5629,17 +5629,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADE0986-38CD-4803-85CC-89BD8BF62449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914C8575-C774-43BF-8A9E-83CCF3E76C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,6 +1100,12 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1111,12 +1117,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1717,8 +1717,8 @@
   <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1768,108 +1768,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="108">
+      <c r="D3" s="106"/>
+      <c r="E3" s="110">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="105">
+      <c r="J4" s="107">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="107">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="107">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="107">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="107">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="107">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="107">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="107">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="109"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -3256,7 +3256,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="82">
         <f>G17 + 1</f>
@@ -5629,17 +5629,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914C8575-C774-43BF-8A9E-83CCF3E76C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782B9E6-E353-410A-AEDF-5BA28DD3D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1100,23 +1100,23 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1717,11 +1717,11 @@
   <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="54" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -1735,7 +1735,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
@@ -1763,115 +1763,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="110">
+      <c r="D3" s="110"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="107">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="107">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="107">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="107">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="107">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="107">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="107">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="109"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
         <v>9</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
         <v>16</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="55" t="s">
         <v>17</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
         <v>18</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
         <v>19</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54"/>
       <c r="B11" s="68" t="s">
         <v>45</v>
@@ -2756,7 +2756,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
         <v>77</v>
@@ -2837,7 +2837,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54"/>
       <c r="B13" s="68" t="s">
         <v>42</v>
@@ -2921,7 +2921,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54"/>
       <c r="B14" s="68" t="s">
         <v>44</v>
@@ -3005,7 +3005,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="55" t="s">
         <v>20</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="55"/>
       <c r="B16" s="69" t="s">
         <v>46</v>
@@ -3163,7 +3163,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="54"/>
       <c r="B17" s="69" t="s">
         <v>47</v>
@@ -3247,7 +3247,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="54"/>
       <c r="B18" s="69" t="s">
         <v>48</v>
@@ -3256,7 +3256,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="82">
         <f>G17 + 1</f>
@@ -3331,7 +3331,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54"/>
       <c r="B19" s="69" t="s">
         <v>67</v>
@@ -3412,7 +3412,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="54"/>
       <c r="B20" s="69" t="s">
         <v>49</v>
@@ -3496,7 +3496,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="54" t="s">
         <v>21</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="54"/>
       <c r="B22" s="70" t="s">
         <v>52</v>
@@ -3654,7 +3654,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="54"/>
       <c r="B23" s="70" t="s">
         <v>53</v>
@@ -3738,7 +3738,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="54" t="s">
         <v>21</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="54"/>
       <c r="B25" s="71" t="s">
         <v>68</v>
@@ -3896,7 +3896,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="54"/>
       <c r="B26" s="71" t="s">
         <v>54</v>
@@ -3980,7 +3980,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="54"/>
       <c r="B27" s="71" t="s">
         <v>74</v>
@@ -4064,7 +4064,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="54"/>
       <c r="B28" s="71" t="s">
         <v>78</v>
@@ -4145,7 +4145,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="54"/>
       <c r="B29" s="71" t="s">
         <v>75</v>
@@ -4229,7 +4229,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54"/>
       <c r="B30" s="71" t="s">
         <v>57</v>
@@ -4313,7 +4313,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54"/>
       <c r="B31" s="71" t="s">
         <v>58</v>
@@ -4397,7 +4397,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="54"/>
       <c r="B32" s="71" t="s">
         <v>56</v>
@@ -4481,7 +4481,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="54"/>
       <c r="B33" s="71" t="s">
         <v>55</v>
@@ -4565,7 +4565,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="54" t="s">
         <v>21</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="54"/>
       <c r="B35" s="90" t="s">
         <v>62</v>
@@ -4723,7 +4723,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="54"/>
       <c r="B36" s="90" t="s">
         <v>63</v>
@@ -4807,7 +4807,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="54"/>
       <c r="B37" s="90" t="s">
         <v>64</v>
@@ -4891,7 +4891,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="54"/>
       <c r="B38" s="90" t="s">
         <v>65</v>
@@ -4975,7 +4975,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="54" t="s">
         <v>21</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="54"/>
       <c r="B40" s="100" t="s">
         <v>69</v>
@@ -5133,7 +5133,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="54"/>
       <c r="B41" s="100" t="s">
         <v>76</v>
@@ -5217,7 +5217,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="54"/>
       <c r="B42" s="100" t="s">
         <v>70</v>
@@ -5301,7 +5301,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="54"/>
       <c r="B43" s="100" t="s">
         <v>71</v>
@@ -5385,7 +5385,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="54"/>
       <c r="B44" s="100" t="s">
         <v>72</v>
@@ -5469,7 +5469,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="54"/>
       <c r="B45" s="100" t="s">
         <v>73</v>
@@ -5553,7 +5553,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="55" t="s">
         <v>22</v>
       </c>
@@ -5629,17 +5629,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">
@@ -5727,86 +5727,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87.125" style="44" customWidth="1"/>
     <col min="2" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="1:2" s="46" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="45"/>
     </row>
-    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="51"/>
     </row>
-    <row r="4" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+    <row r="4" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+    <row r="8" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="67.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+    <row r="11" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="84.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>36</v>
       </c>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782B9E6-E353-410A-AEDF-5BA28DD3D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29908132-1CC6-4514-83DE-002B04CCE007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -293,14 +293,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>마법사</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>사제</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>레이아나 자매 페이즈 1</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -357,6 +349,42 @@
   </si>
   <si>
     <t>타이틀 레벨</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">마법사 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[구현 안함]</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">사제  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[구현 안함]</t>
+    </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +400,7 @@
     <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="yy/mm/dd;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +565,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -798,7 +835,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1100,6 +1137,12 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1112,11 +1155,8 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1718,10 +1758,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" style="54" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -1735,7 +1775,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
@@ -1763,115 +1803,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="108">
+      <c r="D3" s="106"/>
+      <c r="E3" s="110">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="105">
+      <c r="J4" s="107">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="107">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="107">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="107">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="107">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="107">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="107">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="107">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="109"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
@@ -2107,7 +2147,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="55" t="s">
         <v>9</v>
       </c>
@@ -2358,7 +2398,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="54" t="s">
         <v>16</v>
       </c>
@@ -2426,7 +2466,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="55" t="s">
         <v>17</v>
       </c>
@@ -2500,7 +2540,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="55" t="s">
         <v>18</v>
       </c>
@@ -2586,7 +2626,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="55" t="s">
         <v>19</v>
       </c>
@@ -2672,7 +2712,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="54"/>
       <c r="B11" s="68" t="s">
         <v>45</v>
@@ -2756,10 +2796,10 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>37</v>
@@ -2837,7 +2877,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="54"/>
       <c r="B13" s="68" t="s">
         <v>42</v>
@@ -2921,7 +2961,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="54"/>
       <c r="B14" s="68" t="s">
         <v>44</v>
@@ -3005,7 +3045,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="55" t="s">
         <v>20</v>
       </c>
@@ -3079,7 +3119,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="55"/>
       <c r="B16" s="69" t="s">
         <v>46</v>
@@ -3163,7 +3203,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="54"/>
       <c r="B17" s="69" t="s">
         <v>47</v>
@@ -3247,7 +3287,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="54"/>
       <c r="B18" s="69" t="s">
         <v>48</v>
@@ -3331,10 +3371,10 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="54"/>
       <c r="B19" s="69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>37</v>
@@ -3412,7 +3452,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="54"/>
       <c r="B20" s="69" t="s">
         <v>49</v>
@@ -3496,7 +3536,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="54" t="s">
         <v>21</v>
       </c>
@@ -3570,7 +3610,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="54"/>
       <c r="B22" s="70" t="s">
         <v>52</v>
@@ -3654,7 +3694,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="54"/>
       <c r="B23" s="70" t="s">
         <v>53</v>
@@ -3738,7 +3778,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="54" t="s">
         <v>21</v>
       </c>
@@ -3812,10 +3852,10 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="54"/>
       <c r="B25" s="71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="67" t="s">
         <v>38</v>
@@ -3896,7 +3936,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="54"/>
       <c r="B26" s="71" t="s">
         <v>54</v>
@@ -3980,10 +4020,10 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="54"/>
       <c r="B27" s="71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="67" t="s">
         <v>38</v>
@@ -4064,10 +4104,10 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="54"/>
       <c r="B28" s="71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="67" t="s">
         <v>38</v>
@@ -4145,10 +4185,10 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="54"/>
       <c r="B29" s="71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="67" t="s">
         <v>38</v>
@@ -4229,7 +4269,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="54"/>
       <c r="B30" s="71" t="s">
         <v>57</v>
@@ -4313,7 +4353,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="54"/>
       <c r="B31" s="71" t="s">
         <v>58</v>
@@ -4397,7 +4437,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="54"/>
       <c r="B32" s="71" t="s">
         <v>56</v>
@@ -4481,7 +4521,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="54"/>
       <c r="B33" s="71" t="s">
         <v>55</v>
@@ -4565,7 +4605,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="54" t="s">
         <v>21</v>
       </c>
@@ -4639,10 +4679,10 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="54"/>
-      <c r="B35" s="90" t="s">
-        <v>62</v>
+      <c r="B35" s="111" t="s">
+        <v>77</v>
       </c>
       <c r="C35" s="91" t="s">
         <v>38</v>
@@ -4723,10 +4763,10 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="54"/>
-      <c r="B36" s="90" t="s">
-        <v>63</v>
+      <c r="B36" s="111" t="s">
+        <v>78</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>38</v>
@@ -4807,10 +4847,10 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="54"/>
       <c r="B37" s="90" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="91" t="s">
         <v>37</v>
@@ -4891,10 +4931,10 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="54"/>
       <c r="B38" s="90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="91" t="s">
         <v>37</v>
@@ -4975,12 +5015,12 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="95" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="96"/>
       <c r="D39" s="97"/>
@@ -5049,10 +5089,10 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="54"/>
       <c r="B40" s="100" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" s="101" t="s">
         <v>38</v>
@@ -5133,10 +5173,10 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="54"/>
       <c r="B41" s="100" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="101" t="s">
         <v>38</v>
@@ -5217,10 +5257,10 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="54"/>
       <c r="B42" s="100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="101" t="s">
         <v>38</v>
@@ -5301,10 +5341,10 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="54"/>
       <c r="B43" s="100" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="101" t="s">
         <v>38</v>
@@ -5385,10 +5425,10 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="54"/>
       <c r="B44" s="100" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" s="101" t="s">
         <v>38</v>
@@ -5469,10 +5509,10 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="54"/>
       <c r="B45" s="100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="101" t="s">
         <v>38</v>
@@ -5553,7 +5593,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A46" s="55" t="s">
         <v>22</v>
       </c>
@@ -5629,17 +5669,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">
@@ -5727,86 +5767,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="87.125" style="44" customWidth="1"/>
     <col min="2" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="1:2" s="46" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.6">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="45"/>
     </row>
-    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="75" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="51"/>
     </row>
-    <row r="4" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
       <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
       <c r="A8" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="67.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
       <c r="A11" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="33.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
       <c r="A14" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="84.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="49" t="s">
         <v>36</v>
       </c>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29908132-1CC6-4514-83DE-002B04CCE007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3000A075-9F35-411E-8CE7-37C37A25341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,26 +1137,26 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1757,8 +1757,8 @@
   <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1808,108 +1808,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="110">
+      <c r="D3" s="111"/>
+      <c r="E3" s="109">
         <v>45047</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="106"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="107">
+      <c r="J4" s="106">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107">
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="106">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="107">
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="106">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="107">
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="106">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="107">
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="106">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="107">
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="108"/>
+      <c r="AS4" s="106">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="107">
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="108"/>
+      <c r="AZ4" s="106">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="107">
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="108"/>
+      <c r="BG4" s="106">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="109"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="107"/>
+      <c r="BM4" s="108"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -3212,7 +3212,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="82">
         <f>G16 + 1</f>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="54"/>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="105" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="91" t="s">
@@ -4765,7 +4765,7 @@
     </row>
     <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="54"/>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="105" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="91" t="s">
@@ -5669,17 +5669,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3000A075-9F35-411E-8CE7-37C37A25341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E153F-EC09-418F-A100-BB4D186C0F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,6 +1140,12 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1151,12 +1157,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1757,8 +1757,8 @@
   <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O19" sqref="O19"/>
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1808,108 +1808,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="109">
+      <c r="D3" s="107"/>
+      <c r="E3" s="111">
         <v>45047</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="106">
+      <c r="J4" s="108">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="106">
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="108">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="106">
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="108">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="106">
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="108">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="106">
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="108">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="108"/>
-      <c r="AS4" s="106">
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="108">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="108"/>
-      <c r="AZ4" s="106">
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="108">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="107"/>
-      <c r="BF4" s="108"/>
-      <c r="BG4" s="106">
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="110"/>
+      <c r="BG4" s="108">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="107"/>
-      <c r="BI4" s="107"/>
-      <c r="BJ4" s="107"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="107"/>
-      <c r="BM4" s="108"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="109"/>
+      <c r="BM4" s="110"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -2886,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="81">
         <f>G12 + 1</f>
@@ -5669,17 +5669,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E153F-EC09-418F-A100-BB4D186C0F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAE598D-40E9-42DF-8ED1-446651949A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,22 +317,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>초대 용사 1페이즈</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대 용사 2페이즈</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대 용사 3페이즈</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대 용사 엔딩 연출</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 UI</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -387,6 +371,74 @@
     </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">초대 용사 엔딩 연출 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [구현 안함]</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">초대 용사 3페이즈  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[구현 안함]</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">초대 용사 2페이즈  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[구현 안함]</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">초대 용사 1페이즈  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[구현 안함]</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -400,7 +452,7 @@
     <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="yy/mm/dd;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +624,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -835,7 +895,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1140,23 +1200,26 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1757,8 +1820,8 @@
   <dimension ref="A1:BM46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1808,108 +1871,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="111">
+      <c r="D3" s="111"/>
+      <c r="E3" s="109">
         <v>45047</v>
       </c>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="108">
+      <c r="J4" s="106">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="108">
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="106">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="108">
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="106">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="108">
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="106">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="108">
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="106">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="108">
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="108"/>
+      <c r="AS4" s="106">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="108">
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="108"/>
+      <c r="AZ4" s="106">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="109"/>
-      <c r="BE4" s="109"/>
-      <c r="BF4" s="110"/>
-      <c r="BG4" s="108">
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="108"/>
+      <c r="BG4" s="106">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="109"/>
-      <c r="BI4" s="109"/>
-      <c r="BJ4" s="109"/>
-      <c r="BK4" s="109"/>
-      <c r="BL4" s="109"/>
-      <c r="BM4" s="110"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="107"/>
+      <c r="BM4" s="108"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -2799,7 +2862,7 @@
     <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>37</v>
@@ -4023,7 +4086,7 @@
     <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="54"/>
       <c r="B27" s="71" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C27" s="67" t="s">
         <v>38</v>
@@ -4107,7 +4170,7 @@
     <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="54"/>
       <c r="B28" s="71" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="67" t="s">
         <v>38</v>
@@ -4188,7 +4251,7 @@
     <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="54"/>
       <c r="B29" s="71" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C29" s="67" t="s">
         <v>38</v>
@@ -4682,7 +4745,7 @@
     <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="54"/>
       <c r="B35" s="105" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C35" s="91" t="s">
         <v>38</v>
@@ -4766,7 +4829,7 @@
     <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="54"/>
       <c r="B36" s="105" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>38</v>
@@ -5176,7 +5239,7 @@
     <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="54"/>
       <c r="B41" s="100" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" s="101" t="s">
         <v>38</v>
@@ -5259,8 +5322,8 @@
     </row>
     <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="54"/>
-      <c r="B42" s="100" t="s">
-        <v>68</v>
+      <c r="B42" s="112" t="s">
+        <v>78</v>
       </c>
       <c r="C42" s="101" t="s">
         <v>38</v>
@@ -5343,8 +5406,8 @@
     </row>
     <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="54"/>
-      <c r="B43" s="100" t="s">
-        <v>69</v>
+      <c r="B43" s="112" t="s">
+        <v>77</v>
       </c>
       <c r="C43" s="101" t="s">
         <v>38</v>
@@ -5427,8 +5490,8 @@
     </row>
     <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="54"/>
-      <c r="B44" s="100" t="s">
-        <v>70</v>
+      <c r="B44" s="112" t="s">
+        <v>76</v>
       </c>
       <c r="C44" s="101" t="s">
         <v>38</v>
@@ -5511,8 +5574,8 @@
     </row>
     <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="54"/>
-      <c r="B45" s="100" t="s">
-        <v>71</v>
+      <c r="B45" s="112" t="s">
+        <v>75</v>
       </c>
       <c r="C45" s="101" t="s">
         <v>38</v>
@@ -5669,17 +5732,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D46">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAE598D-40E9-42DF-8ED1-446651949A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782994EF-A4BD-4805-B424-49756454481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -437,6 +437,14 @@
       </rPr>
       <t>[구현 안함]</t>
     </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 시스템</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티클 시스템</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1200,6 +1208,15 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1211,15 +1228,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1817,11 +1825,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM46"/>
+  <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R15" sqref="R15"/>
+      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1871,108 +1879,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="109">
+      <c r="D3" s="108"/>
+      <c r="E3" s="112">
         <v>45047</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="106">
+      <c r="J4" s="109">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="106">
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="109">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="106">
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="109">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="106">
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="109">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="106">
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="111"/>
+      <c r="AL4" s="109">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="107"/>
-      <c r="AO4" s="107"/>
-      <c r="AP4" s="107"/>
-      <c r="AQ4" s="107"/>
-      <c r="AR4" s="108"/>
-      <c r="AS4" s="106">
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="109">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="107"/>
-      <c r="AX4" s="107"/>
-      <c r="AY4" s="108"/>
-      <c r="AZ4" s="106">
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="111"/>
+      <c r="AZ4" s="109">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="107"/>
-      <c r="BE4" s="107"/>
-      <c r="BF4" s="108"/>
-      <c r="BG4" s="106">
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="111"/>
+      <c r="BG4" s="109">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="107"/>
-      <c r="BI4" s="107"/>
-      <c r="BJ4" s="107"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="107"/>
-      <c r="BM4" s="108"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="111"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -2543,7 +2551,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="str">
-        <f t="shared" ref="I8:I46" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="I8:I48" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="J8" s="40"/>
@@ -2624,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="81">
-        <f t="shared" ref="G9:G14" si="7">SUM(E9,F9)</f>
+        <f t="shared" ref="G9:G16" si="7">SUM(E9,F9)</f>
         <v>45047</v>
       </c>
       <c r="H9" s="13"/>
@@ -2778,7 +2786,7 @@
     <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="54"/>
       <c r="B11" s="68" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C11" s="61" t="s">
         <v>37</v>
@@ -2862,7 +2870,7 @@
     <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>37</v>
@@ -2882,7 +2890,10 @@
         <v>45049</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
@@ -2943,29 +2954,29 @@
     <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="54"/>
       <c r="B13" s="68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="18">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="81">
         <f>G12 + 1</f>
         <v>45050</v>
       </c>
       <c r="F13" s="77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="81">
         <f t="shared" si="7"/>
-        <v>45055</v>
+        <v>45050</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -2983,7 +2994,7 @@
       <c r="W13" s="40"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
-      <c r="Z13" s="41"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
       <c r="AB13" s="40"/>
       <c r="AC13" s="40"/>
@@ -3027,30 +3038,27 @@
     <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="54"/>
       <c r="B14" s="68" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="81">
         <f>G13 + 1</f>
-        <v>45056</v>
+        <v>45051</v>
       </c>
       <c r="F14" s="77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="81">
-        <f t="shared" si="7"/>
-        <v>45061</v>
+        <f t="shared" ref="G14" si="9">SUM(E14,F14)</f>
+        <v>45051</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="13">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
+      <c r="I14" s="13"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
@@ -3108,22 +3116,32 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A15" s="54"/>
+      <c r="B15" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="81">
+        <f>G14 + 1</f>
+        <v>45052</v>
+      </c>
+      <c r="F15" s="77">
+        <v>5</v>
+      </c>
+      <c r="G15" s="81">
+        <f t="shared" si="7"/>
+        <v>45057</v>
+      </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="13" t="str">
+      <c r="I15" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -3141,7 +3159,7 @@
       <c r="W15" s="40"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="Z15" s="41"/>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40"/>
       <c r="AC15" s="40"/>
@@ -3183,31 +3201,31 @@
       <c r="BM15" s="40"/>
     </row>
     <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="55"/>
-      <c r="B16" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="63" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="23">
-        <v>1</v>
-      </c>
-      <c r="E16" s="82">
-        <f xml:space="preserve"> G14 + 1</f>
-        <v>45062</v>
-      </c>
-      <c r="F16" s="78">
+      <c r="D16" s="18">
         <v>0</v>
       </c>
-      <c r="G16" s="82">
-        <f>SUM(E16,F16)</f>
-        <v>45062</v>
+      <c r="E16" s="81">
+        <f>G15 + 1</f>
+        <v>45058</v>
+      </c>
+      <c r="F16" s="77">
+        <v>5</v>
+      </c>
+      <c r="G16" s="81">
+        <f t="shared" si="7"/>
+        <v>45063</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
@@ -3266,32 +3284,22 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="54"/>
-      <c r="B17" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-      <c r="E17" s="82">
-        <f>G16 + 1</f>
-        <v>45063</v>
-      </c>
-      <c r="F17" s="78">
-        <v>2</v>
-      </c>
-      <c r="G17" s="82">
-        <f>SUM(E17,F17)</f>
-        <v>45065</v>
-      </c>
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A17" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13">
+      <c r="I17" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
@@ -3351,9 +3359,9 @@
       <c r="BM17" s="40"/>
     </row>
     <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>37</v>
@@ -3362,20 +3370,20 @@
         <v>1</v>
       </c>
       <c r="E18" s="82">
-        <f>G17 + 1</f>
-        <v>45066</v>
+        <f xml:space="preserve"> G16 + 1</f>
+        <v>45064</v>
       </c>
       <c r="F18" s="78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="82">
         <f>SUM(E18,F18)</f>
-        <v>45069</v>
+        <v>45064</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
@@ -3393,7 +3401,7 @@
       <c r="W18" s="40"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="40"/>
-      <c r="Z18" s="41"/>
+      <c r="Z18" s="40"/>
       <c r="AA18" s="40"/>
       <c r="AB18" s="40"/>
       <c r="AC18" s="40"/>
@@ -3437,27 +3445,30 @@
     <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="54"/>
       <c r="B19" s="69" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="82">
         <f>G18 + 1</f>
-        <v>45070</v>
+        <v>45065</v>
       </c>
       <c r="F19" s="78">
         <v>2</v>
       </c>
       <c r="G19" s="82">
         <f>SUM(E19,F19)</f>
-        <v>45072</v>
+        <v>45067</v>
       </c>
       <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
@@ -3474,7 +3485,7 @@
       <c r="W19" s="40"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="40"/>
-      <c r="Z19" s="41"/>
+      <c r="Z19" s="40"/>
       <c r="AA19" s="40"/>
       <c r="AB19" s="40"/>
       <c r="AC19" s="40"/>
@@ -3518,29 +3529,29 @@
     <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="54"/>
       <c r="B20" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="63" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="82">
         <f>G19 + 1</f>
-        <v>45073</v>
+        <v>45068</v>
       </c>
       <c r="F20" s="78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="82">
-        <f t="shared" ref="G20" si="9">SUM(E20,F20)</f>
-        <v>45074</v>
+        <f>SUM(E20,F20)</f>
+        <v>45071</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
@@ -3558,7 +3569,7 @@
       <c r="W20" s="40"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
+      <c r="Z20" s="41"/>
       <c r="AA20" s="40"/>
       <c r="AB20" s="40"/>
       <c r="AC20" s="40"/>
@@ -3599,23 +3610,30 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A21" s="54"/>
+      <c r="B21" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
+      <c r="E21" s="82">
+        <f>G20 + 1</f>
+        <v>45072</v>
+      </c>
+      <c r="F21" s="78">
+        <v>2</v>
+      </c>
+      <c r="G21" s="82">
+        <f>SUM(E21,F21)</f>
+        <v>45074</v>
+      </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="I21" s="13"/>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="L21" s="40"/>
@@ -3632,7 +3650,7 @@
       <c r="W21" s="40"/>
       <c r="X21" s="40"/>
       <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
+      <c r="Z21" s="41"/>
       <c r="AA21" s="40"/>
       <c r="AB21" s="40"/>
       <c r="AC21" s="40"/>
@@ -3675,30 +3693,30 @@
     </row>
     <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="54"/>
-      <c r="B22" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="65" t="s">
+      <c r="B22" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="23">
         <v>0</v>
       </c>
-      <c r="E22" s="83">
-        <f>G20 + 1</f>
+      <c r="E22" s="82">
+        <f>G21 + 1</f>
         <v>45075</v>
       </c>
-      <c r="F22" s="79">
-        <v>3</v>
-      </c>
-      <c r="G22" s="83">
-        <f>SUM(E22,F22)</f>
-        <v>45078</v>
+      <c r="F22" s="78">
+        <v>1</v>
+      </c>
+      <c r="G22" s="82">
+        <f t="shared" ref="G22" si="10">SUM(E22,F22)</f>
+        <v>45076</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
@@ -3757,32 +3775,22 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="54"/>
-      <c r="B23" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="28">
-        <v>0</v>
-      </c>
-      <c r="E23" s="83">
-        <f>G22 + 1</f>
-        <v>45079</v>
-      </c>
-      <c r="F23" s="79">
-        <v>2</v>
-      </c>
-      <c r="G23" s="83">
-        <f>SUM(E23,F23)</f>
-        <v>45081</v>
-      </c>
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A23" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="13">
+      <c r="I23" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
@@ -3841,22 +3849,32 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A24" s="54"/>
+      <c r="B24" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="28">
+        <v>0</v>
+      </c>
+      <c r="E24" s="83">
+        <f>G22 + 1</f>
+        <v>45077</v>
+      </c>
+      <c r="F24" s="79">
+        <v>3</v>
+      </c>
+      <c r="G24" s="83">
+        <f>SUM(E24,F24)</f>
+        <v>45080</v>
+      </c>
       <c r="H24" s="13"/>
-      <c r="I24" s="13" t="str">
+      <c r="I24" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
@@ -3915,27 +3933,27 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="54"/>
-      <c r="B25" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="E25" s="84">
-        <f>G23 + 1</f>
-        <v>45082</v>
-      </c>
-      <c r="F25" s="80">
+      <c r="B25" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="28">
+        <v>0</v>
+      </c>
+      <c r="E25" s="83">
+        <f>G24 + 1</f>
+        <v>45081</v>
+      </c>
+      <c r="F25" s="79">
         <v>2</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="83">
         <f>SUM(E25,F25)</f>
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13">
@@ -4000,31 +4018,21 @@
       <c r="BM25" s="40"/>
     </row>
     <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A26" s="54"/>
-      <c r="B26" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="33">
-        <v>0</v>
-      </c>
-      <c r="E26" s="84">
-        <f t="shared" ref="E26:E33" si="10">G25 + 1</f>
-        <v>45085</v>
-      </c>
-      <c r="F26" s="80">
-        <v>1</v>
-      </c>
-      <c r="G26" s="84">
-        <f>SUM(E26,F26)</f>
-        <v>45086</v>
-      </c>
+      <c r="A26" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="13">
+      <c r="I26" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="J26" s="40"/>
       <c r="K26" s="40"/>
@@ -4086,29 +4094,29 @@
     <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="54"/>
       <c r="B27" s="71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="67" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E27" s="84">
-        <f t="shared" si="10"/>
-        <v>45087</v>
+        <f>G25 + 1</f>
+        <v>45084</v>
       </c>
       <c r="F27" s="80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="84">
         <f>SUM(E27,F27)</f>
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
@@ -4170,27 +4178,30 @@
     <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="54"/>
       <c r="B28" s="71" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C28" s="67" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="33">
+        <v>0</v>
+      </c>
+      <c r="E28" s="84">
+        <f t="shared" ref="E28:E35" si="11">G27 + 1</f>
+        <v>45087</v>
+      </c>
+      <c r="F28" s="80">
         <v>1</v>
-      </c>
-      <c r="E28" s="84">
-        <f>G27 + 1</f>
-        <v>45088</v>
-      </c>
-      <c r="F28" s="80">
-        <v>0</v>
       </c>
       <c r="G28" s="84">
         <f>SUM(E28,F28)</f>
         <v>45088</v>
       </c>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="J28" s="40"/>
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
@@ -4251,7 +4262,7 @@
     <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="54"/>
       <c r="B29" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="67" t="s">
         <v>38</v>
@@ -4260,20 +4271,20 @@
         <v>0</v>
       </c>
       <c r="E29" s="84">
-        <f>G28</f>
-        <v>45088</v>
+        <f t="shared" si="11"/>
+        <v>45089</v>
       </c>
       <c r="F29" s="80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="84">
-        <f t="shared" ref="G29:G30" si="11">SUM(E29,F29)</f>
+        <f>SUM(E29,F29)</f>
         <v>45089</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="40"/>
       <c r="K29" s="40"/>
@@ -4335,7 +4346,7 @@
     <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="54"/>
       <c r="B30" s="71" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C30" s="67" t="s">
         <v>38</v>
@@ -4344,21 +4355,18 @@
         <v>1</v>
       </c>
       <c r="E30" s="84">
-        <f t="shared" si="10"/>
+        <f>G29 + 1</f>
         <v>45090</v>
       </c>
       <c r="F30" s="80">
         <v>0</v>
       </c>
       <c r="G30" s="84">
-        <f t="shared" si="11"/>
+        <f>SUM(E30,F30)</f>
         <v>45090</v>
       </c>
       <c r="H30" s="13"/>
-      <c r="I30" s="13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+      <c r="I30" s="13"/>
       <c r="J30" s="40"/>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
@@ -4419,29 +4427,29 @@
     <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="54"/>
       <c r="B31" s="71" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C31" s="67" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="33">
+        <v>0</v>
+      </c>
+      <c r="E31" s="84">
+        <f>G30</f>
+        <v>45090</v>
+      </c>
+      <c r="F31" s="80">
         <v>1</v>
       </c>
-      <c r="E31" s="84">
-        <f t="shared" si="10"/>
-        <v>45091</v>
-      </c>
-      <c r="F31" s="80">
-        <v>0</v>
-      </c>
       <c r="G31" s="84">
-        <f t="shared" ref="G31:G33" si="12">SUM(E31,F31)</f>
+        <f t="shared" ref="G31:G32" si="12">SUM(E31,F31)</f>
         <v>45091</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="40"/>
       <c r="K31" s="40"/>
@@ -4503,16 +4511,16 @@
     <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="54"/>
       <c r="B32" s="71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="67" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45092</v>
       </c>
       <c r="F32" s="80">
@@ -4587,29 +4595,29 @@
     <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="54"/>
       <c r="B33" s="71" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C33" s="67" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="84">
+        <f t="shared" si="11"/>
+        <v>45093</v>
+      </c>
+      <c r="F33" s="80">
         <v>0</v>
       </c>
-      <c r="E33" s="84">
-        <f t="shared" si="10"/>
+      <c r="G33" s="84">
+        <f t="shared" ref="G33:G35" si="13">SUM(E33,F33)</f>
         <v>45093</v>
-      </c>
-      <c r="F33" s="80">
-        <v>2</v>
-      </c>
-      <c r="G33" s="84">
-        <f t="shared" si="12"/>
-        <v>45095</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
@@ -4669,21 +4677,31 @@
       <c r="BM33" s="40"/>
     </row>
     <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A34" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="89"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="33">
+        <v>0</v>
+      </c>
+      <c r="E34" s="84">
+        <f t="shared" si="11"/>
+        <v>45094</v>
+      </c>
+      <c r="F34" s="80">
+        <v>0</v>
+      </c>
+      <c r="G34" s="84">
+        <f t="shared" si="13"/>
+        <v>45094</v>
+      </c>
       <c r="H34" s="13"/>
-      <c r="I34" s="13" t="str">
+      <c r="I34" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
@@ -4744,30 +4762,30 @@
     </row>
     <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="54"/>
-      <c r="B35" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="91" t="s">
+      <c r="B35" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="92">
+      <c r="D35" s="33">
         <v>0</v>
       </c>
-      <c r="E35" s="93">
-        <f>G33 + 1</f>
-        <v>45096</v>
-      </c>
-      <c r="F35" s="94">
-        <v>1</v>
-      </c>
-      <c r="G35" s="93">
-        <f>SUM(E35,F35)</f>
+      <c r="E35" s="84">
+        <f t="shared" si="11"/>
+        <v>45095</v>
+      </c>
+      <c r="F35" s="80">
+        <v>2</v>
+      </c>
+      <c r="G35" s="84">
+        <f t="shared" si="13"/>
         <v>45097</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" s="40"/>
       <c r="K35" s="40"/>
@@ -4827,31 +4845,21 @@
       <c r="BM35" s="40"/>
     </row>
     <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="54"/>
-      <c r="B36" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="92">
-        <v>0</v>
-      </c>
-      <c r="E36" s="93">
-        <f>G35 + 1</f>
-        <v>45098</v>
-      </c>
-      <c r="F36" s="94">
-        <v>1</v>
-      </c>
-      <c r="G36" s="93">
-        <f>SUM(E36,F36)</f>
-        <v>45099</v>
-      </c>
+      <c r="A36" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="89"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="13">
+      <c r="I36" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
@@ -4912,30 +4920,30 @@
     </row>
     <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="54"/>
-      <c r="B37" s="90" t="s">
-        <v>62</v>
+      <c r="B37" s="105" t="s">
+        <v>73</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37" s="92">
         <v>0</v>
       </c>
       <c r="E37" s="93">
-        <f>G36 + 1</f>
-        <v>45100</v>
+        <f>G35 + 1</f>
+        <v>45098</v>
       </c>
       <c r="F37" s="94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" s="93">
         <f>SUM(E37,F37)</f>
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
@@ -4996,30 +5004,30 @@
     </row>
     <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="54"/>
-      <c r="B38" s="90" t="s">
-        <v>63</v>
+      <c r="B38" s="105" t="s">
+        <v>74</v>
       </c>
       <c r="C38" s="91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" s="92">
         <v>0</v>
       </c>
       <c r="E38" s="93">
         <f>G37 + 1</f>
-        <v>45105</v>
+        <v>45100</v>
       </c>
       <c r="F38" s="94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="93">
         <f>SUM(E38,F38)</f>
-        <v>45109</v>
+        <v>45101</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
@@ -5079,21 +5087,31 @@
       <c r="BM38" s="40"/>
     </row>
     <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A39" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="99"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="92">
+        <v>0</v>
+      </c>
+      <c r="E39" s="93">
+        <f>G38 + 1</f>
+        <v>45102</v>
+      </c>
+      <c r="F39" s="94">
+        <v>4</v>
+      </c>
+      <c r="G39" s="93">
+        <f>SUM(E39,F39)</f>
+        <v>45106</v>
+      </c>
       <c r="H39" s="13"/>
-      <c r="I39" s="13" t="str">
+      <c r="I39" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="J39" s="40"/>
       <c r="K39" s="40"/>
@@ -5154,30 +5172,30 @@
     </row>
     <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="54"/>
-      <c r="B40" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="102">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="103">
-        <f>G38 + 1</f>
-        <v>45110</v>
-      </c>
-      <c r="F40" s="104">
+      <c r="B40" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="92">
         <v>0</v>
       </c>
-      <c r="G40" s="103">
-        <f t="shared" ref="G40:G45" si="13">SUM(E40,F40)</f>
-        <v>45110</v>
+      <c r="E40" s="93">
+        <f>G39 + 1</f>
+        <v>45107</v>
+      </c>
+      <c r="F40" s="94">
+        <v>4</v>
+      </c>
+      <c r="G40" s="93">
+        <f>SUM(E40,F40)</f>
+        <v>45111</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J40" s="40"/>
       <c r="K40" s="40"/>
@@ -5237,31 +5255,21 @@
       <c r="BM40" s="40"/>
     </row>
     <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="54"/>
-      <c r="B41" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="102">
-        <v>0</v>
-      </c>
-      <c r="E41" s="103">
-        <f>G40</f>
-        <v>45110</v>
-      </c>
-      <c r="F41" s="104">
-        <v>0</v>
-      </c>
-      <c r="G41" s="103">
-        <f t="shared" si="13"/>
-        <v>45110</v>
-      </c>
+      <c r="A41" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="99"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="13">
+      <c r="I41" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
@@ -5322,25 +5330,25 @@
     </row>
     <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="54"/>
-      <c r="B42" s="112" t="s">
-        <v>78</v>
+      <c r="B42" s="100" t="s">
+        <v>67</v>
       </c>
       <c r="C42" s="101" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="103">
-        <f>G41</f>
-        <v>45110</v>
+        <f>G40 + 1</f>
+        <v>45112</v>
       </c>
       <c r="F42" s="104">
         <v>0</v>
       </c>
       <c r="G42" s="103">
-        <f t="shared" si="13"/>
-        <v>45110</v>
+        <f t="shared" ref="G42:G47" si="14">SUM(E42,F42)</f>
+        <v>45112</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13">
@@ -5406,8 +5414,8 @@
     </row>
     <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="54"/>
-      <c r="B43" s="112" t="s">
-        <v>77</v>
+      <c r="B43" s="100" t="s">
+        <v>70</v>
       </c>
       <c r="C43" s="101" t="s">
         <v>38</v>
@@ -5417,14 +5425,14 @@
       </c>
       <c r="E43" s="103">
         <f>G42</f>
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="F43" s="104">
         <v>0</v>
       </c>
       <c r="G43" s="103">
-        <f t="shared" si="13"/>
-        <v>45110</v>
+        <f t="shared" si="14"/>
+        <v>45112</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13">
@@ -5490,8 +5498,8 @@
     </row>
     <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="54"/>
-      <c r="B44" s="112" t="s">
-        <v>76</v>
+      <c r="B44" s="106" t="s">
+        <v>78</v>
       </c>
       <c r="C44" s="101" t="s">
         <v>38</v>
@@ -5501,14 +5509,14 @@
       </c>
       <c r="E44" s="103">
         <f>G43</f>
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="F44" s="104">
         <v>0</v>
       </c>
       <c r="G44" s="103">
-        <f t="shared" si="13"/>
-        <v>45110</v>
+        <f t="shared" si="14"/>
+        <v>45112</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13">
@@ -5574,8 +5582,8 @@
     </row>
     <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="54"/>
-      <c r="B45" s="112" t="s">
-        <v>75</v>
+      <c r="B45" s="106" t="s">
+        <v>77</v>
       </c>
       <c r="C45" s="101" t="s">
         <v>38</v>
@@ -5585,14 +5593,14 @@
       </c>
       <c r="E45" s="103">
         <f>G44</f>
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="F45" s="104">
         <v>0</v>
       </c>
       <c r="G45" s="103">
-        <f t="shared" si="13"/>
-        <v>45110</v>
+        <f t="shared" si="14"/>
+        <v>45112</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13">
@@ -5657,95 +5665,263 @@
       <c r="BM45" s="40"/>
     </row>
     <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="54"/>
+      <c r="B46" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="102">
+        <v>0</v>
+      </c>
+      <c r="E46" s="103">
+        <f>G45</f>
+        <v>45112</v>
+      </c>
+      <c r="F46" s="104">
+        <v>0</v>
+      </c>
+      <c r="G46" s="103">
+        <f t="shared" si="14"/>
+        <v>45112</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="40"/>
+      <c r="AD46" s="40"/>
+      <c r="AE46" s="40"/>
+      <c r="AF46" s="40"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="40"/>
+      <c r="AI46" s="40"/>
+      <c r="AJ46" s="40"/>
+      <c r="AK46" s="40"/>
+      <c r="AL46" s="40"/>
+      <c r="AM46" s="40"/>
+      <c r="AN46" s="40"/>
+      <c r="AO46" s="40"/>
+      <c r="AP46" s="40"/>
+      <c r="AQ46" s="40"/>
+      <c r="AR46" s="40"/>
+      <c r="AS46" s="40"/>
+      <c r="AT46" s="40"/>
+      <c r="AU46" s="40"/>
+      <c r="AV46" s="40"/>
+      <c r="AW46" s="40"/>
+      <c r="AX46" s="40"/>
+      <c r="AY46" s="40"/>
+      <c r="AZ46" s="40"/>
+      <c r="BA46" s="40"/>
+      <c r="BB46" s="40"/>
+      <c r="BC46" s="40"/>
+      <c r="BD46" s="40"/>
+      <c r="BE46" s="40"/>
+      <c r="BF46" s="40"/>
+      <c r="BG46" s="40"/>
+      <c r="BH46" s="40"/>
+      <c r="BI46" s="40"/>
+      <c r="BJ46" s="40"/>
+      <c r="BK46" s="40"/>
+      <c r="BL46" s="40"/>
+      <c r="BM46" s="40"/>
+    </row>
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A47" s="54"/>
+      <c r="B47" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="102">
+        <v>0</v>
+      </c>
+      <c r="E47" s="103">
+        <f>G46</f>
+        <v>45112</v>
+      </c>
+      <c r="F47" s="104">
+        <v>0</v>
+      </c>
+      <c r="G47" s="103">
+        <f t="shared" si="14"/>
+        <v>45112</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40"/>
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="40"/>
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="40"/>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="40"/>
+      <c r="AN47" s="40"/>
+      <c r="AO47" s="40"/>
+      <c r="AP47" s="40"/>
+      <c r="AQ47" s="40"/>
+      <c r="AR47" s="40"/>
+      <c r="AS47" s="40"/>
+      <c r="AT47" s="40"/>
+      <c r="AU47" s="40"/>
+      <c r="AV47" s="40"/>
+      <c r="AW47" s="40"/>
+      <c r="AX47" s="40"/>
+      <c r="AY47" s="40"/>
+      <c r="AZ47" s="40"/>
+      <c r="BA47" s="40"/>
+      <c r="BB47" s="40"/>
+      <c r="BC47" s="40"/>
+      <c r="BD47" s="40"/>
+      <c r="BE47" s="40"/>
+      <c r="BF47" s="40"/>
+      <c r="BG47" s="40"/>
+      <c r="BH47" s="40"/>
+      <c r="BI47" s="40"/>
+      <c r="BJ47" s="40"/>
+      <c r="BK47" s="40"/>
+      <c r="BL47" s="40"/>
+      <c r="BM47" s="40"/>
+    </row>
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A48" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B48" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39" t="str">
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="42"/>
-      <c r="AB46" s="42"/>
-      <c r="AC46" s="42"/>
-      <c r="AD46" s="42"/>
-      <c r="AE46" s="42"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-      <c r="AH46" s="42"/>
-      <c r="AI46" s="42"/>
-      <c r="AJ46" s="42"/>
-      <c r="AK46" s="42"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="42"/>
-      <c r="AO46" s="42"/>
-      <c r="AP46" s="42"/>
-      <c r="AQ46" s="42"/>
-      <c r="AR46" s="42"/>
-      <c r="AS46" s="42"/>
-      <c r="AT46" s="42"/>
-      <c r="AU46" s="42"/>
-      <c r="AV46" s="42"/>
-      <c r="AW46" s="42"/>
-      <c r="AX46" s="42"/>
-      <c r="AY46" s="42"/>
-      <c r="AZ46" s="42"/>
-      <c r="BA46" s="42"/>
-      <c r="BB46" s="42"/>
-      <c r="BC46" s="42"/>
-      <c r="BD46" s="42"/>
-      <c r="BE46" s="42"/>
-      <c r="BF46" s="42"/>
-      <c r="BG46" s="42"/>
-      <c r="BH46" s="42"/>
-      <c r="BI46" s="42"/>
-      <c r="BJ46" s="42"/>
-      <c r="BK46" s="42"/>
-      <c r="BL46" s="42"/>
-      <c r="BM46" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
+      <c r="AE48" s="42"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="42"/>
+      <c r="AH48" s="42"/>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="42"/>
+      <c r="AO48" s="42"/>
+      <c r="AP48" s="42"/>
+      <c r="AQ48" s="42"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="42"/>
+      <c r="AT48" s="42"/>
+      <c r="AU48" s="42"/>
+      <c r="AV48" s="42"/>
+      <c r="AW48" s="42"/>
+      <c r="AX48" s="42"/>
+      <c r="AY48" s="42"/>
+      <c r="AZ48" s="42"/>
+      <c r="BA48" s="42"/>
+      <c r="BB48" s="42"/>
+      <c r="BC48" s="42"/>
+      <c r="BD48" s="42"/>
+      <c r="BE48" s="42"/>
+      <c r="BF48" s="42"/>
+      <c r="BG48" s="42"/>
+      <c r="BH48" s="42"/>
+      <c r="BI48" s="42"/>
+      <c r="BJ48" s="42"/>
+      <c r="BK48" s="42"/>
+      <c r="BL48" s="42"/>
+      <c r="BM48" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D46">
+  <conditionalFormatting sqref="D7:D48">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5759,12 +5935,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:BM46 J5:BM38">
+  <conditionalFormatting sqref="J48:BM48 J5:BM40">
     <cfRule type="expression" dxfId="5" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:BM46 J7:BM38">
+  <conditionalFormatting sqref="J48:BM48 J7:BM40">
     <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
@@ -5772,12 +5948,12 @@
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:BM45">
+  <conditionalFormatting sqref="J41:BM47">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:BM45">
+  <conditionalFormatting sqref="J41:BM47">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
@@ -5816,7 +5992,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D46</xm:sqref>
+          <xm:sqref>D7:D48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782994EF-A4BD-4805-B424-49756454481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D033D628-3392-4874-8391-4316E2C96F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,23 +1211,23 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1828,8 +1828,8 @@
   <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S40" sqref="S40"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1879,108 +1879,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="112">
+      <c r="D3" s="112"/>
+      <c r="E3" s="110">
         <v>45047</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="109">
+      <c r="J4" s="107">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="109">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="107">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="109">
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="107">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="109">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="107">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="111"/>
-      <c r="AL4" s="109">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="107">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="111"/>
-      <c r="AS4" s="109">
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="107">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="111"/>
-      <c r="AZ4" s="109">
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="107">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="110"/>
-      <c r="BF4" s="111"/>
-      <c r="BG4" s="109">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="107">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
-      <c r="BJ4" s="110"/>
-      <c r="BK4" s="110"/>
-      <c r="BL4" s="110"/>
-      <c r="BM4" s="111"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="109"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="81">
-        <f>G10 + 1</f>
+        <f t="shared" ref="E11:E16" si="8">G10 + 1</f>
         <v>45048</v>
       </c>
       <c r="F11" s="77">
@@ -2879,14 +2879,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="81">
-        <f>G11 + 1</f>
+        <f t="shared" si="8"/>
         <v>45049</v>
       </c>
       <c r="F12" s="77">
         <v>0</v>
       </c>
       <c r="G12" s="81">
-        <f t="shared" ref="G12" si="8">SUM(E12,F12)</f>
+        <f t="shared" ref="G12" si="9">SUM(E12,F12)</f>
         <v>45049</v>
       </c>
       <c r="H12" s="13"/>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="81">
-        <f>G12 + 1</f>
+        <f t="shared" si="8"/>
         <v>45050</v>
       </c>
       <c r="F13" s="77">
@@ -3047,14 +3047,14 @@
         <v>1</v>
       </c>
       <c r="E14" s="81">
-        <f>G13 + 1</f>
+        <f t="shared" si="8"/>
         <v>45051</v>
       </c>
       <c r="F14" s="77">
         <v>0</v>
       </c>
       <c r="G14" s="81">
-        <f t="shared" ref="G14" si="9">SUM(E14,F14)</f>
+        <f t="shared" ref="G14" si="10">SUM(E14,F14)</f>
         <v>45051</v>
       </c>
       <c r="H14" s="13"/>
@@ -3125,10 +3125,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="18">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E15" s="81">
-        <f>G14 + 1</f>
+        <f t="shared" si="8"/>
         <v>45052</v>
       </c>
       <c r="F15" s="77">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="81">
-        <f>G15 + 1</f>
+        <f t="shared" si="8"/>
         <v>45058</v>
       </c>
       <c r="F16" s="77">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="82">
-        <f t="shared" ref="G22" si="10">SUM(E22,F22)</f>
+        <f t="shared" ref="G22" si="11">SUM(E22,F22)</f>
         <v>45076</v>
       </c>
       <c r="H22" s="13"/>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="84">
-        <f t="shared" ref="E28:E35" si="11">G27 + 1</f>
+        <f t="shared" ref="E28:E35" si="12">G27 + 1</f>
         <v>45087</v>
       </c>
       <c r="F28" s="80">
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45089</v>
       </c>
       <c r="F29" s="80">
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="84">
-        <f t="shared" ref="G31:G32" si="12">SUM(E31,F31)</f>
+        <f t="shared" ref="G31:G32" si="13">SUM(E31,F31)</f>
         <v>45091</v>
       </c>
       <c r="H31" s="13"/>
@@ -4520,14 +4520,14 @@
         <v>1</v>
       </c>
       <c r="E32" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45092</v>
       </c>
       <c r="F32" s="80">
         <v>0</v>
       </c>
       <c r="G32" s="84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45092</v>
       </c>
       <c r="H32" s="13"/>
@@ -4604,14 +4604,14 @@
         <v>1</v>
       </c>
       <c r="E33" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45093</v>
       </c>
       <c r="F33" s="80">
         <v>0</v>
       </c>
       <c r="G33" s="84">
-        <f t="shared" ref="G33:G35" si="13">SUM(E33,F33)</f>
+        <f t="shared" ref="G33:G35" si="14">SUM(E33,F33)</f>
         <v>45093</v>
       </c>
       <c r="H33" s="13"/>
@@ -4688,14 +4688,14 @@
         <v>0</v>
       </c>
       <c r="E34" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45094</v>
       </c>
       <c r="F34" s="80">
         <v>0</v>
       </c>
       <c r="G34" s="84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45094</v>
       </c>
       <c r="H34" s="13"/>
@@ -4772,14 +4772,14 @@
         <v>0</v>
       </c>
       <c r="E35" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45095</v>
       </c>
       <c r="F35" s="80">
         <v>2</v>
       </c>
       <c r="G35" s="84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>45097</v>
       </c>
       <c r="H35" s="13"/>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="103">
-        <f t="shared" ref="G42:G47" si="14">SUM(E42,F42)</f>
+        <f t="shared" ref="G42:G47" si="15">SUM(E42,F42)</f>
         <v>45112</v>
       </c>
       <c r="H42" s="13"/>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45112</v>
       </c>
       <c r="H43" s="13"/>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45112</v>
       </c>
       <c r="H44" s="13"/>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45112</v>
       </c>
       <c r="H45" s="13"/>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45112</v>
       </c>
       <c r="H46" s="13"/>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45112</v>
       </c>
       <c r="H47" s="13"/>
@@ -5908,17 +5908,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D033D628-3392-4874-8391-4316E2C96F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987303B8-D93D-45CA-B60C-C6B801857294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1211,6 +1211,12 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1222,12 +1228,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1829,10 +1829,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="54" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -1846,7 +1846,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
@@ -1874,115 +1874,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="110">
+      <c r="D3" s="108"/>
+      <c r="E3" s="112">
         <v>45047</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="112"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="107">
+      <c r="J4" s="109">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107">
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="109">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="107">
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="109">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="107">
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="109">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="107">
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="111"/>
+      <c r="AL4" s="109">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="107">
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="109">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="107">
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="111"/>
+      <c r="AZ4" s="109">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="107">
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="111"/>
+      <c r="BG4" s="109">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="109"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="111"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
         <v>9</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
         <v>16</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="55" t="s">
         <v>17</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
         <v>18</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
         <v>19</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="54"/>
       <c r="B11" s="68" t="s">
         <v>80</v>
@@ -2867,7 +2867,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
         <v>79</v>
@@ -2951,7 +2951,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="54"/>
       <c r="B13" s="68" t="s">
         <v>45</v>
@@ -3035,7 +3035,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="54"/>
       <c r="B14" s="68" t="s">
         <v>71</v>
@@ -3116,7 +3116,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="54"/>
       <c r="B15" s="68" t="s">
         <v>42</v>
@@ -3200,7 +3200,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="54"/>
       <c r="B16" s="68" t="s">
         <v>44</v>
@@ -3209,7 +3209,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="18">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E16" s="81">
         <f t="shared" si="8"/>
@@ -3284,7 +3284,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="55" t="s">
         <v>20</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="55"/>
       <c r="B18" s="69" t="s">
         <v>46</v>
@@ -3442,7 +3442,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="54"/>
       <c r="B19" s="69" t="s">
         <v>47</v>
@@ -3526,7 +3526,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="54"/>
       <c r="B20" s="69" t="s">
         <v>48</v>
@@ -3610,7 +3610,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="54"/>
       <c r="B21" s="69" t="s">
         <v>65</v>
@@ -3691,7 +3691,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="54"/>
       <c r="B22" s="69" t="s">
         <v>49</v>
@@ -3775,7 +3775,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
         <v>21</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="54"/>
       <c r="B24" s="70" t="s">
         <v>52</v>
@@ -3933,7 +3933,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="54"/>
       <c r="B25" s="70" t="s">
         <v>53</v>
@@ -4017,7 +4017,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="54" t="s">
         <v>21</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="54"/>
       <c r="B27" s="71" t="s">
         <v>66</v>
@@ -4175,7 +4175,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="54"/>
       <c r="B28" s="71" t="s">
         <v>54</v>
@@ -4259,7 +4259,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="54"/>
       <c r="B29" s="71" t="s">
         <v>68</v>
@@ -4343,7 +4343,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="54"/>
       <c r="B30" s="71" t="s">
         <v>72</v>
@@ -4424,7 +4424,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54"/>
       <c r="B31" s="71" t="s">
         <v>69</v>
@@ -4508,7 +4508,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="54"/>
       <c r="B32" s="71" t="s">
         <v>57</v>
@@ -4592,7 +4592,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="54"/>
       <c r="B33" s="71" t="s">
         <v>58</v>
@@ -4676,7 +4676,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="54"/>
       <c r="B34" s="71" t="s">
         <v>56</v>
@@ -4760,7 +4760,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="54"/>
       <c r="B35" s="71" t="s">
         <v>55</v>
@@ -4844,7 +4844,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="54" t="s">
         <v>21</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="54"/>
       <c r="B37" s="105" t="s">
         <v>73</v>
@@ -5002,7 +5002,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="54"/>
       <c r="B38" s="105" t="s">
         <v>74</v>
@@ -5086,7 +5086,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="54"/>
       <c r="B39" s="90" t="s">
         <v>62</v>
@@ -5170,7 +5170,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="54"/>
       <c r="B40" s="90" t="s">
         <v>63</v>
@@ -5254,7 +5254,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="54" t="s">
         <v>21</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="54"/>
       <c r="B42" s="100" t="s">
         <v>67</v>
@@ -5412,7 +5412,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="54"/>
       <c r="B43" s="100" t="s">
         <v>70</v>
@@ -5496,7 +5496,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="54"/>
       <c r="B44" s="106" t="s">
         <v>78</v>
@@ -5580,7 +5580,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="54"/>
       <c r="B45" s="106" t="s">
         <v>77</v>
@@ -5664,7 +5664,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="54"/>
       <c r="B46" s="106" t="s">
         <v>76</v>
@@ -5748,7 +5748,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="54"/>
       <c r="B47" s="106" t="s">
         <v>75</v>
@@ -5832,7 +5832,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="55" t="s">
         <v>22</v>
       </c>
@@ -5908,17 +5908,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6006,86 +6006,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87.125" style="44" customWidth="1"/>
     <col min="2" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="1:2" s="46" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="45"/>
     </row>
-    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="51"/>
     </row>
-    <row r="4" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+    <row r="4" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+    <row r="8" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="67.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+    <row r="11" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="84.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>36</v>
       </c>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987303B8-D93D-45CA-B60C-C6B801857294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA9056-D5F2-45BF-8036-E038AF1CC15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1211,23 +1211,23 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1828,11 +1828,11 @@
   <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" style="54" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -1846,7 +1846,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
@@ -1874,115 +1874,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="112">
+      <c r="D3" s="112"/>
+      <c r="E3" s="110">
         <v>45047</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="109">
+      <c r="J4" s="107">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="109">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="107">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="109">
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="107">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="109">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="107">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="111"/>
-      <c r="AL4" s="109">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="107">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="111"/>
-      <c r="AS4" s="109">
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="107">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="111"/>
-      <c r="AZ4" s="109">
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="107">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="110"/>
-      <c r="BF4" s="111"/>
-      <c r="BG4" s="109">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="107">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
-      <c r="BJ4" s="110"/>
-      <c r="BK4" s="110"/>
-      <c r="BL4" s="110"/>
-      <c r="BM4" s="111"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="109"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="55" t="s">
         <v>9</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="54" t="s">
         <v>16</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="55" t="s">
         <v>17</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="55" t="s">
         <v>18</v>
       </c>
@@ -2697,7 +2697,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="55" t="s">
         <v>19</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="54"/>
       <c r="B11" s="68" t="s">
         <v>80</v>
@@ -2867,7 +2867,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="54"/>
       <c r="B12" s="68" t="s">
         <v>79</v>
@@ -2951,7 +2951,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="54"/>
       <c r="B13" s="68" t="s">
         <v>45</v>
@@ -3035,7 +3035,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="54"/>
       <c r="B14" s="68" t="s">
         <v>71</v>
@@ -3116,7 +3116,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="54"/>
       <c r="B15" s="68" t="s">
         <v>42</v>
@@ -3125,7 +3125,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="18">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E15" s="81">
         <f t="shared" si="8"/>
@@ -3200,7 +3200,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="54"/>
       <c r="B16" s="68" t="s">
         <v>44</v>
@@ -3209,7 +3209,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="18">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E16" s="81">
         <f t="shared" si="8"/>
@@ -3284,7 +3284,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="55" t="s">
         <v>20</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="55"/>
       <c r="B18" s="69" t="s">
         <v>46</v>
@@ -3442,7 +3442,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="54"/>
       <c r="B19" s="69" t="s">
         <v>47</v>
@@ -3526,7 +3526,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="54"/>
       <c r="B20" s="69" t="s">
         <v>48</v>
@@ -3610,7 +3610,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="54"/>
       <c r="B21" s="69" t="s">
         <v>65</v>
@@ -3691,7 +3691,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="54"/>
       <c r="B22" s="69" t="s">
         <v>49</v>
@@ -3775,7 +3775,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="54" t="s">
         <v>21</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="54"/>
       <c r="B24" s="70" t="s">
         <v>52</v>
@@ -3933,7 +3933,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="54"/>
       <c r="B25" s="70" t="s">
         <v>53</v>
@@ -4017,7 +4017,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="54" t="s">
         <v>21</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="54"/>
       <c r="B27" s="71" t="s">
         <v>66</v>
@@ -4175,7 +4175,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="54"/>
       <c r="B28" s="71" t="s">
         <v>54</v>
@@ -4259,7 +4259,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="54"/>
       <c r="B29" s="71" t="s">
         <v>68</v>
@@ -4343,7 +4343,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="54"/>
       <c r="B30" s="71" t="s">
         <v>72</v>
@@ -4424,7 +4424,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="54"/>
       <c r="B31" s="71" t="s">
         <v>69</v>
@@ -4508,7 +4508,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="54"/>
       <c r="B32" s="71" t="s">
         <v>57</v>
@@ -4592,7 +4592,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="54"/>
       <c r="B33" s="71" t="s">
         <v>58</v>
@@ -4676,7 +4676,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="54"/>
       <c r="B34" s="71" t="s">
         <v>56</v>
@@ -4760,7 +4760,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="54"/>
       <c r="B35" s="71" t="s">
         <v>55</v>
@@ -4844,7 +4844,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="54" t="s">
         <v>21</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="54"/>
       <c r="B37" s="105" t="s">
         <v>73</v>
@@ -5002,7 +5002,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="54"/>
       <c r="B38" s="105" t="s">
         <v>74</v>
@@ -5086,7 +5086,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="54"/>
       <c r="B39" s="90" t="s">
         <v>62</v>
@@ -5170,7 +5170,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="54"/>
       <c r="B40" s="90" t="s">
         <v>63</v>
@@ -5254,7 +5254,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="54" t="s">
         <v>21</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="54"/>
       <c r="B42" s="100" t="s">
         <v>67</v>
@@ -5412,7 +5412,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="54"/>
       <c r="B43" s="100" t="s">
         <v>70</v>
@@ -5496,7 +5496,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="54"/>
       <c r="B44" s="106" t="s">
         <v>78</v>
@@ -5580,7 +5580,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="54"/>
       <c r="B45" s="106" t="s">
         <v>77</v>
@@ -5664,7 +5664,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A46" s="54"/>
       <c r="B46" s="106" t="s">
         <v>76</v>
@@ -5748,7 +5748,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A47" s="54"/>
       <c r="B47" s="106" t="s">
         <v>75</v>
@@ -5832,7 +5832,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" s="55" t="s">
         <v>22</v>
       </c>
@@ -5908,17 +5908,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6006,86 +6006,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="87.125" style="44" customWidth="1"/>
     <col min="2" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="46" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="1:2" s="46" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.6">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="45"/>
     </row>
-    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="75" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="51"/>
     </row>
-    <row r="4" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
       <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
       <c r="A8" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="67.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
       <c r="A11" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="33.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="47" customFormat="1" ht="31.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
       <c r="A14" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="84.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="49" t="s">
         <v>36</v>
       </c>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA9056-D5F2-45BF-8036-E038AF1CC15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D51A47C-D81C-4089-8418-FD34B1B8BE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,6 +1211,12 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1222,12 +1228,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1828,8 +1828,8 @@
   <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1879,108 +1879,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="110">
+      <c r="D3" s="108"/>
+      <c r="E3" s="112">
         <v>45047</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="112"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="107">
+      <c r="J4" s="109">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107">
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="109">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="107">
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="109">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="107">
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="109">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="107">
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="111"/>
+      <c r="AL4" s="109">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="107">
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="109">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="107">
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="111"/>
+      <c r="AZ4" s="109">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="107">
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="111"/>
+      <c r="BG4" s="109">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="109"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="110"/>
+      <c r="BM4" s="111"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -3209,7 +3209,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E16" s="81">
         <f t="shared" si="8"/>
@@ -5908,17 +5908,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D51A47C-D81C-4089-8418-FD34B1B8BE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50139630-9C60-4562-886A-32DE5C9B6B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,23 +1211,23 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1828,8 +1828,8 @@
   <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -1879,108 +1879,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="112">
+      <c r="D3" s="112"/>
+      <c r="E3" s="110">
         <v>45047</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="76"/>
-      <c r="J4" s="109">
+      <c r="J4" s="107">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="109">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="107">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="109">
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="107">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="109">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="107">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="111"/>
-      <c r="AL4" s="109">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="107">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="111"/>
-      <c r="AS4" s="109">
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="107">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="111"/>
-      <c r="AZ4" s="109">
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="107">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="110"/>
-      <c r="BF4" s="111"/>
-      <c r="BG4" s="109">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="107">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
-      <c r="BJ4" s="110"/>
-      <c r="BK4" s="110"/>
-      <c r="BL4" s="110"/>
-      <c r="BM4" s="111"/>
+      <c r="BH4" s="108"/>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="109"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="55" t="s">
@@ -3125,7 +3125,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E15" s="81">
         <f t="shared" si="8"/>
@@ -4100,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="D27" s="33">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="E27" s="84">
         <f>G25 + 1</f>
@@ -5908,17 +5908,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50139630-9C60-4562-886A-32DE5C9B6B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2714FB-6AFA-4C5D-8F79-DF851E68C35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
-    <sheet name="About" sheetId="12" r:id="rId2"/>
+    <sheet name="이벤트 리스트" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -150,190 +150,146 @@
     <t>Insert new rows ABOVE this one</t>
   </si>
   <si>
-    <t>About This Template</t>
-  </si>
-  <si>
-    <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Guide for Screen Readers</t>
-  </si>
-  <si>
-    <t>There are 2 worksheets in this workbook. 
-TimeSheet
-About
-The instructions for each worksheet are in the A column starting in cell A1 of each worksheet. They are written with hidden text. Each step guides you through the information in that row. Each subsequent step continues in cell A2, A3, and so on, unless otherwise explicitly directed. For example, instruction text might say "continue to cell A6" for the next step. 
-This hidden text will not print.
-To remove these instructions from the worksheet, simply delete column A.</t>
-  </si>
-  <si>
-    <t>Additional Help</t>
-  </si>
-  <si>
-    <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
-  </si>
-  <si>
-    <t>How to Use the Simple Gantt Chart</t>
-  </si>
-  <si>
-    <t>More Project Management Templates</t>
-  </si>
-  <si>
-    <t>Visit Vertex42.com to download other project management templates, including different types of project schedules, Gantt charts, tasks lists, etc.</t>
-  </si>
-  <si>
-    <t>Project Management Templates</t>
-  </si>
-  <si>
-    <t>About Vertex42</t>
-  </si>
-  <si>
-    <t>Vertex42.com provides over 300 professionally designed spreadsheet templates for business, home, and education - most of which are free to download. Their collection includes a variety of calendars, planners, and schedules as well as personal finance spreadsheets for budgeting, debt reduction, and loan amortization.</t>
-  </si>
-  <si>
-    <t>Businesses will find invoices, time sheets, inventory trackers, financial statements, and project planning templates. Teachers and students will find resources such as class schedules, grade books, and attendance sheets. Organize your family life with meal planners, checklists, and exercise logs. Each template is thoroughly researched, refined, and improved over time through feedback from thousands of users.</t>
-  </si>
-  <si>
     <t>김경식</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>김경식</t>
   </si>
   <si>
     <t>Day</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>데이터 베이스</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>스컬 프로젝트</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>기초 스컬 시스템</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>기초 타일맵 구조</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>기초 몬스터 시스템</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>카메라 시스템</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Static 오브젝트</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Rigdbody 오브젝트</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>맵 툴</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>아이템 시스템</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>기본 전투 시스템 [1 ~ 2주차]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>맵 시스템, 아이템 [3 ~ 4주차]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>중간보스 견습 용사</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>메인보스 각성 용사</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>NPC 대화</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>오프닝 연출</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>엔딩 연출</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>스토리 UI</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>엔딩  UI</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Boss 구현 [5주차]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>UI 및 연출 구현 [6 ~ 7주차]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Boss 구현 [8 ~ 9주차]</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>레이아나 자매 페이즈 1</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>레이아나 자매 페이즈 2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>퀄리티 작업 및 추가 컨텐츠 (10 ~ 12주차)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>정수 시스템</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>인벤토리 및 필드 UI</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>쉐이더 작업</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>전투 UI</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>미니맵 UI</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">사운드 작업 </t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>배경 시스템</t>
   </si>
   <si>
     <t>타이틀 레벨</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -351,7 +307,7 @@
       </rPr>
       <t>[구현 안함]</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -369,7 +325,7 @@
       </rPr>
       <t>[구현 안함]</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -386,7 +342,7 @@
       </rPr>
       <t xml:space="preserve"> [구현 안함]</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,7 +359,7 @@
       </rPr>
       <t>[구현 안함]</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -420,7 +376,7 @@
       </rPr>
       <t>[구현 안함]</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -437,15 +393,97 @@
       </rPr>
       <t>[구현 안함]</t>
     </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>이펙트 시스템</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>파티클 시스템</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>불타는 조화의 숲 (오프닝)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 네임</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastleInCameraLock</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 내용</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 고정 변경</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastleOutCameraLock</t>
+  </si>
+  <si>
+    <t>NextLevelMove</t>
+  </si>
+  <si>
+    <t>처리 대상</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleLevel</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 레벨로 이동</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐슬</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>조화의 숲</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossInteroDown</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossInteroUp</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스타일이 페이드아웃이 되며 카메라 무브 해제</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스타일이 페이드인 되며 카메라 무브 시작</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 구현중</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>미처리</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 구현 완료</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,7 +498,7 @@
     <numFmt numFmtId="180" formatCode="d"/>
     <numFmt numFmtId="181" formatCode="yy/mm/dd;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,49 +600,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D2129"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
@@ -647,8 +642,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +763,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -872,6 +908,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -880,7 +931,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -903,7 +954,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1032,36 +1083,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1111,11 +1134,8 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1211,6 +1231,12 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1223,11 +1249,26 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1245,7 +1286,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1305,6 +1346,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1402,15 +1469,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1503,60 +1570,14 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Vertex42 logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="1905000" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F2:F5" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F2:F5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1827,14 +1848,14 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="54" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
@@ -1847,11 +1868,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>41</v>
+      <c r="B1" s="47" t="s">
+        <v>28</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1859,140 +1880,140 @@
       <c r="F1" s="4"/>
       <c r="G1" s="43"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="63" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="74" t="s">
+      <c r="B2" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="64" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="110">
+      <c r="D3" s="97"/>
+      <c r="E3" s="101">
         <v>45047</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="112"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="J4" s="107">
+      <c r="F4" s="65"/>
+      <c r="J4" s="98">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="107">
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="98">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="107">
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="98">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="107">
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="98">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="107">
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="98">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="109"/>
-      <c r="AS4" s="107">
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="98">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="107">
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="98">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="107">
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="98">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="108"/>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="109"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="100"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
       <c r="J5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45047</v>
@@ -2219,7 +2240,7 @@
       </c>
     </row>
     <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2235,7 +2256,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>14</v>
@@ -2470,10 +2491,10 @@
       </c>
     </row>
     <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="46"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="I7" t="str">
@@ -2538,13 +2559,13 @@
       <c r="BM7" s="40"/>
     </row>
     <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="60"/>
+        <v>37</v>
+      </c>
+      <c r="C8" s="50"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -2612,26 +2633,26 @@
       <c r="BM8" s="40"/>
     </row>
     <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>37</v>
+      <c r="B9" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="70">
         <f>Project_Start</f>
         <v>45047</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="66">
         <v>0</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="70">
         <f t="shared" ref="G9:G16" si="7">SUM(E9,F9)</f>
         <v>45047</v>
       </c>
@@ -2698,26 +2719,26 @@
       <c r="BM9" s="40"/>
     </row>
     <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>37</v>
+      <c r="B10" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="70">
         <f>G9</f>
         <v>45047</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="66">
         <v>0</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="70">
         <f t="shared" si="7"/>
         <v>45047</v>
       </c>
@@ -2784,24 +2805,24 @@
       <c r="BM10" s="40"/>
     </row>
     <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="54"/>
-      <c r="B11" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>37</v>
+      <c r="A11" s="44"/>
+      <c r="B11" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="70">
         <f t="shared" ref="E11:E16" si="8">G10 + 1</f>
         <v>45048</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="66">
         <v>0</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="70">
         <f t="shared" si="7"/>
         <v>45048</v>
       </c>
@@ -2868,24 +2889,24 @@
       <c r="BM11" s="40"/>
     </row>
     <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="54"/>
-      <c r="B12" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>37</v>
+      <c r="A12" s="44"/>
+      <c r="B12" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="70">
         <f t="shared" si="8"/>
         <v>45049</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="66">
         <v>0</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="70">
         <f t="shared" ref="G12" si="9">SUM(E12,F12)</f>
         <v>45049</v>
       </c>
@@ -2952,24 +2973,24 @@
       <c r="BM12" s="40"/>
     </row>
     <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="54"/>
-      <c r="B13" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>37</v>
+      <c r="A13" s="44"/>
+      <c r="B13" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="70">
         <f t="shared" si="8"/>
         <v>45050</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="66">
         <v>0</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="70">
         <f t="shared" si="7"/>
         <v>45050</v>
       </c>
@@ -3036,24 +3057,24 @@
       <c r="BM13" s="40"/>
     </row>
     <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="54"/>
-      <c r="B14" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>37</v>
+      <c r="A14" s="44"/>
+      <c r="B14" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="70">
         <f t="shared" si="8"/>
         <v>45051</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="66">
         <v>0</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G14" s="70">
         <f t="shared" ref="G14" si="10">SUM(E14,F14)</f>
         <v>45051</v>
       </c>
@@ -3117,24 +3138,24 @@
       <c r="BM14" s="40"/>
     </row>
     <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="54"/>
-      <c r="B15" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>37</v>
+      <c r="A15" s="44"/>
+      <c r="B15" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="18">
         <v>1</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="70">
         <f t="shared" si="8"/>
         <v>45052</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="66">
         <v>5</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="70">
         <f t="shared" si="7"/>
         <v>45057</v>
       </c>
@@ -3201,24 +3222,24 @@
       <c r="BM15" s="40"/>
     </row>
     <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="54"/>
-      <c r="B16" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>37</v>
+      <c r="A16" s="44"/>
+      <c r="B16" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="18">
         <v>1</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="70">
         <f t="shared" si="8"/>
         <v>45058</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="66">
         <v>5</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="70">
         <f t="shared" si="7"/>
         <v>45063</v>
       </c>
@@ -3285,13 +3306,13 @@
       <c r="BM16" s="40"/>
     </row>
     <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="62"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="52"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -3359,24 +3380,24 @@
       <c r="BM17" s="40"/>
     </row>
     <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="55"/>
-      <c r="B18" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>37</v>
+      <c r="A18" s="45"/>
+      <c r="B18" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="71">
         <f xml:space="preserve"> G16 + 1</f>
         <v>45064</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="67">
         <v>0</v>
       </c>
-      <c r="G18" s="82">
+      <c r="G18" s="71">
         <f>SUM(E18,F18)</f>
         <v>45064</v>
       </c>
@@ -3443,24 +3464,24 @@
       <c r="BM18" s="40"/>
     </row>
     <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="54"/>
-      <c r="B19" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>37</v>
+      <c r="A19" s="44"/>
+      <c r="B19" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="71">
         <f>G18 + 1</f>
         <v>45065</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="67">
         <v>2</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="71">
         <f>SUM(E19,F19)</f>
         <v>45067</v>
       </c>
@@ -3527,24 +3548,24 @@
       <c r="BM19" s="40"/>
     </row>
     <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="54"/>
-      <c r="B20" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>37</v>
+      <c r="A20" s="44"/>
+      <c r="B20" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="71">
         <f>G19 + 1</f>
         <v>45068</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="67">
         <v>3</v>
       </c>
-      <c r="G20" s="82">
+      <c r="G20" s="71">
         <f>SUM(E20,F20)</f>
         <v>45071</v>
       </c>
@@ -3611,24 +3632,24 @@
       <c r="BM20" s="40"/>
     </row>
     <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="54"/>
-      <c r="B21" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>37</v>
+      <c r="A21" s="44"/>
+      <c r="B21" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="71">
         <f>G20 + 1</f>
         <v>45072</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="67">
         <v>2</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="71">
         <f>SUM(E21,F21)</f>
         <v>45074</v>
       </c>
@@ -3692,24 +3713,24 @@
       <c r="BM21" s="40"/>
     </row>
     <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="54"/>
-      <c r="B22" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>37</v>
+      <c r="A22" s="44"/>
+      <c r="B22" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="D22" s="23">
         <v>0</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E22" s="71">
         <f>G21 + 1</f>
         <v>45075</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="67">
         <v>1</v>
       </c>
-      <c r="G22" s="82">
+      <c r="G22" s="71">
         <f t="shared" ref="G22" si="11">SUM(E22,F22)</f>
         <v>45076</v>
       </c>
@@ -3776,13 +3797,13 @@
       <c r="BM22" s="40"/>
     </row>
     <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="64"/>
+        <v>46</v>
+      </c>
+      <c r="C23" s="54"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -3850,24 +3871,24 @@
       <c r="BM23" s="40"/>
     </row>
     <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="54"/>
-      <c r="B24" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>37</v>
+      <c r="A24" s="44"/>
+      <c r="B24" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>24</v>
       </c>
       <c r="D24" s="28">
         <v>0</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="72">
         <f>G22 + 1</f>
         <v>45077</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="68">
         <v>3</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G24" s="72">
         <f>SUM(E24,F24)</f>
         <v>45080</v>
       </c>
@@ -3934,24 +3955,24 @@
       <c r="BM24" s="40"/>
     </row>
     <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="54"/>
-      <c r="B25" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>37</v>
+      <c r="A25" s="44"/>
+      <c r="B25" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>24</v>
       </c>
       <c r="D25" s="28">
         <v>0</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="72">
         <f>G24 + 1</f>
         <v>45081</v>
       </c>
-      <c r="F25" s="79">
+      <c r="F25" s="68">
         <v>2</v>
       </c>
-      <c r="G25" s="83">
+      <c r="G25" s="72">
         <f>SUM(E25,F25)</f>
         <v>45083</v>
       </c>
@@ -4018,13 +4039,13 @@
       <c r="BM25" s="40"/>
     </row>
     <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="66"/>
+        <v>47</v>
+      </c>
+      <c r="C26" s="56"/>
       <c r="D26" s="30"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
@@ -4092,24 +4113,24 @@
       <c r="BM26" s="40"/>
     </row>
     <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A27" s="54"/>
-      <c r="B27" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>38</v>
+      <c r="A27" s="44"/>
+      <c r="B27" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D27" s="33">
         <v>0.2</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="73">
         <f>G25 + 1</f>
         <v>45084</v>
       </c>
-      <c r="F27" s="80">
+      <c r="F27" s="69">
         <v>2</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="73">
         <f>SUM(E27,F27)</f>
         <v>45086</v>
       </c>
@@ -4176,24 +4197,24 @@
       <c r="BM27" s="40"/>
     </row>
     <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A28" s="54"/>
-      <c r="B28" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="67" t="s">
-        <v>38</v>
+      <c r="A28" s="44"/>
+      <c r="B28" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D28" s="33">
         <v>0</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="73">
         <f t="shared" ref="E28:E35" si="12">G27 + 1</f>
         <v>45087</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="69">
         <v>1</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="73">
         <f>SUM(E28,F28)</f>
         <v>45088</v>
       </c>
@@ -4260,24 +4281,24 @@
       <c r="BM28" s="40"/>
     </row>
     <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A29" s="54"/>
-      <c r="B29" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>38</v>
+      <c r="A29" s="44"/>
+      <c r="B29" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D29" s="33">
         <v>0</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="73">
         <f t="shared" si="12"/>
         <v>45089</v>
       </c>
-      <c r="F29" s="80">
+      <c r="F29" s="69">
         <v>0</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="73">
         <f>SUM(E29,F29)</f>
         <v>45089</v>
       </c>
@@ -4344,24 +4365,24 @@
       <c r="BM29" s="40"/>
     </row>
     <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A30" s="54"/>
-      <c r="B30" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="67" t="s">
-        <v>38</v>
+      <c r="A30" s="44"/>
+      <c r="B30" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D30" s="33">
         <v>1</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="73">
         <f>G29 + 1</f>
         <v>45090</v>
       </c>
-      <c r="F30" s="80">
+      <c r="F30" s="69">
         <v>0</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="73">
         <f>SUM(E30,F30)</f>
         <v>45090</v>
       </c>
@@ -4425,24 +4446,24 @@
       <c r="BM30" s="40"/>
     </row>
     <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A31" s="54"/>
-      <c r="B31" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="67" t="s">
-        <v>38</v>
+      <c r="A31" s="44"/>
+      <c r="B31" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D31" s="33">
         <v>0</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="73">
         <f>G30</f>
         <v>45090</v>
       </c>
-      <c r="F31" s="80">
+      <c r="F31" s="69">
         <v>1</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="73">
         <f t="shared" ref="G31:G32" si="13">SUM(E31,F31)</f>
         <v>45091</v>
       </c>
@@ -4509,24 +4530,24 @@
       <c r="BM31" s="40"/>
     </row>
     <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A32" s="54"/>
-      <c r="B32" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="67" t="s">
-        <v>38</v>
+      <c r="A32" s="44"/>
+      <c r="B32" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D32" s="33">
         <v>1</v>
       </c>
-      <c r="E32" s="84">
+      <c r="E32" s="73">
         <f t="shared" si="12"/>
         <v>45092</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F32" s="69">
         <v>0</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="73">
         <f t="shared" si="13"/>
         <v>45092</v>
       </c>
@@ -4593,24 +4614,24 @@
       <c r="BM32" s="40"/>
     </row>
     <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A33" s="54"/>
-      <c r="B33" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="67" t="s">
-        <v>38</v>
+      <c r="A33" s="44"/>
+      <c r="B33" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D33" s="33">
         <v>1</v>
       </c>
-      <c r="E33" s="84">
+      <c r="E33" s="73">
         <f t="shared" si="12"/>
         <v>45093</v>
       </c>
-      <c r="F33" s="80">
+      <c r="F33" s="69">
         <v>0</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="73">
         <f t="shared" ref="G33:G35" si="14">SUM(E33,F33)</f>
         <v>45093</v>
       </c>
@@ -4677,24 +4698,24 @@
       <c r="BM33" s="40"/>
     </row>
     <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A34" s="54"/>
-      <c r="B34" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>38</v>
+      <c r="A34" s="44"/>
+      <c r="B34" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D34" s="33">
         <v>0</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="73">
         <f t="shared" si="12"/>
         <v>45094</v>
       </c>
-      <c r="F34" s="80">
+      <c r="F34" s="69">
         <v>0</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="73">
         <f t="shared" si="14"/>
         <v>45094</v>
       </c>
@@ -4761,24 +4782,24 @@
       <c r="BM34" s="40"/>
     </row>
     <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A35" s="54"/>
-      <c r="B35" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>38</v>
+      <c r="A35" s="44"/>
+      <c r="B35" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="D35" s="33">
         <v>0</v>
       </c>
-      <c r="E35" s="84">
+      <c r="E35" s="73">
         <f t="shared" si="12"/>
         <v>45095</v>
       </c>
-      <c r="F35" s="80">
+      <c r="F35" s="69">
         <v>2</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="73">
         <f t="shared" si="14"/>
         <v>45097</v>
       </c>
@@ -4845,17 +4866,17 @@
       <c r="BM35" s="40"/>
     </row>
     <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
+      <c r="B36" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="78"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="str">
         <f t="shared" si="6"/>
@@ -4919,24 +4940,24 @@
       <c r="BM36" s="40"/>
     </row>
     <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A37" s="54"/>
-      <c r="B37" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="92">
+      <c r="A37" s="44"/>
+      <c r="B37" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="81">
         <v>0</v>
       </c>
-      <c r="E37" s="93">
+      <c r="E37" s="82">
         <f>G35 + 1</f>
         <v>45098</v>
       </c>
-      <c r="F37" s="94">
+      <c r="F37" s="83">
         <v>1</v>
       </c>
-      <c r="G37" s="93">
+      <c r="G37" s="82">
         <f>SUM(E37,F37)</f>
         <v>45099</v>
       </c>
@@ -5003,24 +5024,24 @@
       <c r="BM37" s="40"/>
     </row>
     <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="54"/>
-      <c r="B38" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="92">
+      <c r="A38" s="44"/>
+      <c r="B38" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="81">
         <v>0</v>
       </c>
-      <c r="E38" s="93">
+      <c r="E38" s="82">
         <f>G37 + 1</f>
         <v>45100</v>
       </c>
-      <c r="F38" s="94">
+      <c r="F38" s="83">
         <v>1</v>
       </c>
-      <c r="G38" s="93">
+      <c r="G38" s="82">
         <f>SUM(E38,F38)</f>
         <v>45101</v>
       </c>
@@ -5087,24 +5108,24 @@
       <c r="BM38" s="40"/>
     </row>
     <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A39" s="54"/>
-      <c r="B39" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="92">
+      <c r="A39" s="44"/>
+      <c r="B39" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="81">
         <v>0</v>
       </c>
-      <c r="E39" s="93">
+      <c r="E39" s="82">
         <f>G38 + 1</f>
         <v>45102</v>
       </c>
-      <c r="F39" s="94">
+      <c r="F39" s="83">
         <v>4</v>
       </c>
-      <c r="G39" s="93">
+      <c r="G39" s="82">
         <f>SUM(E39,F39)</f>
         <v>45106</v>
       </c>
@@ -5171,24 +5192,24 @@
       <c r="BM39" s="40"/>
     </row>
     <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A40" s="54"/>
-      <c r="B40" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="92">
+      <c r="A40" s="44"/>
+      <c r="B40" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="81">
         <v>0</v>
       </c>
-      <c r="E40" s="93">
+      <c r="E40" s="82">
         <f>G39 + 1</f>
         <v>45107</v>
       </c>
-      <c r="F40" s="94">
+      <c r="F40" s="83">
         <v>4</v>
       </c>
-      <c r="G40" s="93">
+      <c r="G40" s="82">
         <f>SUM(E40,F40)</f>
         <v>45111</v>
       </c>
@@ -5255,17 +5276,17 @@
       <c r="BM40" s="40"/>
     </row>
     <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="99"/>
+      <c r="B41" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="88"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5329,24 +5350,24 @@
       <c r="BM41" s="40"/>
     </row>
     <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A42" s="54"/>
-      <c r="B42" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="102">
+      <c r="A42" s="44"/>
+      <c r="B42" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="91">
         <v>0.5</v>
       </c>
-      <c r="E42" s="103">
+      <c r="E42" s="92">
         <f>G40 + 1</f>
         <v>45112</v>
       </c>
-      <c r="F42" s="104">
+      <c r="F42" s="93">
         <v>0</v>
       </c>
-      <c r="G42" s="103">
+      <c r="G42" s="92">
         <f t="shared" ref="G42:G47" si="15">SUM(E42,F42)</f>
         <v>45112</v>
       </c>
@@ -5413,24 +5434,24 @@
       <c r="BM42" s="40"/>
     </row>
     <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A43" s="54"/>
-      <c r="B43" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="102">
+      <c r="A43" s="44"/>
+      <c r="B43" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="91">
         <v>0</v>
       </c>
-      <c r="E43" s="103">
+      <c r="E43" s="92">
         <f>G42</f>
         <v>45112</v>
       </c>
-      <c r="F43" s="104">
+      <c r="F43" s="93">
         <v>0</v>
       </c>
-      <c r="G43" s="103">
+      <c r="G43" s="92">
         <f t="shared" si="15"/>
         <v>45112</v>
       </c>
@@ -5497,24 +5518,24 @@
       <c r="BM43" s="40"/>
     </row>
     <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A44" s="54"/>
-      <c r="B44" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="102">
+      <c r="A44" s="44"/>
+      <c r="B44" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="91">
         <v>0</v>
       </c>
-      <c r="E44" s="103">
+      <c r="E44" s="92">
         <f>G43</f>
         <v>45112</v>
       </c>
-      <c r="F44" s="104">
+      <c r="F44" s="93">
         <v>0</v>
       </c>
-      <c r="G44" s="103">
+      <c r="G44" s="92">
         <f t="shared" si="15"/>
         <v>45112</v>
       </c>
@@ -5581,24 +5602,24 @@
       <c r="BM44" s="40"/>
     </row>
     <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="54"/>
-      <c r="B45" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="102">
+      <c r="A45" s="44"/>
+      <c r="B45" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="91">
         <v>0</v>
       </c>
-      <c r="E45" s="103">
+      <c r="E45" s="92">
         <f>G44</f>
         <v>45112</v>
       </c>
-      <c r="F45" s="104">
+      <c r="F45" s="93">
         <v>0</v>
       </c>
-      <c r="G45" s="103">
+      <c r="G45" s="92">
         <f t="shared" si="15"/>
         <v>45112</v>
       </c>
@@ -5665,24 +5686,24 @@
       <c r="BM45" s="40"/>
     </row>
     <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A46" s="54"/>
-      <c r="B46" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="102">
+      <c r="A46" s="44"/>
+      <c r="B46" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="91">
         <v>0</v>
       </c>
-      <c r="E46" s="103">
+      <c r="E46" s="92">
         <f>G45</f>
         <v>45112</v>
       </c>
-      <c r="F46" s="104">
+      <c r="F46" s="93">
         <v>0</v>
       </c>
-      <c r="G46" s="103">
+      <c r="G46" s="92">
         <f t="shared" si="15"/>
         <v>45112</v>
       </c>
@@ -5749,24 +5770,24 @@
       <c r="BM46" s="40"/>
     </row>
     <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A47" s="54"/>
-      <c r="B47" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="102">
+      <c r="A47" s="44"/>
+      <c r="B47" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="91">
         <v>0</v>
       </c>
-      <c r="E47" s="103">
+      <c r="E47" s="92">
         <f>G46</f>
         <v>45112</v>
       </c>
-      <c r="F47" s="104">
+      <c r="F47" s="93">
         <v>0</v>
       </c>
-      <c r="G47" s="103">
+      <c r="G47" s="92">
         <f t="shared" si="15"/>
         <v>45112</v>
       </c>
@@ -5833,7 +5854,7 @@
       <c r="BM47" s="40"/>
     </row>
     <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="34" t="s">
@@ -5908,19 +5929,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
     <cfRule type="dataBar" priority="23">
       <dataBar>
@@ -6001,105 +6022,638 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="87.125" style="44" customWidth="1"/>
-    <col min="2" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="21.6875" customWidth="1"/>
+    <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="18.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="1:2" s="46" customFormat="1" ht="19.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-    </row>
-    <row r="3" spans="1:2" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="51"/>
-    </row>
-    <row r="4" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
-      <c r="A4" s="48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="44" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
-      <c r="A8" s="48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="67.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
-      <c r="A11" s="48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="33.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="44" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="47" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
-      <c r="A14" s="48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="84.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="49" t="s">
-        <v>36</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A1" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="65"/>
+      <c r="F3" s="104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A4" s="65"/>
+      <c r="F4" s="105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="F5" s="106" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A21" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A22" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2714FB-6AFA-4C5D-8F79-DF851E68C35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5C386-9266-447B-A946-2D1C5D9E10F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -483,6 +483,14 @@
   </si>
   <si>
     <t>기능 구현 완료</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveStage</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -954,7 +962,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1265,9 +1273,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6025,8 +6030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6089,22 +6094,53 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
+      <c r="A5" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>76</v>
+      </c>
       <c r="F5" s="106" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="107" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" s="65"/>
@@ -6132,13 +6168,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" s="65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>77</v>
@@ -6150,10 +6186,10 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12" s="65"/>
       <c r="B12" s="65" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>77</v>
@@ -6162,133 +6198,99 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A16" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" s="65"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="65"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="65"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A21" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A22" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="108" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="108" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="65"/>
       <c r="B24" s="65"/>
       <c r="C24" s="65"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="65"/>
       <c r="B25" s="65"/>
       <c r="C25" s="65"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="65"/>
       <c r="B26" s="65"/>
       <c r="C26" s="65"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="65"/>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="65"/>
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="65"/>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="65"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="65"/>
       <c r="B32" s="65"/>
       <c r="C32" s="65"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5C386-9266-447B-A946-2D1C5D9E10F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85587D4-362C-4B0D-8C7D-7242E6D9CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -491,6 +491,38 @@
   </si>
   <si>
     <t>MoveStage</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongalDeath</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬갈 사망 연출실행</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpeningLevel</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>연출용 페이드</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryFadeIn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryFadeOut</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LookatMongalPostion</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬갈 카메라 포커스</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1239,41 +1271,41 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1858,7 +1890,7 @@
       <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -1872,7 +1904,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -1900,115 +1932,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="101">
+      <c r="D3" s="107"/>
+      <c r="E3" s="105">
         <v>45047</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="98">
+      <c r="J4" s="102">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="98">
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="102">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="98">
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="102">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="98">
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="102">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="100"/>
-      <c r="AL4" s="98">
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="103"/>
+      <c r="AH4" s="103"/>
+      <c r="AI4" s="103"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="102">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="98">
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="102">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="98">
+      <c r="AT4" s="103"/>
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103"/>
+      <c r="AW4" s="103"/>
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="102">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="100"/>
-      <c r="BG4" s="98">
+      <c r="BA4" s="103"/>
+      <c r="BB4" s="103"/>
+      <c r="BC4" s="103"/>
+      <c r="BD4" s="103"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="104"/>
+      <c r="BG4" s="102">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="99"/>
-      <c r="BM4" s="100"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="BH4" s="103"/>
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="103"/>
+      <c r="BM4" s="104"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2244,7 +2276,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2495,7 +2527,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2563,7 +2595,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -2637,7 +2669,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -2723,7 +2755,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -2809,7 +2841,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>67</v>
@@ -2893,7 +2925,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>66</v>
@@ -2977,7 +3009,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3061,7 +3093,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>58</v>
@@ -3142,7 +3174,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3226,7 +3258,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3310,7 +3342,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3384,7 +3416,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3468,7 +3500,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -3552,7 +3584,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -3636,7 +3668,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="59" t="s">
         <v>52</v>
@@ -3717,7 +3749,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -3801,7 +3833,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -3875,7 +3907,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -3959,7 +3991,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4043,7 +4075,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4117,7 +4149,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>53</v>
@@ -4201,7 +4233,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4285,7 +4317,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>55</v>
@@ -4369,7 +4401,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>59</v>
@@ -4450,7 +4482,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>56</v>
@@ -4534,7 +4566,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -4618,7 +4650,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -4702,7 +4734,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -4786,7 +4818,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -4870,7 +4902,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -4944,7 +4976,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44"/>
       <c r="B37" s="94" t="s">
         <v>60</v>
@@ -5028,7 +5060,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="94" t="s">
         <v>61</v>
@@ -5112,7 +5144,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44"/>
       <c r="B39" s="79" t="s">
         <v>49</v>
@@ -5196,7 +5228,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
       <c r="B40" s="79" t="s">
         <v>50</v>
@@ -5280,7 +5312,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5354,7 +5386,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="89" t="s">
         <v>54</v>
@@ -5438,7 +5470,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="89" t="s">
         <v>57</v>
@@ -5522,7 +5554,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="95" t="s">
         <v>65</v>
@@ -5606,7 +5638,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="95" t="s">
         <v>64</v>
@@ -5690,7 +5722,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44"/>
       <c r="B46" s="95" t="s">
         <v>63</v>
@@ -5774,7 +5806,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
       <c r="B47" s="95" t="s">
         <v>62</v>
@@ -5858,7 +5890,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -5934,17 +5966,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6028,40 +6060,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
-    <col min="2" max="2" width="21.6875" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="46.25" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="18.6875" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="97" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>69</v>
       </c>
@@ -6074,581 +6106,636 @@
       <c r="D2" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="100" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="F3" s="104" t="s">
+      <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="98" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="F4" s="105" t="s">
+      <c r="B4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="99" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="102" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B8" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C8" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D8" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="106" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="65" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D10" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E10" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="65" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E14" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A10" s="102" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B18" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C18" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D18" s="97" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A11" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="65" t="s">
+      <c r="E18" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E19" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="107" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A15" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="103" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A16" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A17" s="65"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="65"/>
       <c r="B27" s="65"/>
       <c r="C27" s="65"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
       <c r="B29" s="65"/>
       <c r="C29" s="65"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="65"/>
       <c r="B32" s="65"/>
       <c r="C32" s="65"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="65"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="65"/>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
       <c r="C35" s="65"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="65"/>
       <c r="B36" s="65"/>
       <c r="C36" s="65"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="65"/>
       <c r="C37" s="65"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="65"/>
       <c r="C38" s="65"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="65"/>
       <c r="B39" s="65"/>
       <c r="C39" s="65"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85587D4-362C-4B0D-8C7D-7242E6D9CA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87836DFA-04C2-4174-A053-9652D11E1A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="870" windowWidth="21990" windowHeight="14610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -518,11 +518,35 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>LookatMongalPostion</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>몬갈 카메라 포커스</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockCamMongal</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLockCam</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 고정 해제</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeIn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 페이드 인</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeOut</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 페이드 아웃</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +1018,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1289,6 +1313,12 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1301,11 +1331,8 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1937,108 +1964,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="105">
+      <c r="D3" s="103"/>
+      <c r="E3" s="107">
         <v>45047</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="102">
+      <c r="J4" s="104">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="102">
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="104">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="102">
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="104">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="102">
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="104">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="102">
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="104">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="102">
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="104">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="102">
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="105"/>
+      <c r="AY4" s="106"/>
+      <c r="AZ4" s="104">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="102">
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="105"/>
+      <c r="BF4" s="106"/>
+      <c r="BG4" s="104">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="103"/>
-      <c r="BK4" s="103"/>
-      <c r="BL4" s="103"/>
-      <c r="BM4" s="104"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="105"/>
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="105"/>
+      <c r="BL4" s="105"/>
+      <c r="BM4" s="106"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
@@ -5966,17 +5993,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6060,10 +6087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6116,13 +6143,13 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="E3" s="101" t="s">
         <v>88</v>
@@ -6134,7 +6161,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>94</v>
@@ -6152,10 +6179,10 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>77</v>
@@ -6168,47 +6195,58 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
       <c r="B6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>77</v>
       </c>
       <c r="E9" s="101" t="s">
         <v>88</v>
@@ -6216,136 +6254,187 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
-      <c r="B10" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>88</v>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="108" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="108" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="108" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B16" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C16" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D16" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="65" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E17" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="65" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E18" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="97" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="101" t="s">
-        <v>88</v>
-      </c>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="A21" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="97" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
@@ -6362,21 +6451,6 @@
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-    </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="65"/>
@@ -6418,44 +6492,44 @@
       <c r="C42" s="65"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
@@ -6736,6 +6810,46 @@
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87836DFA-04C2-4174-A053-9652D11E1A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806603F4-0A22-4914-9E48-CF59D473C829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="870" windowWidth="21990" windowHeight="14610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -518,14 +518,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>몬갈 카메라 포커스</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>LockCamMongal</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>UnLockCam</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -547,6 +539,34 @@
   </si>
   <si>
     <t>화면 페이드 아웃</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongalDeath_Appear</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬갈 조우 연출</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerInputLock</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerInputUnlock</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 Input Lock</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 Input Unlock</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -6087,10 +6107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6179,10 +6199,10 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>77</v>
@@ -6196,10 +6216,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="65" t="s">
         <v>77</v>
@@ -6210,10 +6230,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>77</v>
@@ -6223,30 +6243,28 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="E8" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
       <c r="B9" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="E9" s="101" t="s">
         <v>88</v>
@@ -6254,20 +6272,32 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="108" t="s">
-        <v>87</v>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="65"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="108" t="s">
-        <v>87</v>
+      <c r="B11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6297,169 +6327,177 @@
         <v>87</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="108" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B18" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C18" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D18" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B19" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C19" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D19" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E19" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+      <c r="B20" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B23" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C23" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D23" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B24" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C24" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D24" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E24" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C25" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D25" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="101" t="s">
+      <c r="E25" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="96" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B28" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C28" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D28" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E28" s="97" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B29" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C29" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D29" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="101" t="s">
+      <c r="E29" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
@@ -6532,14 +6570,14 @@
       <c r="C50" s="65"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
@@ -6850,6 +6888,16 @@
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806603F4-0A22-4914-9E48-CF59D473C829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98340526-80C1-4C12-9A44-B7FAD3506479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="870" windowWidth="21990" windowHeight="14610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="870" windowWidth="21990" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -567,6 +567,20 @@
   </si>
   <si>
     <t>Player</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongalWalkUp_Talk</t>
+  </si>
+  <si>
+    <t>몬갈 대화 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongal_Laugh</t>
+  </si>
+  <si>
+    <t>몬갈 웃음 이벤트</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1333,26 +1347,26 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1371,6 +1385,32 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1430,32 +1470,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1655,7 +1669,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F2:F5" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F2:F5" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F2:F5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
@@ -1932,9 +1946,9 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1984,108 +1998,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="107">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="104">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="104">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="104">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="104">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="104">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="104">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="105"/>
-      <c r="AY4" s="106"/>
-      <c r="AZ4" s="104">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="105"/>
-      <c r="BE4" s="105"/>
-      <c r="BF4" s="106"/>
-      <c r="BG4" s="104">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="105"/>
-      <c r="BI4" s="105"/>
-      <c r="BJ4" s="105"/>
-      <c r="BK4" s="105"/>
-      <c r="BL4" s="105"/>
-      <c r="BM4" s="106"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
@@ -3812,16 +3826,16 @@
         <v>45075</v>
       </c>
       <c r="F22" s="67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="71">
         <f t="shared" ref="G22" si="11">SUM(E22,F22)</f>
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
@@ -3967,14 +3981,14 @@
       </c>
       <c r="E24" s="72">
         <f>G22 + 1</f>
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="F24" s="68">
         <v>3</v>
       </c>
       <c r="G24" s="72">
         <f>SUM(E24,F24)</f>
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13">
@@ -4051,14 +4065,14 @@
       </c>
       <c r="E25" s="72">
         <f>G24 + 1</f>
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="F25" s="68">
         <v>2</v>
       </c>
       <c r="G25" s="72">
         <f>SUM(E25,F25)</f>
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13">
@@ -4209,14 +4223,14 @@
       </c>
       <c r="E27" s="73">
         <f>G25 + 1</f>
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="F27" s="69">
         <v>2</v>
       </c>
       <c r="G27" s="73">
         <f>SUM(E27,F27)</f>
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13">
@@ -4293,14 +4307,14 @@
       </c>
       <c r="E28" s="73">
         <f t="shared" ref="E28:E35" si="12">G27 + 1</f>
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="F28" s="69">
         <v>1</v>
       </c>
       <c r="G28" s="73">
         <f>SUM(E28,F28)</f>
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13">
@@ -4377,14 +4391,14 @@
       </c>
       <c r="E29" s="73">
         <f t="shared" si="12"/>
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="F29" s="69">
         <v>0</v>
       </c>
       <c r="G29" s="73">
         <f>SUM(E29,F29)</f>
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13">
@@ -4461,14 +4475,14 @@
       </c>
       <c r="E30" s="73">
         <f>G29 + 1</f>
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="F30" s="69">
         <v>0</v>
       </c>
       <c r="G30" s="73">
         <f>SUM(E30,F30)</f>
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -4542,14 +4556,14 @@
       </c>
       <c r="E31" s="73">
         <f>G30</f>
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="F31" s="69">
         <v>1</v>
       </c>
       <c r="G31" s="73">
         <f t="shared" ref="G31:G32" si="13">SUM(E31,F31)</f>
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13">
@@ -4626,14 +4640,14 @@
       </c>
       <c r="E32" s="73">
         <f t="shared" si="12"/>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="F32" s="69">
         <v>0</v>
       </c>
       <c r="G32" s="73">
         <f t="shared" si="13"/>
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13">
@@ -4710,14 +4724,14 @@
       </c>
       <c r="E33" s="73">
         <f t="shared" si="12"/>
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="F33" s="69">
         <v>0</v>
       </c>
       <c r="G33" s="73">
         <f t="shared" ref="G33:G35" si="14">SUM(E33,F33)</f>
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13">
@@ -4794,14 +4808,14 @@
       </c>
       <c r="E34" s="73">
         <f t="shared" si="12"/>
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="F34" s="69">
         <v>0</v>
       </c>
       <c r="G34" s="73">
         <f t="shared" si="14"/>
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13">
@@ -4874,18 +4888,18 @@
         <v>25</v>
       </c>
       <c r="D35" s="33">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E35" s="73">
         <f t="shared" si="12"/>
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="F35" s="69">
         <v>2</v>
       </c>
       <c r="G35" s="73">
         <f t="shared" si="14"/>
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13">
@@ -5036,14 +5050,14 @@
       </c>
       <c r="E37" s="82">
         <f>G35 + 1</f>
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="F37" s="83">
         <v>1</v>
       </c>
       <c r="G37" s="82">
         <f>SUM(E37,F37)</f>
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13">
@@ -5120,14 +5134,14 @@
       </c>
       <c r="E38" s="82">
         <f>G37 + 1</f>
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="F38" s="83">
         <v>1</v>
       </c>
       <c r="G38" s="82">
         <f>SUM(E38,F38)</f>
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13">
@@ -5204,14 +5218,14 @@
       </c>
       <c r="E39" s="82">
         <f>G38 + 1</f>
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="F39" s="83">
         <v>4</v>
       </c>
       <c r="G39" s="82">
         <f>SUM(E39,F39)</f>
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13">
@@ -5288,14 +5302,14 @@
       </c>
       <c r="E40" s="82">
         <f>G39 + 1</f>
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="F40" s="83">
         <v>4</v>
       </c>
       <c r="G40" s="82">
         <f>SUM(E40,F40)</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13">
@@ -5446,14 +5460,14 @@
       </c>
       <c r="E42" s="92">
         <f>G40 + 1</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="F42" s="93">
         <v>0</v>
       </c>
       <c r="G42" s="92">
         <f t="shared" ref="G42:G47" si="15">SUM(E42,F42)</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13">
@@ -5530,14 +5544,14 @@
       </c>
       <c r="E43" s="92">
         <f>G42</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="F43" s="93">
         <v>0</v>
       </c>
       <c r="G43" s="92">
         <f t="shared" si="15"/>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13">
@@ -5614,14 +5628,14 @@
       </c>
       <c r="E44" s="92">
         <f>G43</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="F44" s="93">
         <v>0</v>
       </c>
       <c r="G44" s="92">
         <f t="shared" si="15"/>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13">
@@ -5698,14 +5712,14 @@
       </c>
       <c r="E45" s="92">
         <f>G44</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="F45" s="93">
         <v>0</v>
       </c>
       <c r="G45" s="92">
         <f t="shared" si="15"/>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13">
@@ -5782,14 +5796,14 @@
       </c>
       <c r="E46" s="92">
         <f>G45</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="F46" s="93">
         <v>0</v>
       </c>
       <c r="G46" s="92">
         <f t="shared" si="15"/>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13">
@@ -5866,14 +5880,14 @@
       </c>
       <c r="E47" s="92">
         <f>G46</f>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="F47" s="93">
         <v>0</v>
       </c>
       <c r="G47" s="92">
         <f t="shared" si="15"/>
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13">
@@ -6013,17 +6027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6041,28 +6055,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="5" priority="42">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6109,8 +6123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6302,20 +6316,32 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="65"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="108" t="s">
-        <v>87</v>
+      <c r="B12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="108" t="s">
-        <v>87</v>
+      <c r="B13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6323,7 +6349,7 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="65"/>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="102" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6332,7 +6358,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="65"/>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="102" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6341,7 +6367,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="65"/>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="102" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98340526-80C1-4C12-9A44-B7FAD3506479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DD0014-2701-4B5A-AFFC-1E85EC529409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="870" windowWidth="21990" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="126">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -581,6 +581,53 @@
   </si>
   <si>
     <t>몬갈 웃음 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerLookLeft</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 왼쪽 쳐다보기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 오른쪽 쳐다보기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerLookRight</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_FirstHeroTalk0</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대 용사와 대화 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_FirstHeroTalk0_End</t>
+  </si>
+  <si>
+    <t>초대 용사와 대화 끝 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeIn_White</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeOut_White</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 페이드 인 (흰색)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 페이드 아웃 (흰색)</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1350,6 +1397,12 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1361,12 +1414,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1385,32 +1432,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1470,6 +1491,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1669,7 +1716,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F2:F5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F2:F5" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="F2:F5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
@@ -1947,8 +1994,8 @@
   <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X18" sqref="X18"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1998,108 +2045,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
@@ -4888,7 +4935,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="33">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E35" s="73">
         <f t="shared" si="12"/>
@@ -6027,17 +6074,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6055,28 +6102,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="6" priority="42">
+    <cfRule type="expression" dxfId="5" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="5" priority="36">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6121,10 +6168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6258,13 +6305,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E8" s="101" t="s">
         <v>88</v>
@@ -6272,131 +6319,157 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E9" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="E10" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="E11" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
       <c r="B12" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>93</v>
+        <v>115</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="E12" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
       <c r="B13" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>88</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="101"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="102" t="s">
-        <v>87</v>
+      <c r="B14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="102" t="s">
-        <v>87</v>
+      <c r="B15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="102" t="s">
-        <v>87</v>
+      <c r="B16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>76</v>
+      <c r="A18" s="65"/>
+      <c r="B18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>77</v>
+      <c r="A19" s="65"/>
+      <c r="B19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E19" s="101" t="s">
         <v>88</v>
@@ -6404,52 +6477,51 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C24" s="65" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="97" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>83</v>
       </c>
       <c r="D24" s="65" t="s">
         <v>77</v>
@@ -6460,45 +6532,52 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C29" s="65" t="s">
         <v>84</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>78</v>
       </c>
       <c r="D29" s="65" t="s">
         <v>77</v>
@@ -6507,80 +6586,94 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-    </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="65"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="65"/>
       <c r="C37" s="65"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
       <c r="C41" s="65"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="65"/>
       <c r="C42" s="65"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="65"/>
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="65"/>
       <c r="C44" s="65"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="65"/>
       <c r="B45" s="65"/>
       <c r="C45" s="65"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="65"/>
       <c r="B46" s="65"/>
       <c r="C46" s="65"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
       <c r="B47" s="65"/>
       <c r="C47" s="65"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
@@ -6606,24 +6699,24 @@
       <c r="C52" s="65"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
@@ -6924,6 +7017,26 @@
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DD0014-2701-4B5A-AFFC-1E85EC529409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879AD39E-63E8-4194-A191-93096AD91A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -629,6 +629,37 @@
   <si>
     <t>화면 페이드 아웃 (흰색)</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeleTong_Script00</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레통 대화 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeleTong_Script00_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeleTongWalkEnd</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeleTong_Script01</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeleTong_Script01_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeleTong_Script02</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeleTong_Script02_End</t>
   </si>
 </sst>
 </file>
@@ -1397,23 +1428,23 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1993,7 +2024,7 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
     </sheetView>
@@ -2045,108 +2076,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
@@ -6074,17 +6105,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6168,10 +6199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6477,39 +6508,59 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="102" t="s">
-        <v>87</v>
+      <c r="B20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="97" t="s">
-        <v>76</v>
+      <c r="A22" s="65"/>
+      <c r="B22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>77</v>
+      <c r="A23" s="65"/>
+      <c r="B23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E23" s="101" t="s">
         <v>88</v>
@@ -6517,14 +6568,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
-      <c r="B24" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>77</v>
+      <c r="B24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E24" s="101" t="s">
         <v>88</v>
@@ -6532,52 +6583,57 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="96" t="s">
+      <c r="B26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B28" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="C28" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D28" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
+      <c r="A29" s="65" t="s">
+        <v>79</v>
+      </c>
       <c r="B29" s="65" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D29" s="65" t="s">
         <v>77</v>
@@ -6586,62 +6642,140 @@
         <v>88</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="E31" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="E32" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B33" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="97" t="s">
+      <c r="C33" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D33" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="65" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="101" t="s">
+      <c r="E34" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
+      <c r="E36" s="102" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
+      <c r="E37" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="65"/>
+      <c r="E40" s="102" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="65"/>
       <c r="B41" s="65"/>
       <c r="C41" s="65"/>
+      <c r="E41" s="102" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
@@ -6653,21 +6787,6 @@
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-    </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
       <c r="B47" s="65"/>
@@ -6719,34 +6838,34 @@
       <c r="C56" s="65"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
@@ -7037,6 +7156,36 @@
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879AD39E-63E8-4194-A191-93096AD91A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA92FEA-BDCF-4483-947E-B98BBB8A0F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -660,6 +660,10 @@
   </si>
   <si>
     <t>SkeleTong_Script02_End</t>
+  </si>
+  <si>
+    <t>SkeleTong_Script03</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1130,7 +1134,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1445,6 +1449,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2024,9 +2031,9 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z20" sqref="Z20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4966,7 +4973,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="33">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="E35" s="73">
         <f t="shared" si="12"/>
@@ -6199,10 +6206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6414,7 +6421,9 @@
       <c r="D13" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
@@ -6611,67 +6620,48 @@
         <v>88</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="65"/>
+      <c r="B27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="97" t="s">
-        <v>76</v>
-      </c>
+      <c r="A28" s="65"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="109"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="101" t="s">
-        <v>88</v>
-      </c>
+      <c r="A29" s="65"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="109"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
-      <c r="B30" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="101" t="s">
-        <v>88</v>
-      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="109"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="E31" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="E32" s="102" t="s">
-        <v>87</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="109"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="96" t="s">
@@ -6689,13 +6679,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>77</v>
@@ -6707,10 +6697,10 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="65" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D35" s="65" t="s">
         <v>77</v>
@@ -6720,11 +6710,17 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
       <c r="E36" s="102" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
       <c r="E37" s="102" t="s">
         <v>87</v>
       </c>
@@ -6742,19 +6738,16 @@
       <c r="D38" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="97" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D39" s="65" t="s">
         <v>77</v>
@@ -6765,27 +6758,76 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="65"/>
-      <c r="E40" s="102" t="s">
-        <v>87</v>
+      <c r="B40" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
       <c r="E41" s="102" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
+      <c r="E42" s="102" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="65"/>
+      <c r="E45" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="E46" s="102" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
@@ -6797,21 +6839,6 @@
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-    </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="65"/>
@@ -6868,29 +6895,29 @@
       <c r="C62" s="65"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
@@ -7186,6 +7213,31 @@
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA92FEA-BDCF-4483-947E-B98BBB8A0F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C31CDE6-ADCE-49CE-BBB3-B828CF508E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="870" windowWidth="21990" windowHeight="14610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="144">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -663,6 +663,42 @@
   </si>
   <si>
     <t>SkeleTong_Script03</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerFrameActive</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerFrameDisable</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 스킬 프레임 활성화</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 스킬 프레임 비활성화</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suekeleton_Script00</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>수켈레톤 대화 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suekeleton_Script00_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suekeleton_Script01</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerMove_Suekeleton</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1134,7 +1170,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1449,9 +1485,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2031,7 +2064,7 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
     </sheetView>
@@ -6206,10 +6239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6314,11 +6347,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D6" s="65" t="s">
         <v>77</v>
@@ -6328,11 +6362,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
       <c r="B7" s="5" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>77</v>
@@ -6343,10 +6378,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D8" s="65" t="s">
         <v>77</v>
@@ -6357,10 +6392,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>77</v>
@@ -6371,13 +6406,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E10" s="101" t="s">
         <v>88</v>
@@ -6385,13 +6420,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E11" s="101" t="s">
         <v>88</v>
@@ -6399,10 +6434,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>109</v>
@@ -6413,10 +6448,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>109</v>
@@ -6426,30 +6461,28 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>93</v>
+        <v>115</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="E14" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="E15" s="101" t="s">
         <v>88</v>
@@ -6458,10 +6491,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>93</v>
@@ -6473,10 +6506,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>93</v>
@@ -6488,10 +6521,10 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>93</v>
@@ -6503,10 +6536,10 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>93</v>
@@ -6518,10 +6551,10 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>93</v>
@@ -6533,10 +6566,10 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>93</v>
@@ -6548,7 +6581,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>127</v>
@@ -6563,7 +6596,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
       <c r="B23" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>127</v>
@@ -6578,7 +6611,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
       <c r="B24" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>127</v>
@@ -6593,7 +6626,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
       <c r="B25" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>127</v>
@@ -6608,7 +6641,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="65"/>
       <c r="B26" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>127</v>
@@ -6623,7 +6656,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="65"/>
       <c r="B27" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>127</v>
@@ -6637,217 +6670,268 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="109"/>
+      <c r="B28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="109"/>
+      <c r="B30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="109"/>
+      <c r="B31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B35" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="97" t="s">
+      <c r="C35" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="97" t="s">
+      <c r="D35" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="65" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B36" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C36" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="D36" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="101" t="s">
+      <c r="E36" s="101" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="E36" s="102" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="E37" s="102" t="s">
+      <c r="B37" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="E38" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="96" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="E39" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="97" t="s">
+      <c r="B40" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="97" t="s">
+      <c r="C40" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="97" t="s">
+      <c r="D40" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="65" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B41" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C41" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D41" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="101" t="s">
+      <c r="E41" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C42" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D42" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="101" t="s">
+      <c r="E42" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="102" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="102" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="96" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="97" t="s">
+      <c r="B45" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="97" t="s">
+      <c r="C45" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="97" t="s">
+      <c r="D45" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="97" t="s">
+      <c r="E45" s="97" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="65" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B46" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C46" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="65" t="s">
+      <c r="D46" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="101" t="s">
+      <c r="E46" s="101" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="E45" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="E46" s="102" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
+      <c r="E47" s="102" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="65"/>
       <c r="C48" s="65"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
+      <c r="E48" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
@@ -6920,14 +7004,14 @@
       <c r="C67" s="65"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
@@ -7238,6 +7322,16 @@
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C31CDE6-ADCE-49CE-BBB3-B828CF508E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C1650C-79D3-4C98-A93F-4722181B112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="870" windowWidth="21990" windowHeight="14610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30015" yWindow="1395" windowWidth="22005" windowHeight="14610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="158">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -699,6 +699,62 @@
   </si>
   <si>
     <t>PlayerMove_Suekeleton</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suekeleton_Script01_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suekeleton_Script02</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChiefGuard_Script00</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비대장 대화 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChiefGuard_Script00_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChiefGuard_PlayerMove</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockMonsterMove</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockMonsterMove</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 움직임 멈추기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 움직임 멈추기 해제</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastleLevel</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 캐슬 Reborn 애니메이션</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastleReborn</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1468,6 +1524,12 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1479,12 +1541,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1787,8 +1843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F2:F5" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="F2:F5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F27:F30" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F27:F30" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
   </tableColumns>
@@ -2116,108 +2172,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
@@ -6145,17 +6201,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6239,10 +6295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6255,7 +6311,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
@@ -6272,9 +6328,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>69</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>75</v>
@@ -6288,12 +6344,9 @@
       <c r="E2" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>95</v>
       </c>
@@ -6306,12 +6359,9 @@
       <c r="E3" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="98" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>96</v>
       </c>
@@ -6324,12 +6374,9 @@
       <c r="E4" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>97</v>
       </c>
@@ -6342,12 +6389,9 @@
       <c r="E5" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>135</v>
       </c>
@@ -6361,8 +6405,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>136</v>
       </c>
@@ -6376,7 +6420,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>99</v>
       </c>
@@ -6390,7 +6435,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>101</v>
       </c>
@@ -6404,7 +6450,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>122</v>
       </c>
@@ -6418,7 +6465,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>123</v>
       </c>
@@ -6432,7 +6480,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>105</v>
       </c>
@@ -6446,7 +6495,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>106</v>
       </c>
@@ -6460,7 +6510,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>114</v>
       </c>
@@ -6474,7 +6525,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>117</v>
       </c>
@@ -6488,178 +6540,86 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>93</v>
+        <v>153</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="E16" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>93</v>
+        <v>154</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="E17" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
-      <c r="B24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="65"/>
-      <c r="B25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
-      <c r="B26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="65" t="s">
+        <v>69</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>93</v>
@@ -6667,14 +6627,17 @@
       <c r="E27" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="5" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>93</v>
@@ -6682,14 +6645,17 @@
       <c r="E28" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
       <c r="B29" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>93</v>
@@ -6697,14 +6663,17 @@
       <c r="E29" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
       <c r="B30" s="5" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>93</v>
@@ -6712,14 +6681,17 @@
       <c r="E30" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
       <c r="B31" s="5" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>93</v>
@@ -6728,12 +6700,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
       <c r="B32" s="5" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>93</v>
@@ -6743,12 +6716,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
       <c r="B33" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>93</v>
@@ -6757,94 +6729,114 @@
         <v>88</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="97" t="s">
-        <v>76</v>
+      <c r="B35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>77</v>
+      <c r="B36" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E36" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>77</v>
+      <c r="B37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E37" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="E38" s="102" t="s">
-        <v>87</v>
+      <c r="B38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="E39" s="102" t="s">
-        <v>87</v>
+      <c r="B39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="97" t="s">
-        <v>76</v>
+      <c r="B40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>77</v>
+      <c r="A41" s="65"/>
+      <c r="B41" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E41" s="101" t="s">
         <v>88</v>
@@ -6852,58 +6844,74 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
-      <c r="B42" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>77</v>
+      <c r="B42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E42" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="102" t="s">
-        <v>87</v>
+      <c r="A43" s="65"/>
+      <c r="B43" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="102" t="s">
-        <v>87</v>
+      <c r="A44" s="65"/>
+      <c r="B44" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="97" t="s">
-        <v>85</v>
+      <c r="A45" s="65"/>
+      <c r="B45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="65" t="s">
-        <v>77</v>
+      <c r="A46" s="65"/>
+      <c r="B46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E46" s="101" t="s">
         <v>88</v>
@@ -6911,207 +6919,317 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
-      <c r="E47" s="102" t="s">
-        <v>87</v>
+      <c r="B47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="E48" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="65"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="65"/>
       <c r="C59" s="65"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E59" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E67" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="65"/>
       <c r="B68" s="65"/>
       <c r="C68" s="65"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E68" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="65"/>
       <c r="B69" s="65"/>
       <c r="C69" s="65"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="65"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="65"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="65"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="65"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="A81" s="65"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="65"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="A89" s="65"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
@@ -7332,6 +7450,106 @@
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C1650C-79D3-4C98-A93F-4722181B112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F442472-E1EC-4DE4-AAE8-D5008FCD7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30015" yWindow="1395" windowWidth="22005" windowHeight="14610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="168">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -755,6 +755,46 @@
   </si>
   <si>
     <t>CastleReborn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterAllDeath</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가 전부 사망시 호출</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoorLockPlus</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoorLockMinus</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>도어 잠금 조건 추가</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>도어 잠금 조건 감소</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpeningWitch_Script00</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>오프닝 마녀 대화 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitchCageOut</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpeningWitch_Script00_End</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1524,23 +1564,23 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2125,7 +2165,7 @@
       <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2139,7 +2179,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2167,115 +2207,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2511,7 +2551,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +2802,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2830,7 +2870,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -2904,7 +2944,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -2990,7 +3030,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3076,7 +3116,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>67</v>
@@ -3160,7 +3200,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>66</v>
@@ -3244,7 +3284,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3328,7 +3368,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>58</v>
@@ -3409,7 +3449,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3493,7 +3533,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3577,7 +3617,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3651,7 +3691,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3735,7 +3775,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -3819,7 +3859,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -3903,7 +3943,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="44"/>
       <c r="B21" s="59" t="s">
         <v>52</v>
@@ -3984,7 +4024,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4068,7 +4108,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4142,7 +4182,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4226,7 +4266,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4310,7 +4350,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4384,7 +4424,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>53</v>
@@ -4468,7 +4508,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4552,7 +4592,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>55</v>
@@ -4636,7 +4676,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>59</v>
@@ -4717,7 +4757,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>56</v>
@@ -4801,7 +4841,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -4885,7 +4925,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -4969,7 +5009,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5053,7 +5093,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5137,7 +5177,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5211,7 +5251,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="44"/>
       <c r="B37" s="94" t="s">
         <v>60</v>
@@ -5295,7 +5335,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="44"/>
       <c r="B38" s="94" t="s">
         <v>61</v>
@@ -5379,7 +5419,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="44"/>
       <c r="B39" s="79" t="s">
         <v>49</v>
@@ -5463,7 +5503,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="44"/>
       <c r="B40" s="79" t="s">
         <v>50</v>
@@ -5547,7 +5587,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5621,7 +5661,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="44"/>
       <c r="B42" s="89" t="s">
         <v>54</v>
@@ -5705,7 +5745,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="44"/>
       <c r="B43" s="89" t="s">
         <v>57</v>
@@ -5789,7 +5829,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="44"/>
       <c r="B44" s="95" t="s">
         <v>65</v>
@@ -5873,7 +5913,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="44"/>
       <c r="B45" s="95" t="s">
         <v>64</v>
@@ -5957,7 +5997,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A46" s="44"/>
       <c r="B46" s="95" t="s">
         <v>63</v>
@@ -6041,7 +6081,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A47" s="44"/>
       <c r="B47" s="95" t="s">
         <v>62</v>
@@ -6125,7 +6165,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6201,17 +6241,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6295,23 +6335,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="46.25" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
@@ -6328,7 +6368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>150</v>
       </c>
@@ -6345,7 +6385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>95</v>
@@ -6360,7 +6400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>96</v>
@@ -6375,7 +6415,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>97</v>
@@ -6390,7 +6430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>135</v>
@@ -6405,7 +6445,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>136</v>
@@ -6420,7 +6460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>99</v>
@@ -6435,7 +6475,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>101</v>
@@ -6450,7 +6490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>122</v>
@@ -6465,7 +6505,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>123</v>
@@ -6480,7 +6520,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -6495,7 +6535,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>106</v>
@@ -6510,7 +6550,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>114</v>
@@ -6525,7 +6565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>117</v>
@@ -6540,7 +6580,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>151</v>
@@ -6555,7 +6595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>152</v>
@@ -6570,31 +6610,67 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A26" s="96" t="s">
         <v>68</v>
       </c>
@@ -6611,7 +6687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A27" s="65" t="s">
         <v>69</v>
       </c>
@@ -6631,7 +6707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A28" s="65"/>
       <c r="B28" s="5" t="s">
         <v>103</v>
@@ -6649,7 +6725,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A29" s="65"/>
       <c r="B29" s="5" t="s">
         <v>110</v>
@@ -6667,7 +6743,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A30" s="65"/>
       <c r="B30" s="5" t="s">
         <v>112</v>
@@ -6685,7 +6761,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A31" s="65"/>
       <c r="B31" s="5" t="s">
         <v>118</v>
@@ -6700,7 +6776,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A32" s="65"/>
       <c r="B32" s="5" t="s">
         <v>120</v>
@@ -6715,7 +6791,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B33" s="5" t="s">
         <v>126</v>
       </c>
@@ -6729,7 +6805,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B34" s="5" t="s">
         <v>128</v>
       </c>
@@ -6743,7 +6819,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B35" s="5" t="s">
         <v>129</v>
       </c>
@@ -6757,7 +6833,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B36" s="5" t="s">
         <v>130</v>
       </c>
@@ -6771,7 +6847,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B37" s="5" t="s">
         <v>131</v>
       </c>
@@ -6785,7 +6861,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B38" s="5" t="s">
         <v>132</v>
       </c>
@@ -6799,7 +6875,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B39" s="5" t="s">
         <v>133</v>
       </c>
@@ -6813,7 +6889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B40" s="5" t="s">
         <v>134</v>
       </c>
@@ -6827,7 +6903,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A41" s="65"/>
       <c r="B41" s="5" t="s">
         <v>139</v>
@@ -6842,7 +6918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
         <v>141</v>
@@ -6857,7 +6933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" s="65"/>
       <c r="B43" s="5" t="s">
         <v>143</v>
@@ -6872,7 +6948,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" s="65"/>
       <c r="B44" s="5" t="s">
         <v>142</v>
@@ -6887,7 +6963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" s="65"/>
       <c r="B45" s="5" t="s">
         <v>144</v>
@@ -6902,7 +6978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" s="65"/>
       <c r="B46" s="5" t="s">
         <v>145</v>
@@ -6917,7 +6993,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" s="65"/>
       <c r="B47" s="5" t="s">
         <v>149</v>
@@ -6932,7 +7008,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
         <v>146</v>
@@ -6947,7 +7023,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" s="65"/>
       <c r="B49" s="5" t="s">
         <v>148</v>
@@ -6962,47 +7038,71 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" s="65"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="65"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="96" t="s">
+      <c r="B51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A52" s="65"/>
+      <c r="B52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A56" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="97" t="s">
+      <c r="B56" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="97" t="s">
+      <c r="C56" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="97" t="s">
+      <c r="D56" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="65" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A57" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="65" t="s">
+      <c r="B57" s="65" t="s">
         <v>71</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65" t="s">
-        <v>74</v>
       </c>
       <c r="C57" s="65" t="s">
         <v>73</v>
@@ -7014,67 +7114,67 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="65"/>
       <c r="B58" s="65" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C58" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>155</v>
+        <v>73</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="E58" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="E59" s="102" t="s">
+      <c r="B59" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="E60" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="96" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A61" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="97" t="s">
+      <c r="B61" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C61" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="97" t="s">
+      <c r="D61" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="65" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A62" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B62" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="65" t="s">
+      <c r="C62" s="65" t="s">
         <v>83</v>
-      </c>
-      <c r="D61" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="65" t="s">
-        <v>84</v>
       </c>
       <c r="D62" s="65" t="s">
         <v>77</v>
@@ -7083,473 +7183,488 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E63" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A63" s="65"/>
+      <c r="B63" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="E64" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="96" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E65" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A66" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="97" t="s">
+      <c r="B66" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="97" t="s">
+      <c r="C66" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="97" t="s">
+      <c r="D66" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="97" t="s">
+      <c r="E66" s="97" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="65" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A67" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B67" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="65" t="s">
+      <c r="C67" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="65" t="s">
+      <c r="D67" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="101" t="s">
+      <c r="E67" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="E67" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
       <c r="E68" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="65"/>
       <c r="B69" s="65"/>
       <c r="C69" s="65"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="65"/>
       <c r="B70" s="65"/>
       <c r="C70" s="65"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A71" s="65"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="65"/>
       <c r="B75" s="65"/>
       <c r="C75" s="65"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="65"/>
       <c r="B76" s="65"/>
       <c r="C76" s="65"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="65"/>
       <c r="B77" s="65"/>
       <c r="C77" s="65"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="65"/>
       <c r="B78" s="65"/>
       <c r="C78" s="65"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="65"/>
       <c r="B79" s="65"/>
       <c r="C79" s="65"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="65"/>
       <c r="B80" s="65"/>
       <c r="C80" s="65"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A81" s="65"/>
       <c r="B81" s="65"/>
       <c r="C81" s="65"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A82" s="65"/>
       <c r="B82" s="65"/>
       <c r="C82" s="65"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A83" s="65"/>
       <c r="B83" s="65"/>
       <c r="C83" s="65"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A84" s="65"/>
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A85" s="65"/>
       <c r="B85" s="65"/>
       <c r="C85" s="65"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A86" s="65"/>
       <c r="B86" s="65"/>
       <c r="C86" s="65"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A87" s="65"/>
       <c r="B87" s="65"/>
       <c r="C87" s="65"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A88" s="65"/>
       <c r="B88" s="65"/>
       <c r="C88" s="65"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A89" s="65"/>
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F442472-E1EC-4DE4-AAE8-D5008FCD7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429798AC-47D1-4F5C-BFB8-08B1D82D08C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="169">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -795,6 +795,10 @@
   </si>
   <si>
     <t>OpeningWitch_Script00_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeleTong_Script03_End</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -2160,9 +2164,9 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -5102,7 +5106,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="33">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="E35" s="73">
         <f t="shared" si="12"/>
@@ -6335,10 +6339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6904,12 +6908,11 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A41" s="65"/>
       <c r="B41" s="5" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>93</v>
@@ -6921,7 +6924,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>140</v>
@@ -6936,7 +6939,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" s="65"/>
       <c r="B43" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>140</v>
@@ -6951,7 +6954,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" s="65"/>
       <c r="B44" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>140</v>
@@ -6966,7 +6969,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" s="65"/>
       <c r="B45" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>140</v>
@@ -6981,7 +6984,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" s="65"/>
       <c r="B46" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>140</v>
@@ -6996,10 +6999,10 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" s="65"/>
       <c r="B47" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>93</v>
@@ -7011,7 +7014,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>147</v>
@@ -7026,7 +7029,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" s="65"/>
       <c r="B49" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>147</v>
@@ -7041,10 +7044,10 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" s="65"/>
       <c r="B50" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>93</v>
@@ -7056,7 +7059,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>165</v>
@@ -7071,7 +7074,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>165</v>
@@ -7083,41 +7086,41 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A56" s="96" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A53" s="65"/>
+      <c r="B53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A57" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="97" t="s">
+      <c r="B57" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C57" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="97" t="s">
+      <c r="D57" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A57" s="65" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A58" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="65" t="s">
+      <c r="B58" s="65" t="s">
         <v>71</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65" t="s">
-        <v>74</v>
       </c>
       <c r="C58" s="65" t="s">
         <v>73</v>
@@ -7132,13 +7135,13 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
       <c r="B59" s="65" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>155</v>
+        <v>73</v>
+      </c>
+      <c r="D59" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="E59" s="101" t="s">
         <v>88</v>
@@ -7146,50 +7149,50 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="E60" s="102" t="s">
+      <c r="B60" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="E61" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A61" s="96" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A62" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="97" t="s">
+      <c r="B62" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C62" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D62" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A62" s="65" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A63" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B63" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C63" s="65" t="s">
         <v>83</v>
-      </c>
-      <c r="D62" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="65" t="s">
-        <v>84</v>
       </c>
       <c r="D63" s="65" t="s">
         <v>77</v>
@@ -7199,8 +7202,18 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="E64" s="102" t="s">
-        <v>87</v>
+      <c r="A64" s="65"/>
+      <c r="B64" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.6">
@@ -7209,49 +7222,46 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A66" s="96" t="s">
+      <c r="E66" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A67" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="97" t="s">
+      <c r="B67" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="97" t="s">
+      <c r="C67" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="97" t="s">
+      <c r="D67" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="97" t="s">
+      <c r="E67" s="97" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A67" s="65" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A68" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B68" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="C68" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="D68" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="101" t="s">
+      <c r="E68" s="101" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A68" s="65"/>
-      <c r="E68" s="102" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
       <c r="E69" s="102" t="s">
         <v>87</v>
       </c>
@@ -7260,16 +7270,19 @@
       <c r="A70" s="65"/>
       <c r="B70" s="65"/>
       <c r="C70" s="65"/>
+      <c r="E70" s="102" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="65"/>
       <c r="B71" s="65"/>
       <c r="C71" s="65"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="65"/>
@@ -7347,9 +7360,9 @@
       <c r="C90" s="65"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A92" s="5"/>
@@ -7665,6 +7678,11 @@
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429798AC-47D1-4F5C-BFB8-08B1D82D08C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181E26A3-32B6-406C-9F80-714CEB800DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="181">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -799,6 +799,54 @@
   </si>
   <si>
     <t>SkeleTong_Script03_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_Script00</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForestOfHarmony</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습용사 대화 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_Intro</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_Script00_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_IntroComboA</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_IntroComboB</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_IntroYeah</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_Introlol_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_Introlol</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_IntroWho</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_IntroPotion</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1568,6 +1616,12 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1579,12 +1633,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2164,12 +2212,12 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2183,7 +2231,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2200,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2211,115 +2259,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2555,7 +2603,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2806,7 +2854,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2874,7 +2922,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -2948,7 +2996,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3034,7 +3082,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +3168,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>67</v>
@@ -3204,7 +3252,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>66</v>
@@ -3288,7 +3336,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3372,7 +3420,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>58</v>
@@ -3453,7 +3501,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3537,7 +3585,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3621,7 +3669,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3695,7 +3743,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3779,7 +3827,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -3863,7 +3911,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -3947,7 +3995,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="59" t="s">
         <v>52</v>
@@ -4028,7 +4076,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4112,7 +4160,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4186,7 +4234,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4195,7 +4243,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="28">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="72">
         <f>G22 + 1</f>
@@ -4270,7 +4318,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4354,7 +4402,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4428,7 +4476,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>53</v>
@@ -4512,7 +4560,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4521,7 +4569,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="73">
         <f t="shared" ref="E28:E35" si="12">G27 + 1</f>
@@ -4596,7 +4644,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>55</v>
@@ -4605,7 +4653,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="73">
         <f t="shared" si="12"/>
@@ -4680,7 +4728,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>59</v>
@@ -4761,7 +4809,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>56</v>
@@ -4845,7 +4893,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -4929,7 +4977,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5013,7 +5061,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5097,7 +5145,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5181,7 +5229,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5255,7 +5303,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44"/>
       <c r="B37" s="94" t="s">
         <v>60</v>
@@ -5339,7 +5387,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="94" t="s">
         <v>61</v>
@@ -5423,7 +5471,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44"/>
       <c r="B39" s="79" t="s">
         <v>49</v>
@@ -5507,7 +5555,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
       <c r="B40" s="79" t="s">
         <v>50</v>
@@ -5591,7 +5639,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5665,7 +5713,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="89" t="s">
         <v>54</v>
@@ -5749,7 +5797,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="89" t="s">
         <v>57</v>
@@ -5833,7 +5881,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="95" t="s">
         <v>65</v>
@@ -5917,7 +5965,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="95" t="s">
         <v>64</v>
@@ -6001,7 +6049,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44"/>
       <c r="B46" s="95" t="s">
         <v>63</v>
@@ -6085,7 +6133,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
       <c r="B47" s="95" t="s">
         <v>62</v>
@@ -6169,7 +6217,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6245,17 +6293,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6339,13 +6387,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6355,7 +6403,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
@@ -6372,7 +6420,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>150</v>
       </c>
@@ -6389,7 +6437,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>95</v>
@@ -6404,7 +6452,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>96</v>
@@ -6419,7 +6467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>97</v>
@@ -6434,7 +6482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>135</v>
@@ -6449,7 +6497,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>136</v>
@@ -6464,7 +6512,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>99</v>
@@ -6479,7 +6527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>101</v>
@@ -6494,7 +6542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>122</v>
@@ -6509,7 +6557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>123</v>
@@ -6524,7 +6572,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -6539,7 +6587,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>106</v>
@@ -6554,7 +6602,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>114</v>
@@ -6569,7 +6617,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>117</v>
@@ -6584,7 +6632,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>151</v>
@@ -6599,7 +6647,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>152</v>
@@ -6614,7 +6662,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>158</v>
@@ -6629,7 +6677,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>160</v>
@@ -6644,7 +6692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>161</v>
@@ -6659,22 +6707,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="96" t="s">
         <v>68</v>
       </c>
@@ -6691,7 +6739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>69</v>
       </c>
@@ -6711,7 +6759,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="5" t="s">
         <v>103</v>
@@ -6729,7 +6777,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
       <c r="B29" s="5" t="s">
         <v>110</v>
@@ -6747,7 +6795,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
       <c r="B30" s="5" t="s">
         <v>112</v>
@@ -6765,7 +6813,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
       <c r="B31" s="5" t="s">
         <v>118</v>
@@ -6780,7 +6828,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="65"/>
       <c r="B32" s="5" t="s">
         <v>120</v>
@@ -6795,7 +6843,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>126</v>
       </c>
@@ -6809,7 +6857,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>128</v>
       </c>
@@ -6823,7 +6871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>129</v>
       </c>
@@ -6837,7 +6885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>130</v>
       </c>
@@ -6851,7 +6899,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>131</v>
       </c>
@@ -6865,7 +6913,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>132</v>
       </c>
@@ -6879,7 +6927,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>133</v>
       </c>
@@ -6893,7 +6941,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>134</v>
       </c>
@@ -6907,7 +6955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>168</v>
       </c>
@@ -6921,7 +6969,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
         <v>139</v>
@@ -6936,7 +6984,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="65"/>
       <c r="B43" s="5" t="s">
         <v>141</v>
@@ -6951,7 +6999,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="5" t="s">
         <v>143</v>
@@ -6966,7 +7014,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="65"/>
       <c r="B45" s="5" t="s">
         <v>142</v>
@@ -6981,7 +7029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="65"/>
       <c r="B46" s="5" t="s">
         <v>144</v>
@@ -6996,7 +7044,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
       <c r="B47" s="5" t="s">
         <v>145</v>
@@ -7011,7 +7059,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
         <v>149</v>
@@ -7026,7 +7074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="65"/>
       <c r="B49" s="5" t="s">
         <v>146</v>
@@ -7041,7 +7089,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
       <c r="B50" s="5" t="s">
         <v>148</v>
@@ -7056,7 +7104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
         <v>166</v>
@@ -7071,7 +7119,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
         <v>164</v>
@@ -7086,7 +7134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
         <v>167</v>
@@ -7101,7 +7149,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="96" t="s">
         <v>68</v>
       </c>
@@ -7115,7 +7163,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
         <v>79</v>
       </c>
@@ -7132,7 +7180,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="65" t="s">
         <v>74</v>
@@ -7147,7 +7195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="65"/>
       <c r="B60" s="65" t="s">
         <v>157</v>
@@ -7162,7 +7210,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="65"/>
       <c r="C61" s="65"/>
@@ -7170,7 +7218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="96" t="s">
         <v>68</v>
       </c>
@@ -7184,7 +7232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="65" t="s">
         <v>80</v>
       </c>
@@ -7201,7 +7249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="65"/>
       <c r="B64" s="65" t="s">
         <v>82</v>
@@ -7216,473 +7264,623 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="E65" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="E66" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A67" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" s="97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A68" s="65" t="s">
-        <v>89</v>
-      </c>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="65"/>
+      <c r="B65" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="65"/>
+      <c r="B66" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="65"/>
+      <c r="B67" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="65"/>
       <c r="B68" s="65" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="E68" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="65"/>
-      <c r="E69" s="102" t="s">
+      <c r="B69" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="65"/>
+      <c r="B70" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="65"/>
+      <c r="B71" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="65"/>
+      <c r="B72" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="65"/>
+      <c r="B73" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="65"/>
+      <c r="E75" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A70" s="65"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="E70" s="102" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A71" s="65"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E79" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="65"/>
       <c r="B80" s="65"/>
       <c r="C80" s="65"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="E80" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="65"/>
       <c r="B81" s="65"/>
       <c r="C81" s="65"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="65"/>
       <c r="B82" s="65"/>
       <c r="C82" s="65"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="65"/>
       <c r="B86" s="65"/>
       <c r="C86" s="65"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="65"/>
       <c r="B87" s="65"/>
       <c r="C87" s="65"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="65"/>
       <c r="B88" s="65"/>
       <c r="C88" s="65"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="65"/>
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="65"/>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="65"/>
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="65"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="65"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="65"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="65"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="65"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="65"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="65"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="65"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="65"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="65"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="65"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181E26A3-32B6-406C-9F80-714CEB800DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F820D-889C-496D-A883-52C9AE981ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="182">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -486,10 +486,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>Common</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveStage</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -847,6 +843,14 @@
   </si>
   <si>
     <t>RookieHero_IntroPotion</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>견습용사 사망 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookieHero_Death</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1616,23 +1620,23 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2217,7 +2221,7 @@
       <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2231,7 +2235,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2259,115 +2263,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +2926,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -2996,7 +3000,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3082,7 +3086,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3168,7 +3172,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>67</v>
@@ -3252,7 +3256,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>66</v>
@@ -3336,7 +3340,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3420,7 +3424,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>58</v>
@@ -3501,7 +3505,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3585,7 +3589,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3669,7 +3673,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3743,7 +3747,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3827,7 +3831,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -3911,7 +3915,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -3995,7 +3999,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="44"/>
       <c r="B21" s="59" t="s">
         <v>52</v>
@@ -4076,7 +4080,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4160,7 +4164,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4234,7 +4238,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4318,7 +4322,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4402,7 +4406,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4476,7 +4480,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>53</v>
@@ -4560,7 +4564,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4644,7 +4648,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>55</v>
@@ -4728,7 +4732,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>59</v>
@@ -4809,7 +4813,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>56</v>
@@ -4893,7 +4897,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -4977,7 +4981,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5061,7 +5065,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5145,7 +5149,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5229,7 +5233,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5303,7 +5307,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="44"/>
       <c r="B37" s="94" t="s">
         <v>60</v>
@@ -5387,7 +5391,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="44"/>
       <c r="B38" s="94" t="s">
         <v>61</v>
@@ -5471,7 +5475,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="44"/>
       <c r="B39" s="79" t="s">
         <v>49</v>
@@ -5555,7 +5559,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="44"/>
       <c r="B40" s="79" t="s">
         <v>50</v>
@@ -5639,7 +5643,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5713,7 +5717,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="44"/>
       <c r="B42" s="89" t="s">
         <v>54</v>
@@ -5797,7 +5801,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="44"/>
       <c r="B43" s="89" t="s">
         <v>57</v>
@@ -5881,7 +5885,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="44"/>
       <c r="B44" s="95" t="s">
         <v>65</v>
@@ -5965,7 +5969,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="44"/>
       <c r="B45" s="95" t="s">
         <v>64</v>
@@ -6049,7 +6053,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A46" s="44"/>
       <c r="B46" s="95" t="s">
         <v>63</v>
@@ -6133,7 +6137,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A47" s="44"/>
       <c r="B47" s="95" t="s">
         <v>62</v>
@@ -6217,7 +6221,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6293,17 +6297,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6389,11 +6393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6403,7 +6407,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
@@ -6420,9 +6424,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>75</v>
@@ -6437,13 +6441,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>77</v>
@@ -6452,13 +6456,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="65" t="s">
         <v>77</v>
@@ -6467,13 +6471,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>77</v>
@@ -6482,13 +6486,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="65" t="s">
         <v>77</v>
@@ -6497,13 +6501,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>77</v>
@@ -6512,13 +6516,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D8" s="65" t="s">
         <v>77</v>
@@ -6527,13 +6531,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>77</v>
@@ -6542,13 +6546,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>77</v>
@@ -6557,13 +6561,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>77</v>
@@ -6572,73 +6576,73 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>108</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>109</v>
       </c>
       <c r="E13" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="D14" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" s="65" t="s">
         <v>77</v>
@@ -6647,13 +6651,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>77</v>
@@ -6662,13 +6666,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>77</v>
@@ -6677,13 +6681,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>77</v>
@@ -6692,13 +6696,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="65" t="s">
         <v>77</v>
@@ -6707,22 +6711,34 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A26" s="96" t="s">
         <v>68</v>
       </c>
@@ -6739,18 +6755,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A27" s="65" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E27" s="101" t="s">
         <v>88</v>
@@ -6759,16 +6775,16 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A28" s="65"/>
       <c r="B28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E28" s="101" t="s">
         <v>88</v>
@@ -6777,16 +6793,16 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A29" s="65"/>
       <c r="B29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="101" t="s">
         <v>88</v>
@@ -6795,16 +6811,16 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A30" s="65"/>
       <c r="B30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="101" t="s">
         <v>88</v>
@@ -6813,343 +6829,343 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A31" s="65"/>
       <c r="B31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A32" s="65"/>
       <c r="B32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B34" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B35" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B36" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B37" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B38" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B39" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E39" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B40" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E40" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B41" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="D42" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" s="65"/>
       <c r="B43" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" s="65"/>
       <c r="B44" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" s="65"/>
       <c r="B45" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" s="65"/>
       <c r="B46" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" s="65"/>
       <c r="B47" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" s="65"/>
       <c r="B49" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" s="65"/>
       <c r="B50" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="D52" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E52" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="96" t="s">
         <v>68</v>
       </c>
@@ -7163,7 +7179,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="65" t="s">
         <v>79</v>
       </c>
@@ -7180,7 +7196,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
       <c r="B59" s="65" t="s">
         <v>74</v>
@@ -7195,22 +7211,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="65"/>
       <c r="B60" s="65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C60" s="65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" s="65"/>
       <c r="B61" s="65"/>
       <c r="C61" s="65"/>
@@ -7218,7 +7234,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" s="96" t="s">
         <v>68</v>
       </c>
@@ -7232,7 +7248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" s="65" t="s">
         <v>80</v>
       </c>
@@ -7249,7 +7265,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" s="65"/>
       <c r="B64" s="65" t="s">
         <v>82</v>
@@ -7264,167 +7280,175 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="65"/>
       <c r="B65" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C65" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E65" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A66" s="65"/>
       <c r="B66" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" s="65" t="s">
         <v>169</v>
-      </c>
-      <c r="C66" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="65" t="s">
-        <v>170</v>
       </c>
       <c r="E66" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" s="65"/>
       <c r="B67" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C67" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E67" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A68" s="65"/>
       <c r="B68" s="65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D68" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E68" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="65"/>
       <c r="B69" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E69" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="65"/>
       <c r="B70" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E70" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="65"/>
       <c r="B71" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C71" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E71" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="65"/>
       <c r="B72" s="65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D72" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E72" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="65"/>
       <c r="B73" s="65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E73" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B74" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E74" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="65"/>
-      <c r="E75" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B75" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="E76" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="96" t="s">
         <v>68</v>
       </c>
@@ -7441,30 +7465,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E78" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="65"/>
       <c r="E79" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="65"/>
       <c r="B80" s="65"/>
       <c r="C80" s="65"/>
@@ -7472,412 +7479,412 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A81" s="65"/>
       <c r="B81" s="65"/>
       <c r="C81" s="65"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A82" s="65"/>
       <c r="B82" s="65"/>
       <c r="C82" s="65"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A86" s="65"/>
       <c r="B86" s="65"/>
       <c r="C86" s="65"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A87" s="65"/>
       <c r="B87" s="65"/>
       <c r="C87" s="65"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A88" s="65"/>
       <c r="B88" s="65"/>
       <c r="C88" s="65"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A89" s="65"/>
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A90" s="65"/>
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A91" s="65"/>
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A92" s="65"/>
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A93" s="65"/>
       <c r="B93" s="65"/>
       <c r="C93" s="65"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A94" s="65"/>
       <c r="B94" s="65"/>
       <c r="C94" s="65"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A95" s="65"/>
       <c r="B95" s="65"/>
       <c r="C95" s="65"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A96" s="65"/>
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" s="65"/>
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A98" s="65"/>
       <c r="B98" s="65"/>
       <c r="C98" s="65"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A99" s="65"/>
       <c r="B99" s="65"/>
       <c r="C99" s="65"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A100" s="65"/>
       <c r="B100" s="65"/>
       <c r="C100" s="65"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A101" s="65"/>
       <c r="B101" s="65"/>
       <c r="C101" s="65"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26F820D-889C-496D-A883-52C9AE981ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B11FA-3A9E-432F-9C34-31F0ECF5A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="186">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -851,6 +851,21 @@
   </si>
   <si>
     <t>RookieHero_Death</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinimapOn</t>
+  </si>
+  <si>
+    <t>MinimapOff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 켜기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 끄기</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1656,6 +1671,32 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -1714,32 +1755,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1939,7 +1954,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F27:F30" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F27:F30" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F27:F30" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
@@ -2217,8 +2232,8 @@
   <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -4247,7 +4262,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="28">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="72">
         <f>G22 + 1</f>
@@ -6325,28 +6340,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="5" priority="42">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6393,8 +6408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6728,9 +6743,33 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="101" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B11FA-3A9E-432F-9C34-31F0ECF5A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AE7D78-B865-41B1-8D01-8C80CEFE327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1635,6 +1635,12 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1646,12 +1652,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2233,7 +2233,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -2283,108 +2283,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
@@ -6312,17 +6312,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6408,8 +6408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AE7D78-B865-41B1-8D01-8C80CEFE327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B82B5-02B3-4ACB-9DCA-F2669BB182E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="193">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -866,6 +866,34 @@
   </si>
   <si>
     <t>미니맵 끄기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script00</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script00_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script01</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script01_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성 용사 대화 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script02</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script02_End</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1671,32 +1699,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -1755,6 +1757,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1954,7 +1982,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F27:F30" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F27:F30" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="F27:F30" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
@@ -6340,28 +6368,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="6" priority="42">
+    <cfRule type="expression" dxfId="5" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="5" priority="36">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6406,10 +6434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -7483,105 +7511,187 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="E76" s="102" t="s">
-        <v>87</v>
+      <c r="B76" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A77" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="97" t="s">
-        <v>85</v>
+      <c r="B77" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B78" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A79" s="65"/>
-      <c r="E79" s="102" t="s">
-        <v>87</v>
+      <c r="B79" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="101" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="E80" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A82" s="65"/>
+      <c r="B80" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B81" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B82" s="65"/>
       <c r="C82" s="65"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A86" s="65"/>
+      <c r="D82" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B86" s="65"/>
       <c r="C86" s="65"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A87" s="65"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="D86" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="D87" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A88" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="E90" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A91" s="65"/>
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="E91" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A92" s="65"/>
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A93" s="65"/>
       <c r="B93" s="65"/>
       <c r="C93" s="65"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A95" s="65"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A97" s="65"/>
@@ -7609,59 +7719,59 @@
       <c r="C101" s="65"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="65"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
+      <c r="A105" s="65"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
+      <c r="A107" s="65"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
+      <c r="A109" s="65"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="65"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
+      <c r="A111" s="65"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
+      <c r="A112" s="65"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" s="5"/>
@@ -7927,6 +8037,61 @@
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A173" s="5"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A175" s="5"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A176" s="5"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B82B5-02B3-4ACB-9DCA-F2669BB182E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AC568C-C31D-4B40-B1B8-C1EC110D72D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1663,23 +1663,23 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1698,6 +1698,32 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1757,32 +1783,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1982,7 +1982,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F27:F30" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F27:F30" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F27:F30" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
@@ -2259,9 +2259,9 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -2311,108 +2311,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
@@ -4374,7 +4374,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="28">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="72">
         <f>G24 + 1</f>
@@ -4532,7 +4532,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="33">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E27" s="73">
         <f>G25 + 1</f>
@@ -6340,17 +6340,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6368,28 +6368,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="5" priority="42">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6436,7 +6436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AC568C-C31D-4B40-B1B8-C1EC110D72D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E01DEF-11CA-44FF-8F27-0459488537E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -854,46 +854,47 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>MinimapOff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 켜기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 끄기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script00</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script00_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script01</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script01_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성 용사 대화 이벤트</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script02</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>VeteranHero_Script02_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>MinimapOn</t>
-  </si>
-  <si>
-    <t>MinimapOff</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니맵 켜기</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니맵 끄기</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>VeteranHero_Script00</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>VeteranHero_Script00_End</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>VeteranHero_Script01</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>VeteranHero_Script01_End</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>각성 용사 대화 이벤트</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>VeteranHero_Script02</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>VeteranHero_Script02_End</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1663,6 +1664,12 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1674,12 +1681,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2260,11 +2261,11 @@
   <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2278,7 +2279,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2306,115 +2307,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2969,7 +2970,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -3043,7 +3044,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3129,7 +3130,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3215,7 +3216,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>67</v>
@@ -3299,7 +3300,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>66</v>
@@ -3383,7 +3384,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3467,7 +3468,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>58</v>
@@ -3548,7 +3549,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3632,7 +3633,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3716,7 +3717,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3790,7 +3791,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3874,7 +3875,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -3958,7 +3959,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -4042,7 +4043,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="59" t="s">
         <v>52</v>
@@ -4123,7 +4124,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4207,7 +4208,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4281,7 +4282,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4365,7 +4366,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4374,7 +4375,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="72">
         <f>G24 + 1</f>
@@ -4449,7 +4450,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4523,7 +4524,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>53</v>
@@ -4607,7 +4608,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4691,7 +4692,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>55</v>
@@ -4775,7 +4776,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>59</v>
@@ -4856,7 +4857,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>56</v>
@@ -4940,7 +4941,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -5024,7 +5025,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5108,7 +5109,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5192,7 +5193,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5276,7 +5277,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5350,7 +5351,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44"/>
       <c r="B37" s="94" t="s">
         <v>60</v>
@@ -5434,7 +5435,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="94" t="s">
         <v>61</v>
@@ -5518,7 +5519,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44"/>
       <c r="B39" s="79" t="s">
         <v>49</v>
@@ -5602,7 +5603,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
       <c r="B40" s="79" t="s">
         <v>50</v>
@@ -5686,7 +5687,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5760,7 +5761,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="89" t="s">
         <v>54</v>
@@ -5844,7 +5845,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="89" t="s">
         <v>57</v>
@@ -5928,7 +5929,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="95" t="s">
         <v>65</v>
@@ -6012,7 +6013,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="95" t="s">
         <v>64</v>
@@ -6096,7 +6097,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44"/>
       <c r="B46" s="95" t="s">
         <v>63</v>
@@ -6180,7 +6181,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
       <c r="B47" s="95" t="s">
         <v>62</v>
@@ -6264,7 +6265,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6340,17 +6341,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6436,11 +6437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6450,7 +6451,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>94</v>
@@ -6499,7 +6500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>95</v>
@@ -6514,7 +6515,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>96</v>
@@ -6529,7 +6530,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>134</v>
@@ -6544,7 +6545,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>135</v>
@@ -6559,7 +6560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>98</v>
@@ -6574,7 +6575,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>100</v>
@@ -6589,7 +6590,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>121</v>
@@ -6604,7 +6605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>122</v>
@@ -6619,7 +6620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>104</v>
@@ -6634,7 +6635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>105</v>
@@ -6649,7 +6650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>113</v>
@@ -6664,7 +6665,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>116</v>
@@ -6679,7 +6680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>150</v>
@@ -6694,7 +6695,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>151</v>
@@ -6709,7 +6710,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>157</v>
@@ -6724,7 +6725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>159</v>
@@ -6739,7 +6740,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>160</v>
@@ -6754,7 +6755,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="65" t="s">
         <v>89</v>
@@ -6769,13 +6770,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="65" t="s">
         <v>77</v>
@@ -6784,13 +6785,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>77</v>
@@ -6799,13 +6800,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="96" t="s">
         <v>68</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>69</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="5" t="s">
         <v>102</v>
@@ -6860,7 +6861,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
       <c r="B29" s="5" t="s">
         <v>109</v>
@@ -6878,7 +6879,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
       <c r="B30" s="5" t="s">
         <v>111</v>
@@ -6896,7 +6897,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
       <c r="B31" s="5" t="s">
         <v>117</v>
@@ -6911,7 +6912,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="65"/>
       <c r="B32" s="5" t="s">
         <v>119</v>
@@ -6926,7 +6927,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>125</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>127</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>128</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>129</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>130</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>131</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>132</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>133</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>167</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
         <v>138</v>
@@ -7067,7 +7068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="65"/>
       <c r="B43" s="5" t="s">
         <v>140</v>
@@ -7082,7 +7083,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="5" t="s">
         <v>142</v>
@@ -7097,7 +7098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="65"/>
       <c r="B45" s="5" t="s">
         <v>141</v>
@@ -7112,7 +7113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="65"/>
       <c r="B46" s="5" t="s">
         <v>143</v>
@@ -7127,7 +7128,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="65"/>
       <c r="B47" s="5" t="s">
         <v>144</v>
@@ -7142,7 +7143,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
         <v>148</v>
@@ -7157,7 +7158,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="65"/>
       <c r="B49" s="5" t="s">
         <v>145</v>
@@ -7172,7 +7173,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
       <c r="B50" s="5" t="s">
         <v>147</v>
@@ -7187,7 +7188,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
         <v>165</v>
@@ -7202,7 +7203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
         <v>163</v>
@@ -7217,7 +7218,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
         <v>166</v>
@@ -7232,7 +7233,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="96" t="s">
         <v>68</v>
       </c>
@@ -7246,7 +7247,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
         <v>79</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="65" t="s">
         <v>74</v>
@@ -7278,7 +7279,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="65"/>
       <c r="B60" s="65" t="s">
         <v>156</v>
@@ -7293,7 +7294,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="65"/>
       <c r="C61" s="65"/>
@@ -7301,7 +7302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="96" t="s">
         <v>68</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="65" t="s">
         <v>80</v>
       </c>
@@ -7332,7 +7333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="65"/>
       <c r="B64" s="65" t="s">
         <v>82</v>
@@ -7347,7 +7348,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="65"/>
       <c r="B65" s="65" t="s">
         <v>171</v>
@@ -7362,7 +7363,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="65"/>
       <c r="B66" s="65" t="s">
         <v>168</v>
@@ -7377,7 +7378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="65"/>
       <c r="B67" s="65" t="s">
         <v>172</v>
@@ -7392,7 +7393,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="65"/>
       <c r="B68" s="65" t="s">
         <v>173</v>
@@ -7407,7 +7408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="65"/>
       <c r="B69" s="65" t="s">
         <v>174</v>
@@ -7422,7 +7423,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="65"/>
       <c r="B70" s="65" t="s">
         <v>175</v>
@@ -7437,7 +7438,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="65"/>
       <c r="B71" s="65" t="s">
         <v>177</v>
@@ -7452,7 +7453,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="65"/>
       <c r="B72" s="65" t="s">
         <v>176</v>
@@ -7467,7 +7468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="65"/>
       <c r="B73" s="65" t="s">
         <v>178</v>
@@ -7482,7 +7483,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B74" s="65" t="s">
         <v>179</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" s="65" t="s">
         <v>181</v>
       </c>
@@ -7510,12 +7511,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B76" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D76" s="65" t="s">
         <v>169</v>
@@ -7524,12 +7525,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B77" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C77" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D77" s="65" t="s">
         <v>169</v>
@@ -7538,12 +7539,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B78" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D78" s="65" t="s">
         <v>169</v>
@@ -7552,12 +7553,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B79" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="65" t="s">
         <v>189</v>
-      </c>
-      <c r="C79" s="65" t="s">
-        <v>190</v>
       </c>
       <c r="D79" s="65" t="s">
         <v>169</v>
@@ -7566,12 +7567,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C80" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D80" s="65" t="s">
         <v>169</v>
@@ -7580,12 +7581,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B81" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C81" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D81" s="65" t="s">
         <v>169</v>
@@ -7594,7 +7595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" s="65"/>
       <c r="C82" s="65"/>
       <c r="D82" s="65" t="s">
@@ -7604,7 +7605,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" s="65"/>
       <c r="C83" s="65"/>
       <c r="D83" s="65" t="s">
@@ -7614,7 +7615,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" s="65"/>
       <c r="C84" s="65"/>
       <c r="D84" s="65" t="s">
@@ -7624,7 +7625,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B85" s="65"/>
       <c r="C85" s="65"/>
       <c r="D85" s="65" t="s">
@@ -7634,7 +7635,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B86" s="65"/>
       <c r="C86" s="65"/>
       <c r="D86" s="65" t="s">
@@ -7644,7 +7645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D87" s="65" t="s">
         <v>169</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="96" t="s">
         <v>68</v>
       </c>
@@ -7669,13 +7670,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="65"/>
       <c r="E90" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="65"/>
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
@@ -7683,412 +7684,412 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="65"/>
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="65"/>
       <c r="B93" s="65"/>
       <c r="C93" s="65"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="65"/>
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="65"/>
       <c r="B98" s="65"/>
       <c r="C98" s="65"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="65"/>
       <c r="B99" s="65"/>
       <c r="C99" s="65"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="65"/>
       <c r="B100" s="65"/>
       <c r="C100" s="65"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="65"/>
       <c r="B101" s="65"/>
       <c r="C101" s="65"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="65"/>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="65"/>
       <c r="B103" s="65"/>
       <c r="C103" s="65"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="65"/>
       <c r="B104" s="65"/>
       <c r="C104" s="65"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="65"/>
       <c r="B105" s="65"/>
       <c r="C105" s="65"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="65"/>
       <c r="B106" s="65"/>
       <c r="C106" s="65"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="65"/>
       <c r="B107" s="65"/>
       <c r="C107" s="65"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="65"/>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E01DEF-11CA-44FF-8F27-0459488537E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6AFE07-CDBC-4512-83A7-B37502B9FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1366,7 +1366,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1664,23 +1664,26 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1699,32 +1702,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1784,6 +1761,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1983,8 +1986,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F27:F30" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="F27:F30" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F33:F36" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F33:F36" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
   </tableColumns>
@@ -2260,12 +2263,12 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2279,7 +2282,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2307,115 +2310,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2970,7 +2973,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3047,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3130,7 +3133,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3216,7 +3219,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>67</v>
@@ -3300,7 +3303,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>66</v>
@@ -3384,7 +3387,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3468,7 +3471,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>58</v>
@@ -3549,7 +3552,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3633,7 +3636,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3717,7 +3720,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3791,7 +3794,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3875,7 +3878,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -3959,7 +3962,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -4043,7 +4046,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="44"/>
       <c r="B21" s="59" t="s">
         <v>52</v>
@@ -4124,7 +4127,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4208,7 +4211,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4282,7 +4285,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4366,7 +4369,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4450,7 +4453,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4524,7 +4527,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>53</v>
@@ -4608,7 +4611,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4692,7 +4695,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>55</v>
@@ -4776,7 +4779,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>59</v>
@@ -4857,7 +4860,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>56</v>
@@ -4941,7 +4944,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -5025,7 +5028,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5109,7 +5112,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5118,7 +5121,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="73">
         <f t="shared" si="12"/>
@@ -5193,7 +5196,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5277,7 +5280,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5351,7 +5354,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="44"/>
       <c r="B37" s="94" t="s">
         <v>60</v>
@@ -5435,7 +5438,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="44"/>
       <c r="B38" s="94" t="s">
         <v>61</v>
@@ -5519,7 +5522,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="44"/>
       <c r="B39" s="79" t="s">
         <v>49</v>
@@ -5603,7 +5606,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="44"/>
       <c r="B40" s="79" t="s">
         <v>50</v>
@@ -5687,7 +5690,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5761,7 +5764,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="44"/>
       <c r="B42" s="89" t="s">
         <v>54</v>
@@ -5845,7 +5848,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="44"/>
       <c r="B43" s="89" t="s">
         <v>57</v>
@@ -5854,7 +5857,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="91">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E43" s="92">
         <f>G42</f>
@@ -5929,7 +5932,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="44"/>
       <c r="B44" s="95" t="s">
         <v>65</v>
@@ -6013,7 +6016,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="44"/>
       <c r="B45" s="95" t="s">
         <v>64</v>
@@ -6097,7 +6100,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A46" s="44"/>
       <c r="B46" s="95" t="s">
         <v>63</v>
@@ -6181,7 +6184,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A47" s="44"/>
       <c r="B47" s="95" t="s">
         <v>62</v>
@@ -6265,7 +6268,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6341,17 +6344,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6369,28 +6372,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="6" priority="42">
+    <cfRule type="expression" dxfId="5" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="5" priority="36">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6435,13 +6438,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6451,7 +6454,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>94</v>
@@ -6500,7 +6503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>95</v>
@@ -6515,7 +6518,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>96</v>
@@ -6530,7 +6533,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>134</v>
@@ -6545,7 +6548,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>135</v>
@@ -6560,7 +6563,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>98</v>
@@ -6575,7 +6578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>100</v>
@@ -6590,7 +6593,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>121</v>
@@ -6605,7 +6608,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>122</v>
@@ -6620,7 +6623,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>104</v>
@@ -6635,7 +6638,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>105</v>
@@ -6650,7 +6653,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>113</v>
@@ -6665,7 +6668,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>116</v>
@@ -6680,7 +6683,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>150</v>
@@ -6695,7 +6698,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>151</v>
@@ -6710,7 +6713,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>157</v>
@@ -6725,7 +6728,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>159</v>
@@ -6740,7 +6743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>160</v>
@@ -6755,7 +6758,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" s="65"/>
       <c r="B21" s="65" t="s">
         <v>89</v>
@@ -6770,7 +6773,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>192</v>
@@ -6785,7 +6788,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>182</v>
@@ -6800,139 +6803,80 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="109"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="96" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="109"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="109"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="109"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="109"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="109"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A32" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B32" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C32" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D32" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E32" s="97" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A33" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
-      <c r="B28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="98" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
-      <c r="B29" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
-      <c r="B30" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
-      <c r="B31" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
-      <c r="B32" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>92</v>
@@ -6940,13 +6884,17 @@
       <c r="E33" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A34" s="65"/>
       <c r="B34" s="5" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>92</v>
@@ -6954,13 +6902,17 @@
       <c r="E34" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A35" s="65"/>
       <c r="B35" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>92</v>
@@ -6968,13 +6920,17 @@
       <c r="E35" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A36" s="65"/>
       <c r="B36" s="5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>92</v>
@@ -6982,13 +6938,17 @@
       <c r="E36" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A37" s="65"/>
       <c r="B37" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>92</v>
@@ -6997,12 +6957,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A38" s="65"/>
       <c r="B38" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>92</v>
@@ -7011,9 +6972,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B39" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>126</v>
@@ -7025,9 +6986,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B40" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>126</v>
@@ -7039,9 +7000,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B41" s="5" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>126</v>
@@ -7053,13 +7014,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B42" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>92</v>
@@ -7068,13 +7028,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B43" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>92</v>
@@ -7083,13 +7042,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B44" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>92</v>
@@ -7098,13 +7056,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B45" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>92</v>
@@ -7113,13 +7070,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B46" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>92</v>
@@ -7128,13 +7084,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="65"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B47" s="5" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>92</v>
@@ -7143,13 +7098,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>92</v>
@@ -7158,13 +7113,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" s="65"/>
       <c r="B49" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>92</v>
@@ -7173,13 +7128,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" s="65"/>
       <c r="B50" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>92</v>
@@ -7188,13 +7143,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>92</v>
@@ -7203,13 +7158,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>92</v>
@@ -7218,13 +7173,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>92</v>
@@ -7233,113 +7188,119 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="97" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="65" t="s">
-        <v>77</v>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A54" s="65"/>
+      <c r="B54" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A55" s="65"/>
+      <c r="B55" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A56" s="65"/>
+      <c r="B56" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A57" s="65"/>
+      <c r="B57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A58" s="65"/>
+      <c r="B58" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E58" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
-      <c r="B59" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="65" t="s">
-        <v>77</v>
+      <c r="B59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E59" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="E61" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="96" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A63" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="97" t="s">
+      <c r="B63" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="97" t="s">
+      <c r="C63" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="97" t="s">
+      <c r="D63" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A64" s="65" t="s">
+        <v>79</v>
+      </c>
       <c r="B64" s="65" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C64" s="65" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D64" s="65" t="s">
         <v>77</v>
@@ -7348,100 +7309,94 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="65"/>
       <c r="B65" s="65" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="C65" s="65" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E65" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A66" s="65"/>
       <c r="B66" s="65" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D66" s="65" t="s">
-        <v>169</v>
+        <v>155</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="E66" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" s="65"/>
-      <c r="B67" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E67" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="E67" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A68" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A69" s="65" t="s">
+        <v>80</v>
+      </c>
       <c r="B69" s="65" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="D69" s="65" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E69" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="65"/>
       <c r="B70" s="65" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E70" s="101" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="65"/>
       <c r="B71" s="65" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C71" s="65" t="s">
         <v>170</v>
@@ -7453,10 +7408,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="65"/>
       <c r="B72" s="65" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C72" s="65" t="s">
         <v>170</v>
@@ -7468,10 +7423,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="65"/>
       <c r="B73" s="65" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C73" s="65" t="s">
         <v>170</v>
@@ -7483,9 +7438,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A74" s="65"/>
       <c r="B74" s="65" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C74" s="65" t="s">
         <v>170</v>
@@ -7497,12 +7453,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A75" s="65"/>
       <c r="B75" s="65" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C75" s="65" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D75" s="65" t="s">
         <v>169</v>
@@ -7511,12 +7468,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A76" s="65"/>
       <c r="B76" s="65" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D76" s="65" t="s">
         <v>169</v>
@@ -7525,12 +7483,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A77" s="65"/>
       <c r="B77" s="65" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C77" s="65" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D77" s="65" t="s">
         <v>169</v>
@@ -7539,12 +7498,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D78" s="65" t="s">
         <v>169</v>
@@ -7553,12 +7513,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C79" s="65" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D79" s="65" t="s">
         <v>169</v>
@@ -7567,12 +7528,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B80" s="65" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C80" s="65" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D80" s="65" t="s">
         <v>169</v>
@@ -7581,12 +7542,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B81" s="65" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C81" s="65" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D81" s="65" t="s">
         <v>169</v>
@@ -7595,504 +7556,588 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B82" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="65" t="s">
+        <v>189</v>
+      </c>
       <c r="D82" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="E82" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
+      <c r="E82" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B83" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>189</v>
+      </c>
       <c r="D83" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="E83" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
+      <c r="E83" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B84" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>189</v>
+      </c>
       <c r="D84" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="E84" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
+      <c r="E84" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B85" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="65" t="s">
+        <v>189</v>
+      </c>
       <c r="D85" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="E85" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
+      <c r="E85" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B86" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="65" t="s">
+        <v>189</v>
+      </c>
       <c r="D86" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="E86" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B87" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="65" t="s">
+        <v>189</v>
+      </c>
       <c r="D87" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="E87" s="102" t="s">
+      <c r="E87" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="65"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65" t="s">
+        <v>169</v>
+      </c>
       <c r="E90" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="65"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
+      <c r="D91" s="65" t="s">
+        <v>169</v>
+      </c>
       <c r="E91" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="65"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="65"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E92" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="D93" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A94" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" s="97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A96" s="65"/>
+      <c r="E96" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A97" s="65"/>
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E97" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A98" s="65"/>
       <c r="B98" s="65"/>
       <c r="C98" s="65"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A99" s="65"/>
       <c r="B99" s="65"/>
       <c r="C99" s="65"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="65"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A103" s="65"/>
       <c r="B103" s="65"/>
       <c r="C103" s="65"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A104" s="65"/>
       <c r="B104" s="65"/>
       <c r="C104" s="65"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A105" s="65"/>
       <c r="B105" s="65"/>
       <c r="C105" s="65"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A106" s="65"/>
       <c r="B106" s="65"/>
       <c r="C106" s="65"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A107" s="65"/>
       <c r="B107" s="65"/>
       <c r="C107" s="65"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A108" s="65"/>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A113" s="65"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A114" s="65"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A115" s="65"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A116" s="65"/>
+      <c r="B116" s="65"/>
+      <c r="C116" s="65"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A117" s="65"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="65"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A118" s="65"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="65"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A178" s="5"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A179" s="5"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6AFE07-CDBC-4512-83A7-B37502B9FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FCEDED-AFC7-4C9D-B388-F58C2E936180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1366,7 +1366,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1681,9 +1681,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1702,6 +1699,32 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1761,32 +1784,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1986,7 +1983,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F33:F36" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F33:F36" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F33:F36" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
@@ -2268,7 +2265,7 @@
       <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2282,7 +2279,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2322,7 @@
       <c r="F3" s="106"/>
       <c r="G3" s="106"/>
     </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
@@ -2418,7 +2415,7 @@
       <c r="BL4" s="104"/>
       <c r="BM4" s="105"/>
     </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2654,7 +2651,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2905,7 +2902,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2973,7 +2970,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -3047,7 +3044,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3133,7 +3130,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3219,7 +3216,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>67</v>
@@ -3303,7 +3300,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>66</v>
@@ -3387,7 +3384,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3471,7 +3468,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>58</v>
@@ -3552,7 +3549,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3636,7 +3633,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3720,7 +3717,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3794,7 +3791,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3878,7 +3875,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -3962,7 +3959,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -4046,7 +4043,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="59" t="s">
         <v>52</v>
@@ -4127,7 +4124,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4211,7 +4208,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4285,7 +4282,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4369,7 +4366,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4453,7 +4450,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4527,7 +4524,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>53</v>
@@ -4611,7 +4608,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4695,7 +4692,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>55</v>
@@ -4779,7 +4776,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>59</v>
@@ -4860,7 +4857,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>56</v>
@@ -4944,7 +4941,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -5028,7 +5025,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5112,7 +5109,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5196,7 +5193,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5280,7 +5277,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5354,7 +5351,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44"/>
       <c r="B37" s="94" t="s">
         <v>60</v>
@@ -5438,7 +5435,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="94" t="s">
         <v>61</v>
@@ -5522,7 +5519,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44"/>
       <c r="B39" s="79" t="s">
         <v>49</v>
@@ -5606,7 +5603,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
       <c r="B40" s="79" t="s">
         <v>50</v>
@@ -5690,7 +5687,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5764,7 +5761,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="89" t="s">
         <v>54</v>
@@ -5848,7 +5845,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="89" t="s">
         <v>57</v>
@@ -5932,7 +5929,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="95" t="s">
         <v>65</v>
@@ -6016,7 +6013,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="95" t="s">
         <v>64</v>
@@ -6100,7 +6097,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44"/>
       <c r="B46" s="95" t="s">
         <v>63</v>
@@ -6184,7 +6181,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
       <c r="B47" s="95" t="s">
         <v>62</v>
@@ -6268,7 +6265,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6372,28 +6369,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="5" priority="42">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6440,11 +6437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6454,7 +6451,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
@@ -6471,7 +6468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
@@ -6488,7 +6485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>94</v>
@@ -6503,7 +6500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>95</v>
@@ -6518,7 +6515,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>96</v>
@@ -6533,7 +6530,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>134</v>
@@ -6548,7 +6545,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>135</v>
@@ -6563,7 +6560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>98</v>
@@ -6578,7 +6575,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>100</v>
@@ -6593,7 +6590,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>121</v>
@@ -6608,7 +6605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>122</v>
@@ -6623,7 +6620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>104</v>
@@ -6638,7 +6635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>105</v>
@@ -6653,7 +6650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>113</v>
@@ -6668,7 +6665,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>116</v>
@@ -6683,7 +6680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>150</v>
@@ -6698,7 +6695,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>151</v>
@@ -6713,7 +6710,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>157</v>
@@ -6728,7 +6725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>159</v>
@@ -6743,7 +6740,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>160</v>
@@ -6758,7 +6755,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="65" t="s">
         <v>89</v>
@@ -6773,7 +6770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>192</v>
@@ -6788,7 +6785,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>182</v>
@@ -6803,55 +6800,55 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="65"/>
-      <c r="E24" s="109"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E24" s="100"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="65"/>
-      <c r="E25" s="109"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E25" s="100"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="65"/>
-      <c r="E26" s="109"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E26" s="100"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="65"/>
-      <c r="E27" s="109"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E27" s="100"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="65"/>
-      <c r="E28" s="109"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E28" s="100"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="65"/>
-      <c r="E29" s="109"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E29" s="100"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="96" t="s">
         <v>68</v>
       </c>
@@ -6868,7 +6865,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
         <v>69</v>
       </c>
@@ -6888,7 +6885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="65"/>
       <c r="B34" s="5" t="s">
         <v>102</v>
@@ -6906,7 +6903,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="5" t="s">
         <v>109</v>
@@ -6924,7 +6921,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="65"/>
       <c r="B36" s="5" t="s">
         <v>111</v>
@@ -6942,7 +6939,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="5" t="s">
         <v>117</v>
@@ -6957,7 +6954,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="5" t="s">
         <v>119</v>
@@ -6972,7 +6969,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>125</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
@@ -7000,7 +6997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>128</v>
       </c>
@@ -7014,7 +7011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>129</v>
       </c>
@@ -7028,7 +7025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>130</v>
       </c>
@@ -7042,7 +7039,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
         <v>131</v>
       </c>
@@ -7056,7 +7053,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>132</v>
       </c>
@@ -7070,7 +7067,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>133</v>
       </c>
@@ -7084,7 +7081,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>167</v>
       </c>
@@ -7098,7 +7095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
         <v>138</v>
@@ -7113,7 +7110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="65"/>
       <c r="B49" s="5" t="s">
         <v>140</v>
@@ -7128,7 +7125,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
       <c r="B50" s="5" t="s">
         <v>142</v>
@@ -7143,7 +7140,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
         <v>141</v>
@@ -7158,7 +7155,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
         <v>143</v>
@@ -7173,7 +7170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
         <v>144</v>
@@ -7188,7 +7185,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="5" t="s">
         <v>148</v>
@@ -7203,7 +7200,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
       <c r="B55" s="5" t="s">
         <v>145</v>
@@ -7218,7 +7215,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="5" t="s">
         <v>147</v>
@@ -7233,7 +7230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="5" t="s">
         <v>165</v>
@@ -7248,7 +7245,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="5" t="s">
         <v>163</v>
@@ -7263,7 +7260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="5" t="s">
         <v>166</v>
@@ -7278,7 +7275,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="96" t="s">
         <v>68</v>
       </c>
@@ -7292,7 +7289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="65" t="s">
         <v>79</v>
       </c>
@@ -7309,7 +7306,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="65"/>
       <c r="B65" s="65" t="s">
         <v>74</v>
@@ -7324,7 +7321,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="65"/>
       <c r="B66" s="65" t="s">
         <v>156</v>
@@ -7339,7 +7336,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="65"/>
       <c r="B67" s="65"/>
       <c r="C67" s="65"/>
@@ -7347,7 +7344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="96" t="s">
         <v>68</v>
       </c>
@@ -7361,7 +7358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="65" t="s">
         <v>80</v>
       </c>
@@ -7378,7 +7375,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="65"/>
       <c r="B70" s="65" t="s">
         <v>82</v>
@@ -7393,7 +7390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="65"/>
       <c r="B71" s="65" t="s">
         <v>171</v>
@@ -7408,7 +7405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="65"/>
       <c r="B72" s="65" t="s">
         <v>168</v>
@@ -7423,7 +7420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="65"/>
       <c r="B73" s="65" t="s">
         <v>172</v>
@@ -7438,7 +7435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="65"/>
       <c r="B74" s="65" t="s">
         <v>173</v>
@@ -7453,7 +7450,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="65"/>
       <c r="B75" s="65" t="s">
         <v>174</v>
@@ -7468,7 +7465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="65"/>
       <c r="B76" s="65" t="s">
         <v>175</v>
@@ -7483,7 +7480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="65"/>
       <c r="B77" s="65" t="s">
         <v>177</v>
@@ -7498,7 +7495,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
         <v>176</v>
@@ -7513,7 +7510,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
         <v>178</v>
@@ -7528,7 +7525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" s="65" t="s">
         <v>179</v>
       </c>
@@ -7542,7 +7539,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B81" s="65" t="s">
         <v>181</v>
       </c>
@@ -7556,7 +7553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" s="65" t="s">
         <v>185</v>
       </c>
@@ -7570,7 +7567,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" s="65" t="s">
         <v>186</v>
       </c>
@@ -7584,7 +7581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" s="65" t="s">
         <v>187</v>
       </c>
@@ -7598,7 +7595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B85" s="65" t="s">
         <v>188</v>
       </c>
@@ -7612,7 +7609,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B86" s="65" t="s">
         <v>190</v>
       </c>
@@ -7626,7 +7623,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" s="65" t="s">
         <v>191</v>
       </c>
@@ -7640,7 +7637,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" s="65"/>
       <c r="C88" s="65"/>
       <c r="D88" s="65" t="s">
@@ -7650,7 +7647,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
       <c r="D89" s="65" t="s">
@@ -7660,7 +7657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
       <c r="D90" s="65" t="s">
@@ -7670,7 +7667,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
       <c r="D91" s="65" t="s">
@@ -7680,7 +7677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
       <c r="D92" s="65" t="s">
@@ -7690,7 +7687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D93" s="65" t="s">
         <v>169</v>
       </c>
@@ -7698,7 +7695,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="96" t="s">
         <v>68</v>
       </c>
@@ -7715,13 +7712,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="65"/>
       <c r="E96" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="65"/>
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
@@ -7729,412 +7726,412 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="65"/>
       <c r="B98" s="65"/>
       <c r="C98" s="65"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="65"/>
       <c r="B99" s="65"/>
       <c r="C99" s="65"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="65"/>
       <c r="B103" s="65"/>
       <c r="C103" s="65"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="65"/>
       <c r="B104" s="65"/>
       <c r="C104" s="65"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="65"/>
       <c r="B105" s="65"/>
       <c r="C105" s="65"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="65"/>
       <c r="B106" s="65"/>
       <c r="C106" s="65"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="65"/>
       <c r="B107" s="65"/>
       <c r="C107" s="65"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="65"/>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="65"/>
       <c r="B113" s="65"/>
       <c r="C113" s="65"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="65"/>
       <c r="B114" s="65"/>
       <c r="C114" s="65"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="65"/>
       <c r="B115" s="65"/>
       <c r="C115" s="65"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="65"/>
       <c r="B116" s="65"/>
       <c r="C116" s="65"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="65"/>
       <c r="B117" s="65"/>
       <c r="C117" s="65"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="65"/>
       <c r="B118" s="65"/>
       <c r="C118" s="65"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FCEDED-AFC7-4C9D-B388-F58C2E936180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A31565A-907B-4B69-9F18-7DA907292774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="197">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -895,6 +895,22 @@
   </si>
   <si>
     <t>MinimapOn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkullGearPopupOn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkullGearPopupOff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컬기어 팝업 켜기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컬기어 팝업 끄기</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1664,6 +1680,12 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1675,12 +1697,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2265,7 +2281,7 @@
       <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2279,7 +2295,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2307,115 +2323,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2651,7 +2667,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +2918,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2970,7 +2986,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3060,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3130,7 +3146,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3216,7 +3232,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>67</v>
@@ -3300,7 +3316,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>66</v>
@@ -3384,7 +3400,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3468,7 +3484,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>58</v>
@@ -3549,7 +3565,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3633,7 +3649,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3717,7 +3733,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3791,7 +3807,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3875,7 +3891,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -3959,7 +3975,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -4043,7 +4059,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="44"/>
       <c r="B21" s="59" t="s">
         <v>52</v>
@@ -4124,7 +4140,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4208,7 +4224,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4282,7 +4298,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4366,7 +4382,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4450,7 +4466,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4524,7 +4540,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>53</v>
@@ -4608,7 +4624,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4692,7 +4708,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>55</v>
@@ -4776,7 +4792,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>59</v>
@@ -4857,7 +4873,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>56</v>
@@ -4941,7 +4957,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -5025,7 +5041,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5109,7 +5125,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5193,7 +5209,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5277,7 +5293,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5351,7 +5367,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="44"/>
       <c r="B37" s="94" t="s">
         <v>60</v>
@@ -5435,7 +5451,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="44"/>
       <c r="B38" s="94" t="s">
         <v>61</v>
@@ -5519,7 +5535,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="44"/>
       <c r="B39" s="79" t="s">
         <v>49</v>
@@ -5603,7 +5619,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="44"/>
       <c r="B40" s="79" t="s">
         <v>50</v>
@@ -5687,7 +5703,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5761,7 +5777,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="44"/>
       <c r="B42" s="89" t="s">
         <v>54</v>
@@ -5845,7 +5861,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="44"/>
       <c r="B43" s="89" t="s">
         <v>57</v>
@@ -5929,7 +5945,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="44"/>
       <c r="B44" s="95" t="s">
         <v>65</v>
@@ -6013,7 +6029,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="44"/>
       <c r="B45" s="95" t="s">
         <v>64</v>
@@ -6097,7 +6113,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A46" s="44"/>
       <c r="B46" s="95" t="s">
         <v>63</v>
@@ -6181,7 +6197,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A47" s="44"/>
       <c r="B47" s="95" t="s">
         <v>62</v>
@@ -6265,7 +6281,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6341,17 +6357,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6437,11 +6453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6451,7 +6467,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="96" t="s">
         <v>68</v>
       </c>
@@ -6468,7 +6484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
@@ -6485,7 +6501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>94</v>
@@ -6500,7 +6516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>95</v>
@@ -6515,7 +6531,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>96</v>
@@ -6530,7 +6546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>134</v>
@@ -6545,7 +6561,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>135</v>
@@ -6560,7 +6576,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>98</v>
@@ -6575,7 +6591,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>100</v>
@@ -6590,7 +6606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>121</v>
@@ -6605,7 +6621,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>122</v>
@@ -6620,7 +6636,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>104</v>
@@ -6635,7 +6651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>105</v>
@@ -6650,7 +6666,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>113</v>
@@ -6665,7 +6681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>116</v>
@@ -6680,7 +6696,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>150</v>
@@ -6695,7 +6711,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>151</v>
@@ -6710,7 +6726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>157</v>
@@ -6725,7 +6741,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>159</v>
@@ -6740,7 +6756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>160</v>
@@ -6755,7 +6771,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" s="65"/>
       <c r="B21" s="65" t="s">
         <v>89</v>
@@ -6770,7 +6786,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>192</v>
@@ -6785,7 +6801,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>182</v>
@@ -6800,55 +6816,71 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="100"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="100"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="65"/>
       <c r="E26" s="100"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="65"/>
       <c r="E27" s="100"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="65"/>
       <c r="E28" s="100"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="65"/>
       <c r="E29" s="100"/>
     </row>
-    <row r="30" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A32" s="96" t="s">
         <v>68</v>
       </c>
@@ -6865,7 +6897,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A33" s="65" t="s">
         <v>69</v>
       </c>
@@ -6885,7 +6917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A34" s="65"/>
       <c r="B34" s="5" t="s">
         <v>102</v>
@@ -6903,7 +6935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A35" s="65"/>
       <c r="B35" s="5" t="s">
         <v>109</v>
@@ -6921,7 +6953,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A36" s="65"/>
       <c r="B36" s="5" t="s">
         <v>111</v>
@@ -6939,7 +6971,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A37" s="65"/>
       <c r="B37" s="5" t="s">
         <v>117</v>
@@ -6954,7 +6986,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38" s="65"/>
       <c r="B38" s="5" t="s">
         <v>119</v>
@@ -6969,7 +7001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B39" s="5" t="s">
         <v>125</v>
       </c>
@@ -6983,7 +7015,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
@@ -6997,7 +7029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B41" s="5" t="s">
         <v>128</v>
       </c>
@@ -7011,7 +7043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B42" s="5" t="s">
         <v>129</v>
       </c>
@@ -7025,7 +7057,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B43" s="5" t="s">
         <v>130</v>
       </c>
@@ -7039,7 +7071,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B44" s="5" t="s">
         <v>131</v>
       </c>
@@ -7053,7 +7085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B45" s="5" t="s">
         <v>132</v>
       </c>
@@ -7067,7 +7099,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B46" s="5" t="s">
         <v>133</v>
       </c>
@@ -7081,7 +7113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B47" s="5" t="s">
         <v>167</v>
       </c>
@@ -7095,7 +7127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
         <v>138</v>
@@ -7110,7 +7142,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" s="65"/>
       <c r="B49" s="5" t="s">
         <v>140</v>
@@ -7125,7 +7157,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" s="65"/>
       <c r="B50" s="5" t="s">
         <v>142</v>
@@ -7140,7 +7172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
         <v>141</v>
@@ -7155,7 +7187,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
         <v>143</v>
@@ -7170,7 +7202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
         <v>144</v>
@@ -7185,7 +7217,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="65"/>
       <c r="B54" s="5" t="s">
         <v>148</v>
@@ -7200,7 +7232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="65"/>
       <c r="B55" s="5" t="s">
         <v>145</v>
@@ -7215,7 +7247,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="65"/>
       <c r="B56" s="5" t="s">
         <v>147</v>
@@ -7230,7 +7262,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="65"/>
       <c r="B57" s="5" t="s">
         <v>165</v>
@@ -7245,7 +7277,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="65"/>
       <c r="B58" s="5" t="s">
         <v>163</v>
@@ -7260,7 +7292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
       <c r="B59" s="5" t="s">
         <v>166</v>
@@ -7275,7 +7307,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" s="96" t="s">
         <v>68</v>
       </c>
@@ -7289,7 +7321,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" s="65" t="s">
         <v>79</v>
       </c>
@@ -7306,7 +7338,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A65" s="65"/>
       <c r="B65" s="65" t="s">
         <v>74</v>
@@ -7321,7 +7353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A66" s="65"/>
       <c r="B66" s="65" t="s">
         <v>156</v>
@@ -7336,7 +7368,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A67" s="65"/>
       <c r="B67" s="65"/>
       <c r="C67" s="65"/>
@@ -7344,7 +7376,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A68" s="96" t="s">
         <v>68</v>
       </c>
@@ -7358,7 +7390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="65" t="s">
         <v>80</v>
       </c>
@@ -7375,7 +7407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="65"/>
       <c r="B70" s="65" t="s">
         <v>82</v>
@@ -7390,7 +7422,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="65"/>
       <c r="B71" s="65" t="s">
         <v>171</v>
@@ -7405,7 +7437,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A72" s="65"/>
       <c r="B72" s="65" t="s">
         <v>168</v>
@@ -7420,7 +7452,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="65"/>
       <c r="B73" s="65" t="s">
         <v>172</v>
@@ -7435,7 +7467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="65"/>
       <c r="B74" s="65" t="s">
         <v>173</v>
@@ -7450,7 +7482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="65"/>
       <c r="B75" s="65" t="s">
         <v>174</v>
@@ -7465,7 +7497,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="65"/>
       <c r="B76" s="65" t="s">
         <v>175</v>
@@ -7480,7 +7512,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="65"/>
       <c r="B77" s="65" t="s">
         <v>177</v>
@@ -7495,7 +7527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
         <v>176</v>
@@ -7510,7 +7542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
         <v>178</v>
@@ -7525,7 +7557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B80" s="65" t="s">
         <v>179</v>
       </c>
@@ -7539,7 +7571,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B81" s="65" t="s">
         <v>181</v>
       </c>
@@ -7553,7 +7585,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B82" s="65" t="s">
         <v>185</v>
       </c>
@@ -7567,7 +7599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B83" s="65" t="s">
         <v>186</v>
       </c>
@@ -7581,7 +7613,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B84" s="65" t="s">
         <v>187</v>
       </c>
@@ -7595,7 +7627,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B85" s="65" t="s">
         <v>188</v>
       </c>
@@ -7609,7 +7641,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B86" s="65" t="s">
         <v>190</v>
       </c>
@@ -7623,7 +7655,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B87" s="65" t="s">
         <v>191</v>
       </c>
@@ -7637,7 +7669,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B88" s="65"/>
       <c r="C88" s="65"/>
       <c r="D88" s="65" t="s">
@@ -7647,7 +7679,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
       <c r="D89" s="65" t="s">
@@ -7657,7 +7689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
       <c r="D90" s="65" t="s">
@@ -7667,7 +7699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
       <c r="D91" s="65" t="s">
@@ -7677,7 +7709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
       <c r="D92" s="65" t="s">
@@ -7687,7 +7719,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="D93" s="65" t="s">
         <v>169</v>
       </c>
@@ -7695,7 +7727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A94" s="96" t="s">
         <v>68</v>
       </c>
@@ -7712,13 +7744,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A96" s="65"/>
       <c r="E96" s="102" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A97" s="65"/>
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
@@ -7726,412 +7758,412 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A98" s="65"/>
       <c r="B98" s="65"/>
       <c r="C98" s="65"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A99" s="65"/>
       <c r="B99" s="65"/>
       <c r="C99" s="65"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A103" s="65"/>
       <c r="B103" s="65"/>
       <c r="C103" s="65"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A104" s="65"/>
       <c r="B104" s="65"/>
       <c r="C104" s="65"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A105" s="65"/>
       <c r="B105" s="65"/>
       <c r="C105" s="65"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A106" s="65"/>
       <c r="B106" s="65"/>
       <c r="C106" s="65"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A107" s="65"/>
       <c r="B107" s="65"/>
       <c r="C107" s="65"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A108" s="65"/>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" s="65"/>
       <c r="B113" s="65"/>
       <c r="C113" s="65"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" s="65"/>
       <c r="B114" s="65"/>
       <c r="C114" s="65"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" s="65"/>
       <c r="B115" s="65"/>
       <c r="C115" s="65"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" s="65"/>
       <c r="B116" s="65"/>
       <c r="C116" s="65"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" s="65"/>
       <c r="B117" s="65"/>
       <c r="C117" s="65"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" s="65"/>
       <c r="B118" s="65"/>
       <c r="C118" s="65"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A31565A-907B-4B69-9F18-7DA907292774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97A774-E11F-46D3-851D-0F3CCFC91183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="202">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -249,19 +249,7 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>레이아나 자매 페이즈 1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이아나 자매 페이즈 2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>퀄리티 작업 및 추가 컨텐츠 (10 ~ 12주차)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수 시스템</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -911,6 +899,80 @@
   </si>
   <si>
     <t>스컬기어 팝업 끄기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContentLevel</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardWorldLightOn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardWorldLightOff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 라이트효과 끄기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 라이트효과 켜기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">레이아나 자매 페이즈 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[구현 안함]</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>레이아나 자매 페이즈 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [구현 안함]</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">정수 시스템 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[구현 안함]</t>
+    </r>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1608,9 +1670,6 @@
     <xf numFmtId="177" fontId="5" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1697,6 +1756,9 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2276,12 +2338,12 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2295,7 +2357,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2323,115 +2385,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="103"/>
+      <c r="E3" s="107">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="104">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="104">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="104">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="104">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="104">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="105"/>
+      <c r="AN4" s="105"/>
+      <c r="AO4" s="105"/>
+      <c r="AP4" s="105"/>
+      <c r="AQ4" s="105"/>
+      <c r="AR4" s="106"/>
+      <c r="AS4" s="104">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="105"/>
+      <c r="AU4" s="105"/>
+      <c r="AV4" s="105"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="105"/>
+      <c r="AY4" s="106"/>
+      <c r="AZ4" s="104">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="105"/>
+      <c r="BB4" s="105"/>
+      <c r="BC4" s="105"/>
+      <c r="BD4" s="105"/>
+      <c r="BE4" s="105"/>
+      <c r="BF4" s="106"/>
+      <c r="BG4" s="104">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="105"/>
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="105"/>
+      <c r="BL4" s="105"/>
+      <c r="BM4" s="106"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2667,7 +2729,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2918,7 +2980,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -2986,7 +3048,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -3060,7 +3122,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3146,7 +3208,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3232,10 +3294,10 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>24</v>
@@ -3316,10 +3378,10 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>24</v>
@@ -3400,7 +3462,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3484,10 +3546,10 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>24</v>
@@ -3565,7 +3627,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3649,7 +3711,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3733,7 +3795,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3807,7 +3869,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3891,7 +3953,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -3975,7 +4037,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -4059,10 +4121,10 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
-      <c r="B21" s="59" t="s">
-        <v>52</v>
+      <c r="B21" s="108" t="s">
+        <v>201</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>24</v>
@@ -4140,7 +4202,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4224,7 +4286,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4298,7 +4360,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4382,7 +4444,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4466,7 +4528,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4540,10 +4602,10 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" s="57" t="s">
         <v>25</v>
@@ -4624,7 +4686,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4633,7 +4695,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="73">
         <f t="shared" ref="E28:E35" si="12">G27 + 1</f>
@@ -4708,10 +4770,10 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>25</v>
@@ -4792,10 +4854,10 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" s="57" t="s">
         <v>25</v>
@@ -4873,10 +4935,10 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>25</v>
@@ -4957,7 +5019,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -5041,7 +5103,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5125,7 +5187,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5209,7 +5271,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5293,7 +5355,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5367,25 +5429,25 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44"/>
-      <c r="B37" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="80" t="s">
+      <c r="B37" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="81">
+      <c r="D37" s="80">
         <v>0</v>
       </c>
-      <c r="E37" s="82">
+      <c r="E37" s="81">
         <f>G35 + 1</f>
         <v>45099</v>
       </c>
-      <c r="F37" s="83">
+      <c r="F37" s="82">
         <v>1</v>
       </c>
-      <c r="G37" s="82">
+      <c r="G37" s="81">
         <f>SUM(E37,F37)</f>
         <v>45100</v>
       </c>
@@ -5451,25 +5513,25 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
-      <c r="B38" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="80" t="s">
+      <c r="B38" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="81">
+      <c r="D38" s="80">
         <v>0</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="81">
         <f>G37 + 1</f>
         <v>45101</v>
       </c>
-      <c r="F38" s="83">
+      <c r="F38" s="82">
         <v>1</v>
       </c>
-      <c r="G38" s="82">
+      <c r="G38" s="81">
         <f>SUM(E38,F38)</f>
         <v>45102</v>
       </c>
@@ -5535,25 +5597,25 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44"/>
-      <c r="B39" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="80" t="s">
+      <c r="B39" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="81">
+      <c r="D39" s="80">
         <v>0</v>
       </c>
-      <c r="E39" s="82">
+      <c r="E39" s="81">
         <f>G38 + 1</f>
         <v>45103</v>
       </c>
-      <c r="F39" s="83">
+      <c r="F39" s="82">
         <v>4</v>
       </c>
-      <c r="G39" s="82">
+      <c r="G39" s="81">
         <f>SUM(E39,F39)</f>
         <v>45107</v>
       </c>
@@ -5619,25 +5681,25 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
-      <c r="B40" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="80" t="s">
+      <c r="B40" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="81">
+      <c r="D40" s="80">
         <v>0</v>
       </c>
-      <c r="E40" s="82">
+      <c r="E40" s="81">
         <f>G39 + 1</f>
         <v>45108</v>
       </c>
-      <c r="F40" s="83">
+      <c r="F40" s="82">
         <v>4</v>
       </c>
-      <c r="G40" s="82">
+      <c r="G40" s="81">
         <f>SUM(E40,F40)</f>
         <v>45112</v>
       </c>
@@ -5703,18 +5765,18 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="88"/>
+      <c r="B41" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="87"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5777,25 +5839,25 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
-      <c r="B42" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="90" t="s">
+      <c r="B42" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="91">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="92">
+      <c r="D42" s="90">
+        <v>1</v>
+      </c>
+      <c r="E42" s="91">
         <f>G40 + 1</f>
         <v>45113</v>
       </c>
-      <c r="F42" s="93">
+      <c r="F42" s="92">
         <v>0</v>
       </c>
-      <c r="G42" s="92">
+      <c r="G42" s="91">
         <f t="shared" ref="G42:G47" si="15">SUM(E42,F42)</f>
         <v>45113</v>
       </c>
@@ -5861,25 +5923,25 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
-      <c r="B43" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="90" t="s">
+      <c r="B43" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="91">
-        <v>0.2</v>
-      </c>
-      <c r="E43" s="92">
+      <c r="D43" s="90">
+        <v>0.3</v>
+      </c>
+      <c r="E43" s="91">
         <f>G42</f>
         <v>45113</v>
       </c>
-      <c r="F43" s="93">
+      <c r="F43" s="92">
         <v>0</v>
       </c>
-      <c r="G43" s="92">
+      <c r="G43" s="91">
         <f t="shared" si="15"/>
         <v>45113</v>
       </c>
@@ -5945,25 +6007,25 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
-      <c r="B44" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="90" t="s">
+      <c r="B44" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="91">
+      <c r="D44" s="90">
         <v>0</v>
       </c>
-      <c r="E44" s="92">
+      <c r="E44" s="91">
         <f>G43</f>
         <v>45113</v>
       </c>
-      <c r="F44" s="93">
+      <c r="F44" s="92">
         <v>0</v>
       </c>
-      <c r="G44" s="92">
+      <c r="G44" s="91">
         <f t="shared" si="15"/>
         <v>45113</v>
       </c>
@@ -6029,25 +6091,25 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
-      <c r="B45" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="90" t="s">
+      <c r="B45" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="91">
+      <c r="D45" s="90">
         <v>0</v>
       </c>
-      <c r="E45" s="92">
+      <c r="E45" s="91">
         <f>G44</f>
         <v>45113</v>
       </c>
-      <c r="F45" s="93">
+      <c r="F45" s="92">
         <v>0</v>
       </c>
-      <c r="G45" s="92">
+      <c r="G45" s="91">
         <f t="shared" si="15"/>
         <v>45113</v>
       </c>
@@ -6113,25 +6175,25 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44"/>
-      <c r="B46" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="90" t="s">
+      <c r="B46" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="91">
+      <c r="D46" s="90">
         <v>0</v>
       </c>
-      <c r="E46" s="92">
+      <c r="E46" s="91">
         <f>G45</f>
         <v>45113</v>
       </c>
-      <c r="F46" s="93">
+      <c r="F46" s="92">
         <v>0</v>
       </c>
-      <c r="G46" s="92">
+      <c r="G46" s="91">
         <f t="shared" si="15"/>
         <v>45113</v>
       </c>
@@ -6197,25 +6259,25 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
-      <c r="B47" s="95" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="90" t="s">
+      <c r="B47" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="91">
+      <c r="D47" s="90">
         <v>0</v>
       </c>
-      <c r="E47" s="92">
+      <c r="E47" s="91">
         <f>G46</f>
         <v>45113</v>
       </c>
-      <c r="F47" s="93">
+      <c r="F47" s="92">
         <v>0</v>
       </c>
-      <c r="G47" s="92">
+      <c r="G47" s="91">
         <f t="shared" si="15"/>
         <v>45113</v>
       </c>
@@ -6281,7 +6343,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6453,11 +6515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6467,1703 +6529,1719 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A1" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="97" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="97" t="s">
+      <c r="C2" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+        <v>105</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E13" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+        <v>105</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+        <v>105</v>
+      </c>
+      <c r="E15" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E18" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E23" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="E26" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="100"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="100"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="C27" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="65"/>
-      <c r="E28" s="100"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E28" s="99"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="65"/>
-      <c r="E29" s="100"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E29" s="99"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A32" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="97" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="100" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A33" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="F33" s="99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="65"/>
       <c r="B34" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="98" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="65"/>
       <c r="B35" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E35" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="65"/>
       <c r="B36" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="65"/>
       <c r="B37" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E37" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="65"/>
       <c r="B38" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B40" s="5" t="s">
+      <c r="C42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B41" s="5" t="s">
+      <c r="C43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B42" s="5" t="s">
+      <c r="C44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B43" s="5" t="s">
+      <c r="C45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B45" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B46" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E46" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E47" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E48" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="65"/>
       <c r="B49" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E49" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
       <c r="B50" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E50" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E51" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E52" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E53" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E54" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
       <c r="B55" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E55" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E56" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E57" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="E58" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A63" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="97" t="s">
+      <c r="C64" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="97" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A64" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="65" t="s">
-        <v>73</v>
-      </c>
       <c r="D64" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E64" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="65"/>
       <c r="B65" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E65" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="65"/>
       <c r="B66" s="65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E66" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+        <v>151</v>
+      </c>
+      <c r="E66" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="65"/>
       <c r="B67" s="65"/>
       <c r="C67" s="65"/>
-      <c r="E67" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A68" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="97" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E67" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>83</v>
-      </c>
       <c r="D69" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E69" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E69" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="65"/>
       <c r="B70" s="65" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D70" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+        <v>74</v>
+      </c>
+      <c r="E70" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="65"/>
       <c r="B71" s="65" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C71" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E71" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E71" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="65"/>
       <c r="B72" s="65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C72" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D72" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E72" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E72" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="65"/>
       <c r="B73" s="65" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E73" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E73" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="65"/>
       <c r="B74" s="65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C74" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E74" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="65"/>
       <c r="B75" s="65" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C75" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E75" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E75" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="65"/>
       <c r="B76" s="65" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E76" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="65"/>
       <c r="B77" s="65" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C77" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E77" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D78" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E78" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E78" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="C79" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E79" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B80" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E80" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B81" s="65" t="s">
-        <v>181</v>
-      </c>
       <c r="C81" s="65" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E81" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E81" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="C82" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E82" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B83" s="65" t="s">
+      <c r="C85" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="C83" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E83" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B84" s="65" t="s">
+      <c r="D85" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="C84" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E84" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B85" s="65" t="s">
+      <c r="C86" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E86" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E85" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B86" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E86" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B87" s="65" t="s">
-        <v>191</v>
-      </c>
       <c r="C87" s="65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D87" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E87" s="101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E87" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" s="65"/>
       <c r="C88" s="65"/>
       <c r="D88" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E88" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E88" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" s="65"/>
       <c r="C89" s="65"/>
       <c r="D89" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E89" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E89" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" s="65"/>
       <c r="C90" s="65"/>
       <c r="D90" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E90" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E90" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
       <c r="D91" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E91" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E91" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
       <c r="D92" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E92" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E92" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D93" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A94" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="D94" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" s="97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+        <v>166</v>
+      </c>
+      <c r="E93" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="65"/>
-      <c r="E96" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E96" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="65"/>
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
-      <c r="E97" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E97" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="65"/>
       <c r="B98" s="65"/>
       <c r="C98" s="65"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="65"/>
       <c r="B99" s="65"/>
       <c r="C99" s="65"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="65"/>
       <c r="B103" s="65"/>
       <c r="C103" s="65"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="65"/>
       <c r="B104" s="65"/>
       <c r="C104" s="65"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="65"/>
       <c r="B105" s="65"/>
       <c r="C105" s="65"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="65"/>
       <c r="B106" s="65"/>
       <c r="C106" s="65"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="65"/>
       <c r="B107" s="65"/>
       <c r="C107" s="65"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="65"/>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="65"/>
       <c r="B113" s="65"/>
       <c r="C113" s="65"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="65"/>
       <c r="B114" s="65"/>
       <c r="C114" s="65"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="65"/>
       <c r="B115" s="65"/>
       <c r="C115" s="65"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="65"/>
       <c r="B116" s="65"/>
       <c r="C116" s="65"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="65"/>
       <c r="B117" s="65"/>
       <c r="C117" s="65"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="65"/>
       <c r="B118" s="65"/>
       <c r="C118" s="65"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97A774-E11F-46D3-851D-0F3CCFC91183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7163671-B689-4534-B253-57BA945B91A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="208">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -973,6 +973,30 @@
       </rPr>
       <t>[구현 안함]</t>
     </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkullGearPopupCheck</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컬기어 팝업이 꺼져있을 경우 On</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseKeyOn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseKeyOff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseKey On</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseKey Off</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1739,26 +1763,26 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1777,32 +1801,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1862,6 +1860,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -2061,8 +2085,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F33:F36" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="F33:F36" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F36:F39" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F36:F39" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
   </tableColumns>
@@ -2338,12 +2362,12 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2357,7 +2381,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2385,115 +2409,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="107">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="104">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="104">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="104">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="104">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="104">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="105"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="104">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="105"/>
-      <c r="AY4" s="106"/>
-      <c r="AZ4" s="104">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="105"/>
-      <c r="BE4" s="105"/>
-      <c r="BF4" s="106"/>
-      <c r="BG4" s="104">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="105"/>
-      <c r="BI4" s="105"/>
-      <c r="BJ4" s="105"/>
-      <c r="BK4" s="105"/>
-      <c r="BL4" s="105"/>
-      <c r="BM4" s="106"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2729,7 +2753,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -2980,7 +3004,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -3048,7 +3072,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -3122,7 +3146,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3208,7 +3232,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3294,7 +3318,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>64</v>
@@ -3378,7 +3402,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>63</v>
@@ -3462,7 +3486,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3546,7 +3570,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>55</v>
@@ -3627,7 +3651,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3711,7 +3735,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3795,7 +3819,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3869,7 +3893,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -3953,7 +3977,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -4037,7 +4061,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -4121,9 +4145,9 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="44"/>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="102" t="s">
         <v>201</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -4202,7 +4226,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4286,7 +4310,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4360,7 +4384,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4444,7 +4468,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4528,7 +4552,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4602,7 +4626,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>50</v>
@@ -4686,7 +4710,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4770,7 +4794,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>52</v>
@@ -4854,7 +4878,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>56</v>
@@ -4935,7 +4959,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>53</v>
@@ -5019,7 +5043,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -5103,7 +5127,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5187,7 +5211,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5271,7 +5295,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5355,7 +5379,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5429,7 +5453,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="44"/>
       <c r="B37" s="93" t="s">
         <v>57</v>
@@ -5513,7 +5537,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="44"/>
       <c r="B38" s="93" t="s">
         <v>58</v>
@@ -5597,7 +5621,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="44"/>
       <c r="B39" s="93" t="s">
         <v>200</v>
@@ -5681,7 +5705,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="44"/>
       <c r="B40" s="93" t="s">
         <v>199</v>
@@ -5765,7 +5789,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5839,7 +5863,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="44"/>
       <c r="B42" s="88" t="s">
         <v>51</v>
@@ -5923,7 +5947,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="44"/>
       <c r="B43" s="88" t="s">
         <v>54</v>
@@ -6007,7 +6031,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="44"/>
       <c r="B44" s="94" t="s">
         <v>62</v>
@@ -6091,7 +6115,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="44"/>
       <c r="B45" s="94" t="s">
         <v>61</v>
@@ -6175,7 +6199,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A46" s="44"/>
       <c r="B46" s="94" t="s">
         <v>60</v>
@@ -6259,7 +6283,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A47" s="44"/>
       <c r="B47" s="94" t="s">
         <v>59</v>
@@ -6343,7 +6367,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6419,17 +6443,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6447,28 +6471,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="6" priority="42">
+    <cfRule type="expression" dxfId="5" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="5" priority="36">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6513,13 +6537,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6529,7 +6553,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="95" t="s">
         <v>65</v>
       </c>
@@ -6546,7 +6570,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -6563,7 +6587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>91</v>
@@ -6578,7 +6602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>92</v>
@@ -6593,7 +6617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>93</v>
@@ -6608,7 +6632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>131</v>
@@ -6623,7 +6647,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>132</v>
@@ -6638,7 +6662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -6653,7 +6677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>97</v>
@@ -6668,7 +6692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>118</v>
@@ -6683,7 +6707,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>119</v>
@@ -6698,7 +6722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>101</v>
@@ -6713,7 +6737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>102</v>
@@ -6728,7 +6752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>110</v>
@@ -6743,7 +6767,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>113</v>
@@ -6758,43 +6782,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E16" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E17" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>74</v>
@@ -6803,13 +6827,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>74</v>
@@ -6818,13 +6842,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D20" s="65" t="s">
         <v>74</v>
@@ -6833,13 +6857,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>75</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>74</v>
@@ -6848,13 +6872,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D22" s="65" t="s">
         <v>74</v>
@@ -6863,13 +6887,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>181</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>75</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>74</v>
@@ -6878,13 +6902,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D24" s="65" t="s">
         <v>74</v>
@@ -6893,13 +6917,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D25" s="65" t="s">
         <v>74</v>
@@ -6908,136 +6932,127 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="E26" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="E27" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="99"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="99"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="95" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="99"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="99"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A35" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B35" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C35" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D35" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="96" t="s">
+      <c r="E35" s="96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="65" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A36" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="98" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>89</v>
@@ -7049,13 +7064,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A37" s="65"/>
       <c r="B37" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>89</v>
@@ -7063,14 +7078,17 @@
       <c r="E37" s="100" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38" s="65"/>
       <c r="B38" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>89</v>
@@ -7078,13 +7096,17 @@
       <c r="E38" s="100" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A39" s="65"/>
       <c r="B39" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>89</v>
@@ -7092,13 +7114,17 @@
       <c r="E39" s="100" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A40" s="65"/>
       <c r="B40" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>89</v>
@@ -7107,12 +7133,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A41" s="65"/>
       <c r="B41" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>89</v>
@@ -7121,9 +7148,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B42" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>123</v>
@@ -7135,9 +7162,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B43" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>123</v>
@@ -7149,9 +7176,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B44" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>123</v>
@@ -7163,9 +7190,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B45" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>123</v>
@@ -7177,9 +7204,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B46" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>123</v>
@@ -7191,9 +7218,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B47" s="5" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>123</v>
@@ -7205,13 +7232,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="65"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B48" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>89</v>
@@ -7220,13 +7246,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="65"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B49" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>89</v>
@@ -7235,13 +7260,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B50" s="5" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>89</v>
@@ -7250,10 +7274,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>136</v>
@@ -7265,10 +7289,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>136</v>
@@ -7280,10 +7304,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>136</v>
@@ -7295,13 +7319,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="65"/>
       <c r="B54" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>89</v>
@@ -7310,13 +7334,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="65"/>
       <c r="B55" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>89</v>
@@ -7325,13 +7349,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="65"/>
       <c r="B56" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>89</v>
@@ -7340,13 +7364,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="65"/>
       <c r="B57" s="5" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>89</v>
@@ -7355,13 +7379,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="65"/>
       <c r="B58" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>89</v>
@@ -7370,13 +7394,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
       <c r="B59" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>89</v>
@@ -7385,170 +7409,170 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="95" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A60" s="65"/>
+      <c r="B60" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A61" s="65"/>
+      <c r="B61" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A62" s="65"/>
+      <c r="B62" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A66" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="96" t="s">
+      <c r="B66" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="96" t="s">
+      <c r="C66" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="96" t="s">
+      <c r="D66" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="65" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A67" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="65" t="s">
+      <c r="B67" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C67" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="65" t="s">
+      <c r="D67" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="100" t="s">
+      <c r="E67" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A68" s="65"/>
+      <c r="B68" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="65" t="s">
+      <c r="C68" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="65" t="s">
+      <c r="D68" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="100" t="s">
+      <c r="E68" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A69" s="65"/>
+      <c r="B69" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="65" t="s">
+      <c r="C69" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="E66" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="E67" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="65" t="s">
-        <v>74</v>
       </c>
       <c r="E69" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="65"/>
-      <c r="B70" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="65" t="s">
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="E70" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A71" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A72" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="65" t="s">
         <v>74</v>
-      </c>
-      <c r="E70" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
-      <c r="B71" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="E72" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A73" s="65"/>
       <c r="B73" s="65" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="E73" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="65"/>
       <c r="B74" s="65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C74" s="65" t="s">
         <v>167</v>
@@ -7560,10 +7584,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="65"/>
       <c r="B75" s="65" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C75" s="65" t="s">
         <v>167</v>
@@ -7575,10 +7599,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="65"/>
       <c r="B76" s="65" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C76" s="65" t="s">
         <v>167</v>
@@ -7590,10 +7614,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="65"/>
       <c r="B77" s="65" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C77" s="65" t="s">
         <v>167</v>
@@ -7605,10 +7629,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C78" s="65" t="s">
         <v>167</v>
@@ -7620,10 +7644,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C79" s="65" t="s">
         <v>167</v>
@@ -7635,9 +7659,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A80" s="65"/>
       <c r="B80" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C80" s="65" t="s">
         <v>167</v>
@@ -7649,12 +7674,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A81" s="65"/>
       <c r="B81" s="65" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C81" s="65" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D81" s="65" t="s">
         <v>166</v>
@@ -7663,12 +7689,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A82" s="65"/>
       <c r="B82" s="65" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D82" s="65" t="s">
         <v>166</v>
@@ -7677,12 +7704,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B83" s="65" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C83" s="65" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D83" s="65" t="s">
         <v>166</v>
@@ -7691,12 +7718,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B84" s="65" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C84" s="65" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D84" s="65" t="s">
         <v>166</v>
@@ -7705,9 +7732,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B85" s="65" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C85" s="65" t="s">
         <v>186</v>
@@ -7719,9 +7746,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B86" s="65" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C86" s="65" t="s">
         <v>186</v>
@@ -7733,9 +7760,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B87" s="65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C87" s="65" t="s">
         <v>186</v>
@@ -7747,37 +7774,49 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B88" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="65" t="s">
+        <v>186</v>
+      </c>
       <c r="D88" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E88" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
+      <c r="E88" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B89" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="65" t="s">
+        <v>186</v>
+      </c>
       <c r="D89" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E89" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
+      <c r="E89" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B90" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C90" s="65" t="s">
+        <v>186</v>
+      </c>
       <c r="D90" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E90" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B91" s="65"/>
       <c r="C91" s="65"/>
       <c r="D91" s="65" t="s">
@@ -7787,7 +7826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B92" s="65"/>
       <c r="C92" s="65"/>
       <c r="D92" s="65" t="s">
@@ -7797,7 +7836,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B93" s="65"/>
+      <c r="C93" s="65"/>
       <c r="D93" s="65" t="s">
         <v>166</v>
       </c>
@@ -7805,446 +7846,474 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="B94" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="D94" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="E94" s="96" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="65"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E95" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="D96" s="65" t="s">
+        <v>166</v>
+      </c>
       <c r="E96" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="65"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="E97" s="101" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A97" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D97" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" s="96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A99" s="65"/>
+      <c r="E99" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="65"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="65"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A100" s="65"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="E100" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A101" s="65"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A106" s="65"/>
       <c r="B106" s="65"/>
       <c r="C106" s="65"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A107" s="65"/>
       <c r="B107" s="65"/>
       <c r="C107" s="65"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A108" s="65"/>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" s="65"/>
       <c r="B113" s="65"/>
       <c r="C113" s="65"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" s="65"/>
       <c r="B114" s="65"/>
       <c r="C114" s="65"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" s="65"/>
       <c r="B115" s="65"/>
       <c r="C115" s="65"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" s="65"/>
       <c r="B116" s="65"/>
       <c r="C116" s="65"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" s="65"/>
       <c r="B117" s="65"/>
       <c r="C117" s="65"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" s="65"/>
       <c r="B118" s="65"/>
       <c r="C118" s="65"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A119" s="65"/>
+      <c r="B119" s="65"/>
+      <c r="C119" s="65"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A120" s="65"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A121" s="65"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="65"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7163671-B689-4534-B253-57BA945B91A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F196C2-C965-4A99-B6E7-307C8955DF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="214">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -997,6 +997,30 @@
   </si>
   <si>
     <t>UseKey Off</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsUIOn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodsUIOff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 UI 켜기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 UI 끄기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinimapOff_Force</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵 끄기 (연출 X)</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1766,6 +1790,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1777,12 +1807,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2085,8 +2109,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F36:F39" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="F36:F39" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F37:F40" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F37:F40" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
   </tableColumns>
@@ -2414,108 +2438,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
@@ -6443,17 +6467,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6537,10 +6561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6935,10 +6959,10 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D26" s="65" t="s">
         <v>74</v>
@@ -6950,10 +6974,10 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>74</v>
@@ -6965,10 +6989,10 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>74</v>
@@ -6980,13 +7004,13 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="E29" s="100" t="s">
         <v>85</v>
@@ -6995,10 +7019,10 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D30" s="65" t="s">
         <v>194</v>
@@ -7009,68 +7033,81 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="99"/>
+      <c r="B31" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="99"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B33" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A36" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B36" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C36" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="96" t="s">
+      <c r="D36" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E36" s="96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A36" s="65" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A37" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A37" s="65"/>
-      <c r="B37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>89</v>
@@ -7078,17 +7115,17 @@
       <c r="E37" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="97" t="s">
-        <v>84</v>
+      <c r="F37" s="99" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38" s="65"/>
       <c r="B38" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>89</v>
@@ -7096,17 +7133,17 @@
       <c r="E38" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="98" t="s">
-        <v>83</v>
+      <c r="F38" s="97" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A39" s="65"/>
       <c r="B39" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>89</v>
@@ -7114,32 +7151,35 @@
       <c r="E39" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="99" t="s">
-        <v>85</v>
+      <c r="F39" s="98" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A40" s="65"/>
       <c r="B40" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E40" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="99" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A41" s="65"/>
       <c r="B41" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>89</v>
@@ -7149,11 +7189,12 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>89</v>
@@ -7164,7 +7205,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B43" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>123</v>
@@ -7178,7 +7219,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B44" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>123</v>
@@ -7192,7 +7233,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B45" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>123</v>
@@ -7206,7 +7247,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B46" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>123</v>
@@ -7220,7 +7261,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B47" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>123</v>
@@ -7234,7 +7275,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B48" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>123</v>
@@ -7248,7 +7289,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B49" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>123</v>
@@ -7262,7 +7303,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B50" s="5" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>123</v>
@@ -7275,12 +7316,11 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A51" s="65"/>
       <c r="B51" s="5" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>89</v>
@@ -7292,7 +7332,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" s="65"/>
       <c r="B52" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>136</v>
@@ -7307,7 +7347,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>136</v>
@@ -7322,7 +7362,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="65"/>
       <c r="B54" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>136</v>
@@ -7337,7 +7377,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="65"/>
       <c r="B55" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>136</v>
@@ -7352,7 +7392,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="65"/>
       <c r="B56" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>136</v>
@@ -7367,10 +7407,10 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="65"/>
       <c r="B57" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>89</v>
@@ -7382,7 +7422,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="65"/>
       <c r="B58" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>143</v>
@@ -7397,7 +7437,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
       <c r="B59" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>143</v>
@@ -7412,10 +7452,10 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="65"/>
       <c r="B60" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>89</v>
@@ -7427,7 +7467,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" s="65"/>
       <c r="B61" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>161</v>
@@ -7442,7 +7482,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" s="65"/>
       <c r="B62" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>161</v>
@@ -7454,41 +7494,41 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A66" s="95" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A63" s="65"/>
+      <c r="B63" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A67" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="96" t="s">
+      <c r="B67" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="96" t="s">
+      <c r="C67" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D67" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A67" s="65" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A68" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B68" s="65" t="s">
         <v>68</v>
-      </c>
-      <c r="C67" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E67" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65" t="s">
-        <v>71</v>
       </c>
       <c r="C68" s="65" t="s">
         <v>70</v>
@@ -7503,13 +7543,13 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A69" s="65"/>
       <c r="B69" s="65" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>151</v>
+        <v>70</v>
+      </c>
+      <c r="D69" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="E69" s="100" t="s">
         <v>85</v>
@@ -7517,50 +7557,50 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A70" s="65"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="E70" s="101" t="s">
+      <c r="B70" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A71" s="65"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="E71" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A71" s="95" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A72" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B72" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="C72" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="96" t="s">
+      <c r="D72" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A72" s="65" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A73" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="65" t="s">
+      <c r="B73" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="65" t="s">
+      <c r="C73" s="65" t="s">
         <v>80</v>
-      </c>
-      <c r="D72" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A73" s="65"/>
-      <c r="B73" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="65" t="s">
-        <v>81</v>
       </c>
       <c r="D73" s="65" t="s">
         <v>74</v>
@@ -7572,13 +7612,13 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A74" s="65"/>
       <c r="B74" s="65" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="C74" s="65" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="E74" s="100" t="s">
         <v>85</v>
@@ -7587,7 +7627,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A75" s="65"/>
       <c r="B75" s="65" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C75" s="65" t="s">
         <v>167</v>
@@ -7602,7 +7642,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="65"/>
       <c r="B76" s="65" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C76" s="65" t="s">
         <v>167</v>
@@ -7617,7 +7657,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="65"/>
       <c r="B77" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="65" t="s">
         <v>167</v>
@@ -7632,7 +7672,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C78" s="65" t="s">
         <v>167</v>
@@ -7647,7 +7687,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C79" s="65" t="s">
         <v>167</v>
@@ -7662,7 +7702,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="65"/>
       <c r="B80" s="65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C80" s="65" t="s">
         <v>167</v>
@@ -7677,7 +7717,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A81" s="65"/>
       <c r="B81" s="65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" s="65" t="s">
         <v>167</v>
@@ -7692,7 +7732,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A82" s="65"/>
       <c r="B82" s="65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C82" s="65" t="s">
         <v>167</v>
@@ -7705,8 +7745,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A83" s="65"/>
       <c r="B83" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C83" s="65" t="s">
         <v>167</v>
@@ -7720,10 +7761,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B84" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C84" s="65" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D84" s="65" t="s">
         <v>166</v>
@@ -7734,10 +7775,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B85" s="65" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C85" s="65" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D85" s="65" t="s">
         <v>166</v>
@@ -7748,7 +7789,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B86" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C86" s="65" t="s">
         <v>186</v>
@@ -7762,7 +7803,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B87" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C87" s="65" t="s">
         <v>186</v>
@@ -7776,7 +7817,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B88" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C88" s="65" t="s">
         <v>186</v>
@@ -7790,7 +7831,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B89" s="65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C89" s="65" t="s">
         <v>186</v>
@@ -7804,7 +7845,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B90" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C90" s="65" t="s">
         <v>186</v>
@@ -7817,13 +7858,17 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
+      <c r="B91" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="65" t="s">
+        <v>186</v>
+      </c>
       <c r="D91" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E91" s="101" t="s">
-        <v>84</v>
+      <c r="E91" s="100" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.6">
@@ -7867,6 +7912,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
       <c r="D96" s="65" t="s">
         <v>166</v>
       </c>
@@ -7875,32 +7922,32 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A97" s="95" t="s">
+      <c r="D97" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E97" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A98" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B97" s="96" t="s">
+      <c r="B98" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C97" s="96" t="s">
+      <c r="C98" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D97" s="96" t="s">
+      <c r="D98" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E97" s="96" t="s">
+      <c r="E98" s="96" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A99" s="65"/>
-      <c r="E99" s="101" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
       <c r="E100" s="101" t="s">
         <v>84</v>
       </c>
@@ -7909,16 +7956,19 @@
       <c r="A101" s="65"/>
       <c r="B101" s="65"/>
       <c r="C101" s="65"/>
+      <c r="E101" s="101" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A102" s="65"/>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A106" s="65"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A103" s="65"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A107" s="65"/>
@@ -7996,9 +8046,9 @@
       <c r="C121" s="65"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
+      <c r="A122" s="65"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="65"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" s="5"/>
@@ -8314,6 +8364,11 @@
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F196C2-C965-4A99-B6E7-307C8955DF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5618FCF2-840D-41EB-BB3C-E919B575B5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1790,23 +1790,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1825,6 +1825,32 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1884,32 +1910,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -2109,7 +2109,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F37:F40" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F37:F40" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F37:F40" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
@@ -2438,108 +2438,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
@@ -6467,17 +6467,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6495,28 +6495,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="5" priority="42">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6563,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5618FCF2-840D-41EB-BB3C-E919B575B5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288C5F4-626A-4DC8-836D-994134B5F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1790,6 +1790,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1801,12 +1807,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2386,9 +2386,9 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X26" sqref="X26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
@@ -2438,108 +2438,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
@@ -4659,7 +4659,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="33">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="73">
         <f>G25 + 1</f>
@@ -4992,7 +4992,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="73">
         <f>G30</f>
@@ -6467,17 +6467,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6563,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288C5F4-626A-4DC8-836D-994134B5F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAD74E-B7FA-460A-BA46-2F8630D43001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="218">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -1021,6 +1021,22 @@
   </si>
   <si>
     <t>미니맵 끄기 (연출 X)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultOn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultOff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 결과창 켜기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 결과창 끄기</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1790,23 +1806,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1825,32 +1841,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1910,6 +1900,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -2109,8 +2125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F37:F40" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="F37:F40" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F38:F41" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F38:F41" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
   </tableColumns>
@@ -2386,12 +2402,12 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2405,7 +2421,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2433,115 +2449,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2777,7 +2793,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -3028,7 +3044,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +3112,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -3170,7 +3186,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3256,7 +3272,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3342,7 +3358,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>64</v>
@@ -3426,7 +3442,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>63</v>
@@ -3510,7 +3526,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3594,7 +3610,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>55</v>
@@ -3675,7 +3691,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3759,7 +3775,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3843,7 +3859,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3917,7 +3933,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -4001,7 +4017,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -4085,7 +4101,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -4169,7 +4185,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="102" t="s">
         <v>201</v>
@@ -4250,7 +4266,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4334,7 +4350,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4408,7 +4424,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4492,7 +4508,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4576,7 +4592,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4650,7 +4666,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>50</v>
@@ -4734,7 +4750,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4818,7 +4834,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>52</v>
@@ -4902,7 +4918,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>56</v>
@@ -4983,7 +4999,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>53</v>
@@ -5067,7 +5083,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -5151,7 +5167,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5235,7 +5251,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5319,7 +5335,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5403,7 +5419,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5477,7 +5493,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44"/>
       <c r="B37" s="93" t="s">
         <v>57</v>
@@ -5561,7 +5577,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="93" t="s">
         <v>58</v>
@@ -5645,7 +5661,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44"/>
       <c r="B39" s="93" t="s">
         <v>200</v>
@@ -5729,7 +5745,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
       <c r="B40" s="93" t="s">
         <v>199</v>
@@ -5813,7 +5829,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5887,7 +5903,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="88" t="s">
         <v>51</v>
@@ -5971,7 +5987,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="88" t="s">
         <v>54</v>
@@ -6055,7 +6071,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="94" t="s">
         <v>62</v>
@@ -6139,7 +6155,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="94" t="s">
         <v>61</v>
@@ -6223,7 +6239,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44"/>
       <c r="B46" s="94" t="s">
         <v>60</v>
@@ -6307,7 +6323,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
       <c r="B47" s="94" t="s">
         <v>59</v>
@@ -6391,7 +6407,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6467,17 +6483,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6495,28 +6511,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="6" priority="42">
+    <cfRule type="expression" dxfId="5" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="5" priority="36">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6561,13 +6577,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6577,7 +6593,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
         <v>65</v>
       </c>
@@ -6594,7 +6610,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -6611,7 +6627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>91</v>
@@ -6626,7 +6642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>92</v>
@@ -6641,7 +6657,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>93</v>
@@ -6656,7 +6672,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>131</v>
@@ -6671,7 +6687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>132</v>
@@ -6686,7 +6702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -6701,7 +6717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>97</v>
@@ -6716,7 +6732,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>118</v>
@@ -6731,7 +6747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>119</v>
@@ -6746,7 +6762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>101</v>
@@ -6761,7 +6777,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>102</v>
@@ -6776,7 +6792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>110</v>
@@ -6791,7 +6807,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>113</v>
@@ -6806,7 +6822,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>204</v>
@@ -6821,7 +6837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>205</v>
@@ -6836,7 +6852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>147</v>
@@ -6851,7 +6867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>148</v>
@@ -6866,7 +6882,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>154</v>
@@ -6881,7 +6897,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>156</v>
@@ -6896,7 +6912,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>157</v>
@@ -6911,7 +6927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
       <c r="B23" s="65" t="s">
         <v>86</v>
@@ -6926,7 +6942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>189</v>
@@ -6941,7 +6957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>179</v>
@@ -6956,7 +6972,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>212</v>
@@ -6971,7 +6987,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>190</v>
@@ -6986,7 +7002,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>191</v>
@@ -7001,7 +7017,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>202</v>
@@ -7016,7 +7032,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>195</v>
@@ -7031,7 +7047,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>196</v>
@@ -7046,7 +7062,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>208</v>
@@ -7061,7 +7077,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
         <v>209</v>
@@ -7076,56 +7092,65 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B34" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A36" s="95" t="s">
+      <c r="B35" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B37" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C37" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="D37" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="E37" s="96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A37" s="65" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A38" s="65"/>
-      <c r="B38" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>89</v>
@@ -7133,17 +7158,17 @@
       <c r="E38" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="F38" s="99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="65"/>
       <c r="B39" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>89</v>
@@ -7151,17 +7176,17 @@
       <c r="E39" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="98" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="F39" s="97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="65"/>
       <c r="B40" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>89</v>
@@ -7169,17 +7194,17 @@
       <c r="E40" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="F40" s="98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="65"/>
       <c r="B41" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>89</v>
@@ -7187,14 +7212,17 @@
       <c r="E41" s="100" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="F41" s="99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>89</v>
@@ -7203,12 +7231,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="65"/>
       <c r="B43" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>89</v>
@@ -7217,9 +7246,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>123</v>
@@ -7231,9 +7260,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>123</v>
@@ -7245,9 +7274,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>123</v>
@@ -7259,9 +7288,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>123</v>
@@ -7273,9 +7302,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>123</v>
@@ -7287,9 +7316,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>123</v>
@@ -7301,9 +7330,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>123</v>
@@ -7315,9 +7344,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>123</v>
@@ -7329,13 +7358,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A52" s="65"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>89</v>
@@ -7344,10 +7372,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="65"/>
       <c r="B53" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>136</v>
@@ -7359,10 +7387,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>136</v>
@@ -7374,10 +7402,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
       <c r="B55" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>136</v>
@@ -7389,10 +7417,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>136</v>
@@ -7404,10 +7432,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>136</v>
@@ -7419,13 +7447,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>89</v>
@@ -7434,10 +7462,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>143</v>
@@ -7449,10 +7477,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="65"/>
       <c r="B60" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>143</v>
@@ -7464,13 +7492,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>89</v>
@@ -7479,10 +7507,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="65"/>
       <c r="B62" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>161</v>
@@ -7494,10 +7522,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="65"/>
       <c r="B63" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>161</v>
@@ -7509,41 +7537,41 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A67" s="95" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="65"/>
+      <c r="B64" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="96" t="s">
+      <c r="B68" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="96" t="s">
+      <c r="C68" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="96" t="s">
+      <c r="D68" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A68" s="65" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B69" s="65" t="s">
         <v>68</v>
-      </c>
-      <c r="C68" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65" t="s">
-        <v>71</v>
       </c>
       <c r="C69" s="65" t="s">
         <v>70</v>
@@ -7555,67 +7583,67 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="65"/>
       <c r="B70" s="65" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>151</v>
+        <v>70</v>
+      </c>
+      <c r="D70" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="E70" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="65"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="E71" s="101" t="s">
+      <c r="B71" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="E72" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A72" s="95" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="96" t="s">
+      <c r="B73" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="96" t="s">
+      <c r="C73" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="96" t="s">
+      <c r="D73" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A73" s="65" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B74" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C74" s="65" t="s">
         <v>80</v>
-      </c>
-      <c r="D73" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="65" t="s">
-        <v>81</v>
       </c>
       <c r="D74" s="65" t="s">
         <v>74</v>
@@ -7624,25 +7652,25 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="65"/>
       <c r="B75" s="65" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="C75" s="65" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="E75" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="65"/>
       <c r="B76" s="65" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C76" s="65" t="s">
         <v>167</v>
@@ -7654,10 +7682,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="65"/>
       <c r="B77" s="65" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C77" s="65" t="s">
         <v>167</v>
@@ -7669,10 +7697,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" s="65" t="s">
         <v>167</v>
@@ -7684,10 +7712,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" s="65" t="s">
         <v>167</v>
@@ -7699,10 +7727,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="65"/>
       <c r="B80" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C80" s="65" t="s">
         <v>167</v>
@@ -7714,10 +7742,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="65"/>
       <c r="B81" s="65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C81" s="65" t="s">
         <v>167</v>
@@ -7729,10 +7757,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="65"/>
       <c r="B82" s="65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C82" s="65" t="s">
         <v>167</v>
@@ -7744,10 +7772,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="65"/>
       <c r="B83" s="65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C83" s="65" t="s">
         <v>167</v>
@@ -7759,9 +7787,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="65"/>
       <c r="B84" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C84" s="65" t="s">
         <v>167</v>
@@ -7773,12 +7802,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B85" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C85" s="65" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D85" s="65" t="s">
         <v>166</v>
@@ -7787,12 +7816,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B86" s="65" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C86" s="65" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D86" s="65" t="s">
         <v>166</v>
@@ -7801,9 +7830,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C87" s="65" t="s">
         <v>186</v>
@@ -7815,9 +7844,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C88" s="65" t="s">
         <v>186</v>
@@ -7829,9 +7858,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C89" s="65" t="s">
         <v>186</v>
@@ -7843,9 +7872,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" s="65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C90" s="65" t="s">
         <v>186</v>
@@ -7857,9 +7886,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" s="65" t="s">
         <v>186</v>
@@ -7871,17 +7900,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="65" t="s">
+        <v>186</v>
+      </c>
       <c r="D92" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E92" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E92" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B93" s="65"/>
       <c r="C93" s="65"/>
       <c r="D93" s="65" t="s">
@@ -7891,7 +7924,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B94" s="65"/>
       <c r="C94" s="65"/>
       <c r="D94" s="65" t="s">
@@ -7901,7 +7934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B95" s="65"/>
       <c r="C95" s="65"/>
       <c r="D95" s="65" t="s">
@@ -7911,7 +7944,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65" t="s">
@@ -7921,7 +7954,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="65"/>
+      <c r="C97" s="65"/>
       <c r="D97" s="65" t="s">
         <v>166</v>
       </c>
@@ -7929,446 +7964,454 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A98" s="95" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D98" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B98" s="96" t="s">
+      <c r="B99" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="96" t="s">
+      <c r="C99" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D98" s="96" t="s">
+      <c r="D99" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E98" s="96" t="s">
+      <c r="E99" s="96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A100" s="65"/>
-      <c r="E100" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="65"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
       <c r="E101" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="65"/>
       <c r="B102" s="65"/>
       <c r="C102" s="65"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="E102" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="65"/>
       <c r="B103" s="65"/>
       <c r="C103" s="65"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A107" s="65"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="65"/>
       <c r="B108" s="65"/>
       <c r="C108" s="65"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="65"/>
       <c r="B113" s="65"/>
       <c r="C113" s="65"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="65"/>
       <c r="B114" s="65"/>
       <c r="C114" s="65"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="65"/>
       <c r="B115" s="65"/>
       <c r="C115" s="65"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="65"/>
       <c r="B116" s="65"/>
       <c r="C116" s="65"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="65"/>
       <c r="B117" s="65"/>
       <c r="C117" s="65"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="65"/>
       <c r="B118" s="65"/>
       <c r="C118" s="65"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="65"/>
       <c r="B119" s="65"/>
       <c r="C119" s="65"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="65"/>
       <c r="B120" s="65"/>
       <c r="C120" s="65"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="65"/>
       <c r="B121" s="65"/>
       <c r="C121" s="65"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="65"/>
       <c r="B122" s="65"/>
       <c r="C122" s="65"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="65"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EAD74E-B7FA-460A-BA46-2F8630D43001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351E55D-867C-4B4D-BDDA-0A17839D0E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="219">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -1037,6 +1037,10 @@
   </si>
   <si>
     <t>사망 결과창 끄기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongalDeath_Appear_End</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1806,6 +1810,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1817,12 +1827,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2125,8 +2129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F38:F41" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="F38:F41" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F38:F42" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F38:F42" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
   </tableColumns>
@@ -2407,7 +2411,7 @@
       <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2421,7 +2425,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2449,115 +2453,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -3112,7 +3116,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -3186,7 +3190,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3272,7 +3276,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3358,7 +3362,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>64</v>
@@ -3442,7 +3446,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>63</v>
@@ -3526,7 +3530,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3610,7 +3614,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>55</v>
@@ -3691,7 +3695,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3775,7 +3779,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3859,7 +3863,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3933,7 +3937,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -4017,7 +4021,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -4101,7 +4105,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -4185,7 +4189,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A21" s="44"/>
       <c r="B21" s="102" t="s">
         <v>201</v>
@@ -4266,7 +4270,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4350,7 +4354,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4424,7 +4428,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4508,7 +4512,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4592,7 +4596,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4666,7 +4670,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>50</v>
@@ -4750,7 +4754,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4834,7 +4838,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>52</v>
@@ -4918,7 +4922,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>56</v>
@@ -4999,7 +5003,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>53</v>
@@ -5083,7 +5087,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -5167,7 +5171,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5251,7 +5255,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5335,7 +5339,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5419,7 +5423,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5493,7 +5497,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="44"/>
       <c r="B37" s="93" t="s">
         <v>57</v>
@@ -5577,7 +5581,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="44"/>
       <c r="B38" s="93" t="s">
         <v>58</v>
@@ -5661,7 +5665,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A39" s="44"/>
       <c r="B39" s="93" t="s">
         <v>200</v>
@@ -5745,7 +5749,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A40" s="44"/>
       <c r="B40" s="93" t="s">
         <v>199</v>
@@ -5829,7 +5833,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5903,7 +5907,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A42" s="44"/>
       <c r="B42" s="88" t="s">
         <v>51</v>
@@ -5987,7 +5991,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A43" s="44"/>
       <c r="B43" s="88" t="s">
         <v>54</v>
@@ -6071,7 +6075,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A44" s="44"/>
       <c r="B44" s="94" t="s">
         <v>62</v>
@@ -6155,7 +6159,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A45" s="44"/>
       <c r="B45" s="94" t="s">
         <v>61</v>
@@ -6239,7 +6243,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A46" s="44"/>
       <c r="B46" s="94" t="s">
         <v>60</v>
@@ -6323,7 +6327,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A47" s="44"/>
       <c r="B47" s="94" t="s">
         <v>59</v>
@@ -6407,7 +6411,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6483,17 +6487,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6577,13 +6581,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6593,7 +6597,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="95" t="s">
         <v>65</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -6627,7 +6631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>91</v>
@@ -6642,7 +6646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>92</v>
@@ -6657,7 +6661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>93</v>
@@ -6672,7 +6676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>131</v>
@@ -6687,7 +6691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>132</v>
@@ -6702,7 +6706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -6717,7 +6721,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>97</v>
@@ -6732,7 +6736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>118</v>
@@ -6747,7 +6751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>119</v>
@@ -6762,7 +6766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>101</v>
@@ -6777,7 +6781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>102</v>
@@ -6792,7 +6796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>110</v>
@@ -6807,7 +6811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>113</v>
@@ -6822,7 +6826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>204</v>
@@ -6837,7 +6841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>205</v>
@@ -6852,7 +6856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>147</v>
@@ -6867,7 +6871,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>148</v>
@@ -6882,7 +6886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>154</v>
@@ -6897,7 +6901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>156</v>
@@ -6912,7 +6916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>157</v>
@@ -6927,7 +6931,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A23" s="65"/>
       <c r="B23" s="65" t="s">
         <v>86</v>
@@ -6942,7 +6946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>189</v>
@@ -6957,7 +6961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>179</v>
@@ -6972,7 +6976,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>212</v>
@@ -6987,7 +6991,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>190</v>
@@ -7002,7 +7006,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>191</v>
@@ -7017,7 +7021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>202</v>
@@ -7032,7 +7036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>195</v>
@@ -7047,7 +7051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>196</v>
@@ -7062,7 +7066,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>208</v>
@@ -7077,7 +7081,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
         <v>209</v>
@@ -7092,7 +7096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
         <v>214</v>
@@ -7107,7 +7111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
         <v>215</v>
@@ -7122,10 +7126,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A37" s="95" t="s">
         <v>65</v>
       </c>
@@ -7142,7 +7146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38" s="65" t="s">
         <v>66</v>
       </c>
@@ -7162,7 +7166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A39" s="65"/>
       <c r="B39" s="5" t="s">
         <v>99</v>
@@ -7180,13 +7184,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A40" s="65"/>
       <c r="B40" s="5" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>89</v>
@@ -7198,13 +7202,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A41" s="65"/>
       <c r="B41" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>89</v>
@@ -7216,13 +7220,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>89</v>
@@ -7231,13 +7235,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A43" s="65"/>
       <c r="B43" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>89</v>
@@ -7246,12 +7250,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A44" s="65"/>
       <c r="B44" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>89</v>
@@ -7260,9 +7265,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B45" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>123</v>
@@ -7274,9 +7279,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B46" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>123</v>
@@ -7288,9 +7293,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B47" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>123</v>
@@ -7302,9 +7307,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B48" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>123</v>
@@ -7316,9 +7321,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B49" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>123</v>
@@ -7330,9 +7335,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B50" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>123</v>
@@ -7344,9 +7349,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B51" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>123</v>
@@ -7358,9 +7363,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B52" s="5" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>123</v>
@@ -7372,13 +7377,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B53" s="5" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>89</v>
@@ -7387,10 +7391,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" s="65"/>
       <c r="B54" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>136</v>
@@ -7402,10 +7406,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="65"/>
       <c r="B55" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>136</v>
@@ -7417,10 +7421,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="65"/>
       <c r="B56" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>136</v>
@@ -7432,10 +7436,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="65"/>
       <c r="B57" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>136</v>
@@ -7447,10 +7451,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A58" s="65"/>
       <c r="B58" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>136</v>
@@ -7462,13 +7466,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A59" s="65"/>
       <c r="B59" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>89</v>
@@ -7477,10 +7481,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A60" s="65"/>
       <c r="B60" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>143</v>
@@ -7492,10 +7496,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A61" s="65"/>
       <c r="B61" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>143</v>
@@ -7507,13 +7511,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A62" s="65"/>
       <c r="B62" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>89</v>
@@ -7522,10 +7526,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A63" s="65"/>
       <c r="B63" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>161</v>
@@ -7537,10 +7541,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A64" s="65"/>
       <c r="B64" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>161</v>
@@ -7552,41 +7556,41 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="95" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A65" s="65"/>
+      <c r="B65" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A69" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="96" t="s">
+      <c r="B69" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="96" t="s">
+      <c r="C69" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="96" t="s">
+      <c r="D69" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="65" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A70" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="65" t="s">
+      <c r="B70" s="65" t="s">
         <v>68</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="65"/>
-      <c r="B70" s="65" t="s">
-        <v>71</v>
       </c>
       <c r="C70" s="65" t="s">
         <v>70</v>
@@ -7598,67 +7602,67 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A71" s="65"/>
       <c r="B71" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A72" s="65"/>
+      <c r="B72" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="C71" s="65" t="s">
+      <c r="C72" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E71" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="E72" s="101" t="s">
+      <c r="E72" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A73" s="65"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="E73" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="95" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A74" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="96" t="s">
+      <c r="B74" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="96" t="s">
+      <c r="C74" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="96" t="s">
+      <c r="D74" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="65" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A75" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="65" t="s">
+      <c r="B75" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="65" t="s">
+      <c r="C75" s="65" t="s">
         <v>80</v>
-      </c>
-      <c r="D74" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E74" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="65" t="s">
-        <v>81</v>
       </c>
       <c r="D75" s="65" t="s">
         <v>74</v>
@@ -7667,25 +7671,25 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A76" s="65"/>
       <c r="B76" s="65" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="D76" s="65" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="E76" s="100" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A77" s="65"/>
       <c r="B77" s="65" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C77" s="65" t="s">
         <v>167</v>
@@ -7697,10 +7701,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C78" s="65" t="s">
         <v>167</v>
@@ -7712,10 +7716,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" s="65" t="s">
         <v>167</v>
@@ -7727,10 +7731,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A80" s="65"/>
       <c r="B80" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="65" t="s">
         <v>167</v>
@@ -7742,10 +7746,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A81" s="65"/>
       <c r="B81" s="65" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C81" s="65" t="s">
         <v>167</v>
@@ -7757,10 +7761,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A82" s="65"/>
       <c r="B82" s="65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C82" s="65" t="s">
         <v>167</v>
@@ -7772,10 +7776,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A83" s="65"/>
       <c r="B83" s="65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83" s="65" t="s">
         <v>167</v>
@@ -7787,10 +7791,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A84" s="65"/>
       <c r="B84" s="65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C84" s="65" t="s">
         <v>167</v>
@@ -7802,9 +7806,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A85" s="65"/>
       <c r="B85" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85" s="65" t="s">
         <v>167</v>
@@ -7816,12 +7821,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B86" s="65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C86" s="65" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D86" s="65" t="s">
         <v>166</v>
@@ -7830,12 +7835,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B87" s="65" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C87" s="65" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D87" s="65" t="s">
         <v>166</v>
@@ -7844,9 +7849,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B88" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C88" s="65" t="s">
         <v>186</v>
@@ -7858,9 +7863,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B89" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C89" s="65" t="s">
         <v>186</v>
@@ -7872,9 +7877,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B90" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C90" s="65" t="s">
         <v>186</v>
@@ -7886,9 +7891,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B91" s="65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C91" s="65" t="s">
         <v>186</v>
@@ -7900,9 +7905,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B92" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C92" s="65" t="s">
         <v>186</v>
@@ -7914,17 +7919,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B93" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="65" t="s">
+        <v>186</v>
+      </c>
       <c r="D93" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E93" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B94" s="65"/>
       <c r="C94" s="65"/>
       <c r="D94" s="65" t="s">
@@ -7934,7 +7943,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B95" s="65"/>
       <c r="C95" s="65"/>
       <c r="D95" s="65" t="s">
@@ -7944,7 +7953,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65" t="s">
@@ -7954,7 +7963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
       <c r="D97" s="65" t="s">
@@ -7964,7 +7973,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
       <c r="D98" s="65" t="s">
         <v>166</v>
       </c>
@@ -7972,446 +7983,454 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="95" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="D99" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A100" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="96" t="s">
+      <c r="B100" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C99" s="96" t="s">
+      <c r="C100" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D99" s="96" t="s">
+      <c r="D100" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E99" s="96" t="s">
+      <c r="E100" s="96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="65"/>
-      <c r="E101" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
       <c r="E102" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A103" s="65"/>
       <c r="B103" s="65"/>
       <c r="C103" s="65"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E103" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A104" s="65"/>
       <c r="B104" s="65"/>
       <c r="C104" s="65"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="65"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A105" s="65"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A113" s="65"/>
       <c r="B113" s="65"/>
       <c r="C113" s="65"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A114" s="65"/>
       <c r="B114" s="65"/>
       <c r="C114" s="65"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A115" s="65"/>
       <c r="B115" s="65"/>
       <c r="C115" s="65"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A116" s="65"/>
       <c r="B116" s="65"/>
       <c r="C116" s="65"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A117" s="65"/>
       <c r="B117" s="65"/>
       <c r="C117" s="65"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A118" s="65"/>
       <c r="B118" s="65"/>
       <c r="C118" s="65"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A119" s="65"/>
       <c r="B119" s="65"/>
       <c r="C119" s="65"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A120" s="65"/>
       <c r="B120" s="65"/>
       <c r="C120" s="65"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A121" s="65"/>
       <c r="B121" s="65"/>
       <c r="C121" s="65"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A122" s="65"/>
       <c r="B122" s="65"/>
       <c r="C122" s="65"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A123" s="65"/>
       <c r="B123" s="65"/>
       <c r="C123" s="65"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A124" s="65"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351E55D-867C-4B4D-BDDA-0A17839D0E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5524E4-DDF6-40C3-8FDA-CB5BA4D68E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1810,23 +1810,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1845,6 +1845,32 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1904,32 +1930,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -2129,7 +2129,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F38:F42" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F38:F42" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F38:F42" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
@@ -2406,12 +2406,12 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="44" customWidth="1"/>
     <col min="2" max="2" width="37.75" customWidth="1"/>
@@ -2425,7 +2425,7 @@
     <col min="70" max="71" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
@@ -2453,115 +2453,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-    </row>
-    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+    </row>
+    <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
-    </row>
-    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
+    </row>
+    <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:65" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>9</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:65" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>16</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="BL7" s="40"/>
       <c r="BM7" s="40"/>
     </row>
-    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="BL8" s="40"/>
       <c r="BM8" s="40"/>
     </row>
-    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="BL9" s="40"/>
       <c r="BM9" s="40"/>
     </row>
-    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="BL10" s="40"/>
       <c r="BM10" s="40"/>
     </row>
-    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="58" t="s">
         <v>64</v>
@@ -3446,7 +3446,7 @@
       <c r="BL11" s="40"/>
       <c r="BM11" s="40"/>
     </row>
-    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="58" t="s">
         <v>63</v>
@@ -3530,7 +3530,7 @@
       <c r="BL12" s="40"/>
       <c r="BM12" s="40"/>
     </row>
-    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -3614,7 +3614,7 @@
       <c r="BL13" s="40"/>
       <c r="BM13" s="40"/>
     </row>
-    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="58" t="s">
         <v>55</v>
@@ -3695,7 +3695,7 @@
       <c r="BL14" s="40"/>
       <c r="BM14" s="40"/>
     </row>
-    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="58" t="s">
         <v>29</v>
@@ -3779,7 +3779,7 @@
       <c r="BL15" s="40"/>
       <c r="BM15" s="40"/>
     </row>
-    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="58" t="s">
         <v>31</v>
@@ -3863,7 +3863,7 @@
       <c r="BL16" s="40"/>
       <c r="BM16" s="40"/>
     </row>
-    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="BL17" s="40"/>
       <c r="BM17" s="40"/>
     </row>
-    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="59" t="s">
         <v>33</v>
@@ -4021,7 +4021,7 @@
       <c r="BL18" s="40"/>
       <c r="BM18" s="40"/>
     </row>
-    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="59" t="s">
         <v>34</v>
@@ -4105,7 +4105,7 @@
       <c r="BL19" s="40"/>
       <c r="BM19" s="40"/>
     </row>
-    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="59" t="s">
         <v>35</v>
@@ -4189,7 +4189,7 @@
       <c r="BL20" s="40"/>
       <c r="BM20" s="40"/>
     </row>
-    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="102" t="s">
         <v>201</v>
@@ -4270,7 +4270,7 @@
       <c r="BL21" s="40"/>
       <c r="BM21" s="40"/>
     </row>
-    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="59" t="s">
         <v>36</v>
@@ -4354,7 +4354,7 @@
       <c r="BL22" s="40"/>
       <c r="BM22" s="40"/>
     </row>
-    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -4428,7 +4428,7 @@
       <c r="BL23" s="40"/>
       <c r="BM23" s="40"/>
     </row>
-    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="60" t="s">
         <v>39</v>
@@ -4512,7 +4512,7 @@
       <c r="BL24" s="40"/>
       <c r="BM24" s="40"/>
     </row>
-    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="60" t="s">
         <v>40</v>
@@ -4596,7 +4596,7 @@
       <c r="BL25" s="40"/>
       <c r="BM25" s="40"/>
     </row>
-    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>21</v>
       </c>
@@ -4670,7 +4670,7 @@
       <c r="BL26" s="40"/>
       <c r="BM26" s="40"/>
     </row>
-    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="61" t="s">
         <v>50</v>
@@ -4754,7 +4754,7 @@
       <c r="BL27" s="40"/>
       <c r="BM27" s="40"/>
     </row>
-    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44"/>
       <c r="B28" s="61" t="s">
         <v>41</v>
@@ -4838,7 +4838,7 @@
       <c r="BL28" s="40"/>
       <c r="BM28" s="40"/>
     </row>
-    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="61" t="s">
         <v>52</v>
@@ -4922,7 +4922,7 @@
       <c r="BL29" s="40"/>
       <c r="BM29" s="40"/>
     </row>
-    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="61" t="s">
         <v>56</v>
@@ -5003,7 +5003,7 @@
       <c r="BL30" s="40"/>
       <c r="BM30" s="40"/>
     </row>
-    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="61" t="s">
         <v>53</v>
@@ -5087,7 +5087,7 @@
       <c r="BL31" s="40"/>
       <c r="BM31" s="40"/>
     </row>
-    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="61" t="s">
         <v>44</v>
@@ -5171,7 +5171,7 @@
       <c r="BL32" s="40"/>
       <c r="BM32" s="40"/>
     </row>
-    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="61" t="s">
         <v>45</v>
@@ -5255,7 +5255,7 @@
       <c r="BL33" s="40"/>
       <c r="BM33" s="40"/>
     </row>
-    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="61" t="s">
         <v>43</v>
@@ -5339,7 +5339,7 @@
       <c r="BL34" s="40"/>
       <c r="BM34" s="40"/>
     </row>
-    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="61" t="s">
         <v>42</v>
@@ -5423,7 +5423,7 @@
       <c r="BL35" s="40"/>
       <c r="BM35" s="40"/>
     </row>
-    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44" t="s">
         <v>21</v>
       </c>
@@ -5497,7 +5497,7 @@
       <c r="BL36" s="40"/>
       <c r="BM36" s="40"/>
     </row>
-    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44"/>
       <c r="B37" s="93" t="s">
         <v>57</v>
@@ -5581,7 +5581,7 @@
       <c r="BL37" s="40"/>
       <c r="BM37" s="40"/>
     </row>
-    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="93" t="s">
         <v>58</v>
@@ -5665,7 +5665,7 @@
       <c r="BL38" s="40"/>
       <c r="BM38" s="40"/>
     </row>
-    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44"/>
       <c r="B39" s="93" t="s">
         <v>200</v>
@@ -5749,7 +5749,7 @@
       <c r="BL39" s="40"/>
       <c r="BM39" s="40"/>
     </row>
-    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
       <c r="B40" s="93" t="s">
         <v>199</v>
@@ -5833,7 +5833,7 @@
       <c r="BL40" s="40"/>
       <c r="BM40" s="40"/>
     </row>
-    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>21</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="BL41" s="40"/>
       <c r="BM41" s="40"/>
     </row>
-    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="88" t="s">
         <v>51</v>
@@ -5991,7 +5991,7 @@
       <c r="BL42" s="40"/>
       <c r="BM42" s="40"/>
     </row>
-    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="88" t="s">
         <v>54</v>
@@ -6000,7 +6000,7 @@
         <v>25</v>
       </c>
       <c r="D43" s="90">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E43" s="91">
         <f>G42</f>
@@ -6075,7 +6075,7 @@
       <c r="BL43" s="40"/>
       <c r="BM43" s="40"/>
     </row>
-    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="94" t="s">
         <v>62</v>
@@ -6159,7 +6159,7 @@
       <c r="BL44" s="40"/>
       <c r="BM44" s="40"/>
     </row>
-    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="94" t="s">
         <v>61</v>
@@ -6243,7 +6243,7 @@
       <c r="BL45" s="40"/>
       <c r="BM45" s="40"/>
     </row>
-    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44"/>
       <c r="B46" s="94" t="s">
         <v>60</v>
@@ -6327,7 +6327,7 @@
       <c r="BL46" s="40"/>
       <c r="BM46" s="40"/>
     </row>
-    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
       <c r="B47" s="94" t="s">
         <v>59</v>
@@ -6411,7 +6411,7 @@
       <c r="BL47" s="40"/>
       <c r="BM47" s="40"/>
     </row>
-    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:65" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="45" t="s">
         <v>22</v>
       </c>
@@ -6487,17 +6487,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6515,28 +6515,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="5" priority="42">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="5" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6583,11 +6583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -6597,7 +6597,7 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
         <v>65</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>146</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>91</v>
@@ -6646,7 +6646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>92</v>
@@ -6661,7 +6661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>93</v>
@@ -6676,7 +6676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>131</v>
@@ -6691,7 +6691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>132</v>
@@ -6706,7 +6706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>95</v>
@@ -6721,7 +6721,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>97</v>
@@ -6736,7 +6736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>118</v>
@@ -6751,7 +6751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>119</v>
@@ -6766,7 +6766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>101</v>
@@ -6781,7 +6781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>102</v>
@@ -6796,7 +6796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>110</v>
@@ -6811,7 +6811,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>113</v>
@@ -6826,7 +6826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>204</v>
@@ -6841,7 +6841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>205</v>
@@ -6856,7 +6856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>147</v>
@@ -6871,7 +6871,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>148</v>
@@ -6886,7 +6886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>154</v>
@@ -6901,7 +6901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>156</v>
@@ -6916,7 +6916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>157</v>
@@ -6931,7 +6931,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
       <c r="B23" s="65" t="s">
         <v>86</v>
@@ -6946,7 +6946,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>189</v>
@@ -6961,7 +6961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>179</v>
@@ -6976,7 +6976,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>212</v>
@@ -6991,7 +6991,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>190</v>
@@ -7006,7 +7006,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>191</v>
@@ -7021,7 +7021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>202</v>
@@ -7036,7 +7036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>195</v>
@@ -7051,7 +7051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>196</v>
@@ -7066,7 +7066,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>208</v>
@@ -7081,7 +7081,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
         <v>209</v>
@@ -7096,7 +7096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
         <v>214</v>
@@ -7111,7 +7111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
         <v>215</v>
@@ -7126,10 +7126,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="95" t="s">
         <v>65</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
         <v>66</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="65"/>
       <c r="B39" s="5" t="s">
         <v>99</v>
@@ -7184,7 +7184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="65"/>
       <c r="B40" s="5" t="s">
         <v>218</v>
@@ -7202,7 +7202,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="65"/>
       <c r="B41" s="5" t="s">
         <v>106</v>
@@ -7220,7 +7220,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
         <v>108</v>
@@ -7235,7 +7235,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="65"/>
       <c r="B43" s="5" t="s">
         <v>114</v>
@@ -7250,7 +7250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="5" t="s">
         <v>116</v>
@@ -7265,7 +7265,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>122</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>124</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>125</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>126</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>127</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>128</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>129</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>130</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>164</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="5" t="s">
         <v>135</v>
@@ -7406,7 +7406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="65"/>
       <c r="B55" s="5" t="s">
         <v>137</v>
@@ -7421,7 +7421,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="5" t="s">
         <v>139</v>
@@ -7436,7 +7436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="5" t="s">
         <v>138</v>
@@ -7451,7 +7451,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="5" t="s">
         <v>140</v>
@@ -7466,7 +7466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="5" t="s">
         <v>141</v>
@@ -7481,7 +7481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="65"/>
       <c r="B60" s="5" t="s">
         <v>145</v>
@@ -7496,7 +7496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="5" t="s">
         <v>142</v>
@@ -7511,7 +7511,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="65"/>
       <c r="B62" s="5" t="s">
         <v>144</v>
@@ -7526,7 +7526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="65"/>
       <c r="B63" s="5" t="s">
         <v>162</v>
@@ -7541,7 +7541,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="65"/>
       <c r="B64" s="5" t="s">
         <v>160</v>
@@ -7556,7 +7556,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="65"/>
       <c r="B65" s="5" t="s">
         <v>163</v>
@@ -7571,7 +7571,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="95" t="s">
         <v>65</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="65" t="s">
         <v>76</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="65"/>
       <c r="B71" s="65" t="s">
         <v>71</v>
@@ -7617,7 +7617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="65"/>
       <c r="B72" s="65" t="s">
         <v>153</v>
@@ -7632,7 +7632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="65"/>
       <c r="B73" s="65"/>
       <c r="C73" s="65"/>
@@ -7640,7 +7640,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="95" t="s">
         <v>65</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="65" t="s">
         <v>77</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="65"/>
       <c r="B76" s="65" t="s">
         <v>79</v>
@@ -7686,7 +7686,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="65"/>
       <c r="B77" s="65" t="s">
         <v>168</v>
@@ -7701,7 +7701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
         <v>165</v>
@@ -7716,7 +7716,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
         <v>169</v>
@@ -7731,7 +7731,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="65"/>
       <c r="B80" s="65" t="s">
         <v>170</v>
@@ -7746,7 +7746,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="65"/>
       <c r="B81" s="65" t="s">
         <v>171</v>
@@ -7761,7 +7761,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="65"/>
       <c r="B82" s="65" t="s">
         <v>172</v>
@@ -7776,7 +7776,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="65"/>
       <c r="B83" s="65" t="s">
         <v>174</v>
@@ -7791,7 +7791,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="65"/>
       <c r="B84" s="65" t="s">
         <v>173</v>
@@ -7806,7 +7806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="65"/>
       <c r="B85" s="65" t="s">
         <v>175</v>
@@ -7821,7 +7821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B86" s="65" t="s">
         <v>176</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" s="65" t="s">
         <v>178</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" s="65" t="s">
         <v>182</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" s="65" t="s">
         <v>183</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" s="65" t="s">
         <v>184</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" s="65" t="s">
         <v>185</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" s="65" t="s">
         <v>187</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B93" s="65" t="s">
         <v>188</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B94" s="65"/>
       <c r="C94" s="65"/>
       <c r="D94" s="65" t="s">
@@ -7943,7 +7943,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B95" s="65"/>
       <c r="C95" s="65"/>
       <c r="D95" s="65" t="s">
@@ -7953,7 +7953,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B96" s="65"/>
       <c r="C96" s="65"/>
       <c r="D96" s="65" t="s">
@@ -7963,7 +7963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B97" s="65"/>
       <c r="C97" s="65"/>
       <c r="D97" s="65" t="s">
@@ -7973,7 +7973,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B98" s="65"/>
       <c r="C98" s="65"/>
       <c r="D98" s="65" t="s">
@@ -7983,7 +7983,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D99" s="65" t="s">
         <v>166</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="95" t="s">
         <v>65</v>
       </c>
@@ -8008,13 +8008,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="65"/>
       <c r="E102" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="65"/>
       <c r="B103" s="65"/>
       <c r="C103" s="65"/>
@@ -8022,412 +8022,412 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="65"/>
       <c r="B104" s="65"/>
       <c r="C104" s="65"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="65"/>
       <c r="B105" s="65"/>
       <c r="C105" s="65"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="65"/>
       <c r="B109" s="65"/>
       <c r="C109" s="65"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="65"/>
       <c r="B110" s="65"/>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="65"/>
       <c r="B111" s="65"/>
       <c r="C111" s="65"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="65"/>
       <c r="B112" s="65"/>
       <c r="C112" s="65"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="65"/>
       <c r="B113" s="65"/>
       <c r="C113" s="65"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="65"/>
       <c r="B114" s="65"/>
       <c r="C114" s="65"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="65"/>
       <c r="B115" s="65"/>
       <c r="C115" s="65"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="65"/>
       <c r="B116" s="65"/>
       <c r="C116" s="65"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="65"/>
       <c r="B117" s="65"/>
       <c r="C117" s="65"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="65"/>
       <c r="B118" s="65"/>
       <c r="C118" s="65"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="65"/>
       <c r="B119" s="65"/>
       <c r="C119" s="65"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="65"/>
       <c r="B120" s="65"/>
       <c r="C120" s="65"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="65"/>
       <c r="B121" s="65"/>
       <c r="C121" s="65"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="65"/>
       <c r="B122" s="65"/>
       <c r="C122" s="65"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="65"/>
       <c r="B123" s="65"/>
       <c r="C123" s="65"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="65"/>
       <c r="B124" s="65"/>
       <c r="C124" s="65"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5524E4-DDF6-40C3-8FDA-CB5BA4D68E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8068DCE3-7240-4980-BBA8-35D61CFB4202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="223">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -1041,6 +1041,22 @@
   </si>
   <si>
     <t>MongalDeath_Appear_End</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryOn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryOff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 켜기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 끄기</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1810,6 +1826,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1821,12 +1843,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1845,32 +1861,6 @@
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1930,6 +1920,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -2129,8 +2145,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F38:F42" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="F38:F42" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F40:F44" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F40:F44" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
   </tableColumns>
@@ -2406,8 +2422,8 @@
   </sheetPr>
   <dimension ref="A1:BM48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
@@ -2458,108 +2474,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="108">
         <v>45047</v>
       </c>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="108"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="103">
+      <c r="J4" s="105">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="103">
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="105">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="103">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="105">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="103">
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="105">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="105"/>
-      <c r="AL4" s="103">
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="105">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="105"/>
-      <c r="AS4" s="103">
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="105">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="103">
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="105">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="105"/>
-      <c r="BG4" s="103">
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="105">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="105"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="107"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
@@ -6487,17 +6503,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6515,28 +6531,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J5:BM40">
-    <cfRule type="expression" dxfId="6" priority="42">
+    <cfRule type="expression" dxfId="5" priority="42">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:BM48 J7:BM40">
-    <cfRule type="expression" dxfId="5" priority="36">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="37" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41:BM47">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6581,10 +6597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7126,71 +7142,65 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="95" t="s">
+      <c r="B36" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B39" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="96" t="s">
+      <c r="C39" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D39" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="E39" s="96" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="99" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>89</v>
@@ -7198,17 +7208,17 @@
       <c r="E40" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="98" t="s">
-        <v>83</v>
+      <c r="F40" s="99" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="65"/>
       <c r="B41" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>89</v>
@@ -7216,47 +7226,53 @@
       <c r="E41" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="99" t="s">
-        <v>85</v>
+      <c r="F41" s="97" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="65"/>
       <c r="B42" s="5" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E42" s="100" t="s">
         <v>85</v>
+      </c>
+      <c r="F42" s="98" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="65"/>
       <c r="B43" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E43" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="99" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="65"/>
       <c r="B44" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>89</v>
@@ -7266,11 +7282,12 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="65"/>
       <c r="B45" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>89</v>
@@ -7280,11 +7297,12 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="65"/>
       <c r="B46" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>89</v>
@@ -7295,7 +7313,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>123</v>
@@ -7309,7 +7327,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>123</v>
@@ -7323,7 +7341,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>123</v>
@@ -7337,7 +7355,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>123</v>
@@ -7351,7 +7369,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>123</v>
@@ -7365,7 +7383,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>123</v>
@@ -7379,7 +7397,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>123</v>
@@ -7392,12 +7410,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
       <c r="B54" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>89</v>
@@ -7407,12 +7424,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="65"/>
       <c r="B55" s="5" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>89</v>
@@ -7424,7 +7440,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="65"/>
       <c r="B56" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>136</v>
@@ -7439,7 +7455,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="65"/>
       <c r="B57" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>136</v>
@@ -7454,7 +7470,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="65"/>
       <c r="B58" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>136</v>
@@ -7469,7 +7485,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>136</v>
@@ -7484,10 +7500,10 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="65"/>
       <c r="B60" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>89</v>
@@ -7499,10 +7515,10 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="65"/>
       <c r="B61" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>89</v>
@@ -7514,7 +7530,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="65"/>
       <c r="B62" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>143</v>
@@ -7529,10 +7545,10 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="65"/>
       <c r="B63" s="5" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>89</v>
@@ -7544,10 +7560,10 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="65"/>
       <c r="B64" s="5" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>89</v>
@@ -7559,7 +7575,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="65"/>
       <c r="B65" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>161</v>
@@ -7571,62 +7587,62 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="95" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="65"/>
+      <c r="B66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="65"/>
+      <c r="B67" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="96" t="s">
+      <c r="B71" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="96" t="s">
+      <c r="C71" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="96" t="s">
+      <c r="D71" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="65" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B72" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="65" t="s">
+      <c r="C72" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="65" t="s">
+      <c r="D72" s="65" t="s">
         <v>74</v>
-      </c>
-      <c r="E70" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
-      <c r="B71" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="E72" s="100" t="s">
         <v>85</v>
@@ -7634,68 +7650,68 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="65"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="E73" s="101" t="s">
+      <c r="B73" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="65"/>
+      <c r="B74" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="65"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="E75" s="101" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="95" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B76" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="96" t="s">
+      <c r="C76" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="96" t="s">
+      <c r="D76" s="96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="65" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="65" t="s">
+      <c r="B77" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C77" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="65" t="s">
+      <c r="D77" s="65" t="s">
         <v>74</v>
-      </c>
-      <c r="E75" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="D76" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="E77" s="100" t="s">
         <v>85</v>
@@ -7704,13 +7720,13 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="65"/>
       <c r="B78" s="65" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="D78" s="65" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="E78" s="100" t="s">
         <v>85</v>
@@ -7719,7 +7735,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="65"/>
       <c r="B79" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" s="65" t="s">
         <v>167</v>
@@ -7734,7 +7750,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="65"/>
       <c r="B80" s="65" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C80" s="65" t="s">
         <v>167</v>
@@ -7749,7 +7765,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="65"/>
       <c r="B81" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C81" s="65" t="s">
         <v>167</v>
@@ -7764,7 +7780,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="65"/>
       <c r="B82" s="65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C82" s="65" t="s">
         <v>167</v>
@@ -7779,7 +7795,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="65"/>
       <c r="B83" s="65" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C83" s="65" t="s">
         <v>167</v>
@@ -7794,7 +7810,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="65"/>
       <c r="B84" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C84" s="65" t="s">
         <v>167</v>
@@ -7809,7 +7825,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="65"/>
       <c r="B85" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C85" s="65" t="s">
         <v>167</v>
@@ -7822,8 +7838,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="65"/>
       <c r="B86" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C86" s="65" t="s">
         <v>167</v>
@@ -7836,11 +7853,12 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="65"/>
       <c r="B87" s="65" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C87" s="65" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D87" s="65" t="s">
         <v>166</v>
@@ -7851,10 +7869,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" s="65" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C88" s="65" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D88" s="65" t="s">
         <v>166</v>
@@ -7865,10 +7883,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" s="65" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C89" s="65" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D89" s="65" t="s">
         <v>166</v>
@@ -7879,7 +7897,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C90" s="65" t="s">
         <v>186</v>
@@ -7893,7 +7911,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C91" s="65" t="s">
         <v>186</v>
@@ -7907,7 +7925,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" s="65" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C92" s="65" t="s">
         <v>186</v>
@@ -7921,7 +7939,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B93" s="65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C93" s="65" t="s">
         <v>186</v>
@@ -7934,23 +7952,31 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
+      <c r="B94" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="65" t="s">
+        <v>186</v>
+      </c>
       <c r="D94" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E94" s="101" t="s">
-        <v>84</v>
+      <c r="E94" s="100" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
+      <c r="B95" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="65" t="s">
+        <v>186</v>
+      </c>
       <c r="D95" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E95" s="101" t="s">
-        <v>84</v>
+      <c r="E95" s="100" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -7984,6 +8010,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
       <c r="D99" s="65" t="s">
         <v>166</v>
       </c>
@@ -7992,55 +8020,63 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="95" t="s">
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D101" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B100" s="96" t="s">
+      <c r="B102" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="96" t="s">
+      <c r="C102" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D100" s="96" t="s">
+      <c r="D102" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E100" s="96" t="s">
+      <c r="E102" s="96" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="65"/>
-      <c r="E102" s="101" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="E103" s="101" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
+      <c r="E104" s="101" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="65"/>
       <c r="B105" s="65"/>
       <c r="C105" s="65"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="65"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="65"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
+      <c r="E105" s="101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="65"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="65"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="65"/>
@@ -8113,14 +8149,14 @@
       <c r="C124" s="65"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
+      <c r="A125" s="65"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="65"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="A126" s="65"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="65"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
@@ -8431,6 +8467,16 @@
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/Project/Doc/스컬 간트차트.xlsx
+++ b/Project/Doc/스컬 간트차트.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8068DCE3-7240-4980-BBA8-35D61CFB4202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED512314-96EF-4918-9C33-6A28CB83D8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="229">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -1057,6 +1057,30 @@
   </si>
   <si>
     <t>인벤토리 끄기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemGearPopupOn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemGearPopupOff</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemGearPopupCheck</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템기어 팝업 켜기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템기어 팝업 끄기</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템기어 팝업이 꺼져있을 경우 On</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1826,23 +1850,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2145,8 +2169,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F40:F44" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="F40:F44" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}" name="표5" displayName="표5" ref="F43:F47" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F43:F47" xr:uid="{075813CD-3E33-4DB9-A190-99FCE1DE2588}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{04B36245-08EB-4AF4-97DA-DE388FAFCE80}" name="기능 구현 완료"/>
   </tableColumns>
@@ -2474,108 +2498,108 @@
         <v>4</v>
       </c>
       <c r="B3" s="49"/>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="108">
+      <c r="D3" s="108"/>
+      <c r="E3" s="106">
         <v>45047</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="65"/>
-      <c r="J4" s="105">
+      <c r="J4" s="103">
         <f>J5</f>
         <v>45047</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="105">
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="103">
         <f>Q5</f>
         <v>45054</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="105">
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f>X5</f>
         <v>45061</v>
       </c>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="105">
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="103">
         <f>AE5</f>
         <v>45068</v>
       </c>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="107"/>
-      <c r="AL4" s="105">
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="105"/>
+      <c r="AL4" s="103">
         <f>AL5</f>
         <v>45075</v>
       </c>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="107"/>
-      <c r="AS4" s="105">
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="105"/>
+      <c r="AS4" s="103">
         <f>AS5</f>
         <v>45082</v>
       </c>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="107"/>
-      <c r="AZ4" s="105">
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="103">
         <f>AZ5</f>
         <v>45089</v>
       </c>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="107"/>
-      <c r="BG4" s="105">
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="105"/>
+      <c r="BG4" s="103">
         <f>BG5</f>
         <v>45096</v>
       </c>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="107"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="105"/>
     </row>
     <row r="5" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
@@ -6503,17 +6527,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AL4:AR4"/>
+    <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
     <mergeCell ref="BG4:BM4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="AE4:AK4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AL4:AR4"/>
-    <mergeCell ref="AS4:AY4"/>
-    <mergeCell ref="AZ4:BF4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="D7:D48">
@@ -6597,10 +6621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5DF36C-4F88-4B79-BFF2-98D76F5DE730}">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7010,10 +7034,10 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>74</v>
@@ -7025,10 +7049,10 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>74</v>
@@ -7040,10 +7064,10 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="D29" s="65" t="s">
         <v>74</v>
@@ -7055,13 +7079,13 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="E30" s="100" t="s">
         <v>85</v>
@@ -7070,13 +7094,13 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="E31" s="100" t="s">
         <v>85</v>
@@ -7085,10 +7109,10 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>74</v>
@@ -7100,13 +7124,13 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D33" s="65" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="E33" s="100" t="s">
         <v>85</v>
@@ -7115,25 +7139,25 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>74</v